--- a/Culture.xlsx
+++ b/Culture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383A7318-BA0E-43FF-8746-EC60C54D1ADE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C858F49-EFD8-4163-97E9-92CEA08ADA9D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="38400" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="38400" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResXResourceManager" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4698" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4711" uniqueCount="857">
   <si>
     <t>Project</t>
   </si>
@@ -1131,9 +1131,6 @@
     <t>Images:</t>
   </si>
   <si>
-    <t>Scale properties</t>
-  </si>
-  <si>
     <t>Forms\StatusForm</t>
   </si>
   <si>
@@ -1240,9 +1237,6 @@
   </si>
   <si>
     <t>deleteToolStripMenuItem.Text</t>
-  </si>
-  <si>
-    <t>TimeForm</t>
   </si>
   <si>
     <t>editPosOnesHourBtn.Text</t>
@@ -2301,6 +2295,306 @@
   </si>
   <si>
     <t>Complete</t>
+  </si>
+  <si>
+    <t>Ширина:</t>
+  </si>
+  <si>
+    <t>Центр:</t>
+  </si>
+  <si>
+    <t>Радиус:</t>
+  </si>
+  <si>
+    <t>Нач.угол:</t>
+  </si>
+  <si>
+    <t>Кон.угол:</t>
+  </si>
+  <si>
+    <t>Цвет:</t>
+  </si>
+  <si>
+    <t>Свойства</t>
+  </si>
+  <si>
+    <t>Подтвердить</t>
+  </si>
+  <si>
+    <t>Номер изображения</t>
+  </si>
+  <si>
+    <t>Открыть JSON редактор</t>
+  </si>
+  <si>
+    <t>Добавить суффикс</t>
+  </si>
+  <si>
+    <t>Добавить префикс</t>
+  </si>
+  <si>
+    <t>Добавить шаги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Шаги</t>
+  </si>
+  <si>
+    <t>Шаги</t>
+  </si>
+  <si>
+    <t>Добавить калории</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Калории</t>
+  </si>
+  <si>
+    <t>Калории</t>
+  </si>
+  <si>
+    <t>Добавить no data</t>
+  </si>
+  <si>
+    <t>Добавить пульс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Пульс</t>
+  </si>
+  <si>
+    <t>Пульс</t>
+  </si>
+  <si>
+    <t>Добавить MI картинку</t>
+  </si>
+  <si>
+    <t>Добавить KM картинку</t>
+  </si>
+  <si>
+    <t>Добавить MI суффикс</t>
+  </si>
+  <si>
+    <t>Добавить дес. Точку</t>
+  </si>
+  <si>
+    <t>Добавить KM суффикс</t>
+  </si>
+  <si>
+    <t>Добавить дистанцию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Дистанция</t>
+  </si>
+  <si>
+    <t>Дистанция</t>
+  </si>
+  <si>
+    <t>Добавить PAI</t>
+  </si>
+  <si>
+    <t>Активность</t>
+  </si>
+  <si>
+    <t>Добавить картинку no data</t>
+  </si>
+  <si>
+    <t>Добавить картинку выкл.</t>
+  </si>
+  <si>
+    <t>Добавить картинку вкл.</t>
+  </si>
+  <si>
+    <t>Добавить разделитель</t>
+  </si>
+  <si>
+    <t>Будильник</t>
+  </si>
+  <si>
+    <t>Добавить стрелку</t>
+  </si>
+  <si>
+    <t>Только граница</t>
+  </si>
+  <si>
+    <t>Добавить центральное изобр.</t>
+  </si>
+  <si>
+    <t>Часы</t>
+  </si>
+  <si>
+    <t>Минуты</t>
+  </si>
+  <si>
+    <t>Добавить</t>
+  </si>
+  <si>
+    <t>Число повторений:</t>
+  </si>
+  <si>
+    <t>Скорость:</t>
+  </si>
+  <si>
+    <t>Выбрать изобр.</t>
+  </si>
+  <si>
+    <t>Анимация</t>
+  </si>
+  <si>
+    <t>Удалить точку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Щелкните правой кнопкой мыши, чтобы показать контекстное менюРасположите точки последовательно, так как стрелка является многоугольником.  </t>
+  </si>
+  <si>
+    <t>Удалить все</t>
+  </si>
+  <si>
+    <t>Стереть</t>
+  </si>
+  <si>
+    <t>Двойной клик для удаления</t>
+  </si>
+  <si>
+    <t>Точка</t>
+  </si>
+  <si>
+    <t>Двойной клик для рисования</t>
+  </si>
+  <si>
+    <t>Использовать цвет background</t>
+  </si>
+  <si>
+    <t>Выбрать цвет</t>
+  </si>
+  <si>
+    <t>Цвет background</t>
+  </si>
+  <si>
+    <t>Изобр.:</t>
+  </si>
+  <si>
+    <t>Генерировать previews</t>
+  </si>
+  <si>
+    <t>Добавить Number</t>
+  </si>
+  <si>
+    <t>Текст батареи</t>
+  </si>
+  <si>
+    <t>Добавить изобр.</t>
+  </si>
+  <si>
+    <t>Иконка батареи</t>
+  </si>
+  <si>
+    <t>Два знака дня</t>
+  </si>
+  <si>
+    <t>Два знака месяца</t>
+  </si>
+  <si>
+    <t>Добавить день</t>
+  </si>
+  <si>
+    <t>Добавить месяц</t>
+  </si>
+  <si>
+    <t>Добавить изобр. Месяца</t>
+  </si>
+  <si>
+    <t>Добавить месяц и день</t>
+  </si>
+  <si>
+    <t>Добавить изобр. разделителя</t>
+  </si>
+  <si>
+    <t>Добавить месяц, день, год</t>
+  </si>
+  <si>
+    <t>Позиция:</t>
+  </si>
+  <si>
+    <t>Добавить изобр. PM</t>
+  </si>
+  <si>
+    <t>Добавить изобр. AM</t>
+  </si>
+  <si>
+    <t>Добавить изобр. дней недели</t>
+  </si>
+  <si>
+    <t>Размер:</t>
+  </si>
+  <si>
+    <t>Добавить изобр. выкл</t>
+  </si>
+  <si>
+    <t>Добав X:</t>
+  </si>
+  <si>
+    <t>Добав Y:</t>
+  </si>
+  <si>
+    <t>Вырав.:</t>
+  </si>
+  <si>
+    <t>Добавить изобр. вкл</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Добавить круговую диаг.</t>
+  </si>
+  <si>
+    <t>Добавить десятки</t>
+  </si>
+  <si>
+    <t>Добавить единицы</t>
+  </si>
+  <si>
+    <t>Добавить no time</t>
+  </si>
+  <si>
+    <t>Случайная генерация значений watchface</t>
+  </si>
+  <si>
+    <t>Нет времени будильника</t>
+  </si>
+  <si>
+    <t>Калории:</t>
+  </si>
+  <si>
+    <t>Случайно</t>
+  </si>
+  <si>
+    <t>Нет time zone</t>
+  </si>
+  <si>
+    <t>Ветер:</t>
+  </si>
+  <si>
+    <t>UV индекс:</t>
+  </si>
+  <si>
+    <t>Км</t>
+  </si>
+  <si>
+    <t>Ми</t>
+  </si>
+  <si>
+    <t>Будильник вкл</t>
+  </si>
+  <si>
+    <t>Не беспокоить</t>
+  </si>
+  <si>
+    <t>Блокировка</t>
+  </si>
+  <si>
+    <t>Блютуз</t>
+  </si>
+  <si>
+    <t>Качество воздуха:</t>
   </si>
 </sst>
 </file>
@@ -2336,11 +2630,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2657,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I522"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
+      <selection activeCell="I317" sqref="I317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2669,6 +2967,8 @@
     <col min="5" max="5" width="33.140625" customWidth="1"/>
     <col min="6" max="6" width="0.42578125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="0.140625" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2726,7 +3026,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2755,7 +3055,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2784,7 +3084,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2813,7 +3113,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2842,7 +3142,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2871,7 +3171,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2900,7 +3200,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2929,7 +3229,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>762</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2958,7 +3258,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2987,7 +3287,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3016,7 +3316,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3045,7 +3345,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3074,7 +3374,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3103,7 +3403,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>4</v>
+        <v>764</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3132,7 +3432,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>4</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3161,7 +3461,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3190,7 +3490,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3219,7 +3519,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3248,7 +3548,7 @@
         <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3277,7 +3577,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3306,7 +3606,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3335,7 +3635,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3364,7 +3664,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3393,7 +3693,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3422,7 +3722,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3451,7 +3751,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3480,7 +3780,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3509,7 +3809,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3538,7 +3838,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3567,7 +3867,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3973,7 +4273,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4060,7 +4360,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="s">
-        <v>4</v>
+        <v>766</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -4321,7 +4621,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>4</v>
+        <v>767</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -4350,7 +4650,7 @@
         <v>4</v>
       </c>
       <c r="I58" t="s">
-        <v>4</v>
+        <v>768</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -4379,7 +4679,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="s">
-        <v>4</v>
+        <v>769</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4408,7 +4708,7 @@
         <v>4</v>
       </c>
       <c r="I60" t="s">
-        <v>4</v>
+        <v>770</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -4437,7 +4737,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>4</v>
+        <v>771</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -4466,7 +4766,7 @@
         <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>4</v>
+        <v>767</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4483,19 +4783,19 @@
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="F63" t="s">
         <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
       </c>
       <c r="I63" t="s">
-        <v>4</v>
+        <v>768</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -4524,7 +4824,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>4</v>
+        <v>772</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -4553,7 +4853,7 @@
         <v>4</v>
       </c>
       <c r="I65" t="s">
-        <v>4</v>
+        <v>773</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -4582,7 +4882,7 @@
         <v>4</v>
       </c>
       <c r="I66" t="s">
-        <v>4</v>
+        <v>774</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -4611,7 +4911,7 @@
         <v>4</v>
       </c>
       <c r="I67" t="s">
-        <v>4</v>
+        <v>775</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -4640,7 +4940,7 @@
         <v>4</v>
       </c>
       <c r="I68" t="s">
-        <v>4</v>
+        <v>767</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -4657,19 +4957,19 @@
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="F69" t="s">
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
       </c>
       <c r="I69" t="s">
-        <v>4</v>
+        <v>768</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -4698,7 +4998,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>4</v>
+        <v>776</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -4727,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="I71" t="s">
-        <v>4</v>
+        <v>777</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -4756,7 +5056,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="s">
-        <v>4</v>
+        <v>778</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -4785,7 +5085,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>4</v>
+        <v>779</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -4814,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>4</v>
+        <v>780</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -4843,7 +5143,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="s">
-        <v>4</v>
+        <v>781</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -4872,7 +5172,7 @@
         <v>4</v>
       </c>
       <c r="I76" t="s">
-        <v>4</v>
+        <v>782</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -4901,7 +5201,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>4</v>
+        <v>783</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -4930,7 +5230,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>4</v>
+        <v>784</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -4959,7 +5259,7 @@
         <v>4</v>
       </c>
       <c r="I79" t="s">
-        <v>4</v>
+        <v>785</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -4988,7 +5288,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>4</v>
+        <v>786</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -5017,7 +5317,7 @@
         <v>4</v>
       </c>
       <c r="I81" t="s">
-        <v>4</v>
+        <v>787</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -5046,7 +5346,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -5075,7 +5375,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="s">
-        <v>4</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -5104,7 +5404,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -5133,7 +5433,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="s">
-        <v>4</v>
+        <v>788</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -5162,7 +5462,7 @@
         <v>4</v>
       </c>
       <c r="I86" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -5191,7 +5491,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="s">
-        <v>4</v>
+        <v>816</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -5220,7 +5520,7 @@
         <v>4</v>
       </c>
       <c r="I88" t="s">
-        <v>4</v>
+        <v>789</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -5249,7 +5549,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="s">
-        <v>4</v>
+        <v>790</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5278,7 +5578,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="s">
-        <v>4</v>
+        <v>791</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -5307,7 +5607,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>4</v>
+        <v>792</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -5336,7 +5636,7 @@
         <v>4</v>
       </c>
       <c r="I92" t="s">
-        <v>4</v>
+        <v>763</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -5365,7 +5665,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>4</v>
+        <v>793</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -5394,7 +5694,7 @@
         <v>4</v>
       </c>
       <c r="I94" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -5423,7 +5723,7 @@
         <v>4</v>
       </c>
       <c r="I95" t="s">
-        <v>4</v>
+        <v>794</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -5452,7 +5752,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>4</v>
+        <v>762</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -5481,7 +5781,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="s">
-        <v>4</v>
+        <v>795</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -5510,7 +5810,7 @@
         <v>4</v>
       </c>
       <c r="I98" t="s">
-        <v>4</v>
+        <v>796</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -5539,7 +5839,7 @@
         <v>4</v>
       </c>
       <c r="I99" t="s">
-        <v>4</v>
+        <v>758</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -5568,7 +5868,7 @@
         <v>4</v>
       </c>
       <c r="I100" t="s">
-        <v>4</v>
+        <v>763</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -5626,7 +5926,7 @@
         <v>4</v>
       </c>
       <c r="I102" t="s">
-        <v>4</v>
+        <v>797</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -5655,7 +5955,7 @@
         <v>4</v>
       </c>
       <c r="I103" t="s">
-        <v>4</v>
+        <v>794</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -5684,7 +5984,7 @@
         <v>4</v>
       </c>
       <c r="I104" t="s">
-        <v>4</v>
+        <v>762</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -5713,7 +6013,7 @@
         <v>4</v>
       </c>
       <c r="I105" t="s">
-        <v>4</v>
+        <v>795</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -5742,7 +6042,7 @@
         <v>4</v>
       </c>
       <c r="I106" t="s">
-        <v>4</v>
+        <v>796</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -5771,7 +6071,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>4</v>
+        <v>758</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -5800,7 +6100,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>4</v>
+        <v>763</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -5858,7 +6158,7 @@
         <v>4</v>
       </c>
       <c r="I110" t="s">
-        <v>4</v>
+        <v>798</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -5887,7 +6187,7 @@
         <v>4</v>
       </c>
       <c r="I111" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -5916,7 +6216,7 @@
         <v>4</v>
       </c>
       <c r="I112" t="s">
-        <v>4</v>
+        <v>799</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -5945,7 +6245,7 @@
         <v>4</v>
       </c>
       <c r="I113" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -5974,7 +6274,7 @@
         <v>4</v>
       </c>
       <c r="I114" t="s">
-        <v>4</v>
+        <v>800</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -6003,7 +6303,7 @@
         <v>4</v>
       </c>
       <c r="I115" t="s">
-        <v>4</v>
+        <v>801</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -6032,7 +6332,7 @@
         <v>4</v>
       </c>
       <c r="I116" t="s">
-        <v>4</v>
+        <v>802</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -6061,7 +6361,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>4</v>
+        <v>803</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -6090,7 +6390,7 @@
         <v>4</v>
       </c>
       <c r="I118" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -6119,7 +6419,7 @@
         <v>4</v>
       </c>
       <c r="I119" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -6148,7 +6448,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -6177,10 +6477,10 @@
         <v>4</v>
       </c>
       <c r="I121" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>9</v>
       </c>
@@ -6193,20 +6493,20 @@
       <c r="D122" t="s">
         <v>4</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="2" t="s">
         <v>231</v>
       </c>
       <c r="F122" t="s">
         <v>4</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="2" t="s">
         <v>231</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
       </c>
       <c r="I122" t="s">
-        <v>4</v>
+        <v>805</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -6235,7 +6535,7 @@
         <v>4</v>
       </c>
       <c r="I123" t="s">
-        <v>4</v>
+        <v>806</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -6264,7 +6564,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="s">
-        <v>4</v>
+        <v>807</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -6293,7 +6593,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>4</v>
+        <v>808</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -6322,7 +6622,7 @@
         <v>4</v>
       </c>
       <c r="I126" t="s">
-        <v>4</v>
+        <v>809</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -6351,7 +6651,7 @@
         <v>4</v>
       </c>
       <c r="I127" t="s">
-        <v>4</v>
+        <v>810</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -6380,7 +6680,7 @@
         <v>4</v>
       </c>
       <c r="I128" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -6409,7 +6709,7 @@
         <v>4</v>
       </c>
       <c r="I129" t="s">
-        <v>4</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -6438,7 +6738,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="s">
-        <v>4</v>
+        <v>811</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -6467,7 +6767,7 @@
         <v>4</v>
       </c>
       <c r="I131" t="s">
-        <v>4</v>
+        <v>812</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -6496,7 +6796,7 @@
         <v>4</v>
       </c>
       <c r="I132" t="s">
-        <v>4</v>
+        <v>813</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -6525,7 +6825,7 @@
         <v>4</v>
       </c>
       <c r="I133" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -6554,7 +6854,7 @@
         <v>4</v>
       </c>
       <c r="I134" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -6583,7 +6883,7 @@
         <v>4</v>
       </c>
       <c r="I135" t="s">
-        <v>4</v>
+        <v>814</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -6612,7 +6912,7 @@
         <v>4</v>
       </c>
       <c r="I136" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -6637,11 +6937,8 @@
       <c r="G137" t="s">
         <v>18</v>
       </c>
-      <c r="H137" t="s">
-        <v>4</v>
-      </c>
       <c r="I137" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -6670,7 +6967,7 @@
         <v>4</v>
       </c>
       <c r="I138" t="s">
-        <v>4</v>
+        <v>254</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -6699,7 +6996,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>4</v>
+        <v>255</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -6728,7 +7025,7 @@
         <v>4</v>
       </c>
       <c r="I140" t="s">
-        <v>4</v>
+        <v>256</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -6757,7 +7054,7 @@
         <v>4</v>
       </c>
       <c r="I141" t="s">
-        <v>4</v>
+        <v>815</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -6786,7 +7083,7 @@
         <v>4</v>
       </c>
       <c r="I142" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -6815,7 +7112,7 @@
         <v>4</v>
       </c>
       <c r="I143" t="s">
-        <v>4</v>
+        <v>767</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -6844,7 +7141,7 @@
         <v>4</v>
       </c>
       <c r="I144" t="s">
-        <v>4</v>
+        <v>768</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -6873,7 +7170,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>4</v>
+        <v>816</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -6931,7 +7228,7 @@
         <v>4</v>
       </c>
       <c r="I147" t="s">
-        <v>4</v>
+        <v>817</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -6960,7 +7257,7 @@
         <v>4</v>
       </c>
       <c r="I148" t="s">
-        <v>4</v>
+        <v>818</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -7018,7 +7315,7 @@
         <v>4</v>
       </c>
       <c r="I150" t="s">
-        <v>4</v>
+        <v>819</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -7047,7 +7344,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="s">
-        <v>4</v>
+        <v>818</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -7105,7 +7402,7 @@
         <v>4</v>
       </c>
       <c r="I153" t="s">
-        <v>4</v>
+        <v>270</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -7134,7 +7431,7 @@
         <v>4</v>
       </c>
       <c r="I154" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -7163,7 +7460,7 @@
         <v>4</v>
       </c>
       <c r="I155" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -7192,7 +7489,7 @@
         <v>4</v>
       </c>
       <c r="I156" t="s">
-        <v>4</v>
+        <v>820</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -7221,7 +7518,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="s">
-        <v>4</v>
+        <v>821</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -7250,7 +7547,7 @@
         <v>4</v>
       </c>
       <c r="I158" t="s">
-        <v>4</v>
+        <v>822</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -7279,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="I159" t="s">
-        <v>4</v>
+        <v>823</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -7308,7 +7605,7 @@
         <v>4</v>
       </c>
       <c r="I160" t="s">
-        <v>4</v>
+        <v>824</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -7366,7 +7663,7 @@
         <v>4</v>
       </c>
       <c r="I162" t="s">
-        <v>4</v>
+        <v>283</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -7395,7 +7692,7 @@
         <v>4</v>
       </c>
       <c r="I163" t="s">
-        <v>4</v>
+        <v>826</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -7424,7 +7721,7 @@
         <v>4</v>
       </c>
       <c r="I164" t="s">
-        <v>4</v>
+        <v>825</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -7482,7 +7779,7 @@
         <v>4</v>
       </c>
       <c r="I166" t="s">
-        <v>4</v>
+        <v>289</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -7511,7 +7808,7 @@
         <v>4</v>
       </c>
       <c r="I167" t="s">
-        <v>4</v>
+        <v>826</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -7540,7 +7837,7 @@
         <v>4</v>
       </c>
       <c r="I168" t="s">
-        <v>4</v>
+        <v>827</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -7594,11 +7891,8 @@
       <c r="G170" t="s">
         <v>294</v>
       </c>
-      <c r="H170" t="s">
-        <v>4</v>
-      </c>
       <c r="I170" t="s">
-        <v>4</v>
+        <v>294</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -7627,7 +7921,7 @@
         <v>4</v>
       </c>
       <c r="I171" t="s">
-        <v>4</v>
+        <v>296</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -7656,7 +7950,7 @@
         <v>4</v>
       </c>
       <c r="I172" t="s">
-        <v>4</v>
+        <v>828</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -7685,7 +7979,7 @@
         <v>4</v>
       </c>
       <c r="I173" t="s">
-        <v>4</v>
+        <v>829</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -7714,7 +8008,7 @@
         <v>4</v>
       </c>
       <c r="I174" t="s">
-        <v>4</v>
+        <v>830</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -7772,7 +8066,7 @@
         <v>4</v>
       </c>
       <c r="I176" t="s">
-        <v>4</v>
+        <v>303</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -7801,7 +8095,7 @@
         <v>4</v>
       </c>
       <c r="I177" t="s">
-        <v>4</v>
+        <v>831</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -7859,7 +8153,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="s">
-        <v>4</v>
+        <v>307</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -7888,7 +8182,7 @@
         <v>4</v>
       </c>
       <c r="I180" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -7917,7 +8211,7 @@
         <v>4</v>
       </c>
       <c r="I181" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -7946,7 +8240,7 @@
         <v>4</v>
       </c>
       <c r="I182" t="s">
-        <v>4</v>
+        <v>818</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -8004,7 +8298,7 @@
         <v>4</v>
       </c>
       <c r="I184" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -8033,7 +8327,7 @@
         <v>4</v>
       </c>
       <c r="I185" t="s">
-        <v>4</v>
+        <v>818</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -8091,7 +8385,7 @@
         <v>4</v>
       </c>
       <c r="I187" t="s">
-        <v>4</v>
+        <v>312</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -8120,7 +8414,7 @@
         <v>4</v>
       </c>
       <c r="I188" t="s">
-        <v>4</v>
+        <v>818</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -8178,7 +8472,7 @@
         <v>4</v>
       </c>
       <c r="I190" t="s">
-        <v>4</v>
+        <v>270</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -8207,7 +8501,7 @@
         <v>4</v>
       </c>
       <c r="I191" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -8236,7 +8530,7 @@
         <v>4</v>
       </c>
       <c r="I192" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -8265,7 +8559,7 @@
         <v>4</v>
       </c>
       <c r="I193" t="s">
-        <v>4</v>
+        <v>802</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -8294,7 +8588,7 @@
         <v>4</v>
       </c>
       <c r="I194" t="s">
-        <v>4</v>
+        <v>828</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -8323,7 +8617,7 @@
         <v>4</v>
       </c>
       <c r="I195" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -8352,7 +8646,7 @@
         <v>4</v>
       </c>
       <c r="I196" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -8381,7 +8675,7 @@
         <v>4</v>
       </c>
       <c r="I197" t="s">
-        <v>4</v>
+        <v>763</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -8410,7 +8704,7 @@
         <v>4</v>
       </c>
       <c r="I198" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -8439,7 +8733,7 @@
         <v>4</v>
       </c>
       <c r="I199" t="s">
-        <v>4</v>
+        <v>763</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -8468,7 +8762,7 @@
         <v>4</v>
       </c>
       <c r="I200" t="s">
-        <v>4</v>
+        <v>828</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -8497,7 +8791,7 @@
         <v>4</v>
       </c>
       <c r="I201" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -8526,7 +8820,7 @@
         <v>4</v>
       </c>
       <c r="I202" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -8555,7 +8849,7 @@
         <v>4</v>
       </c>
       <c r="I203" t="s">
-        <v>4</v>
+        <v>763</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -8584,7 +8878,7 @@
         <v>4</v>
       </c>
       <c r="I204" t="s">
-        <v>4</v>
+        <v>802</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -8613,7 +8907,7 @@
         <v>4</v>
       </c>
       <c r="I205" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -8642,7 +8936,7 @@
         <v>4</v>
       </c>
       <c r="I206" t="s">
-        <v>4</v>
+        <v>763</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -8961,7 +9255,7 @@
         <v>4</v>
       </c>
       <c r="I217" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -8990,7 +9284,7 @@
         <v>4</v>
       </c>
       <c r="I218" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -9019,7 +9313,7 @@
         <v>4</v>
       </c>
       <c r="I219" t="s">
-        <v>4</v>
+        <v>343</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -9048,7 +9342,7 @@
         <v>4</v>
       </c>
       <c r="I220" t="s">
-        <v>4</v>
+        <v>802</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -9077,7 +9371,7 @@
         <v>4</v>
       </c>
       <c r="I221" t="s">
-        <v>4</v>
+        <v>828</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -9106,7 +9400,7 @@
         <v>4</v>
       </c>
       <c r="I222" t="s">
-        <v>4</v>
+        <v>832</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -9135,7 +9429,7 @@
         <v>4</v>
       </c>
       <c r="I223" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -9164,7 +9458,7 @@
         <v>4</v>
       </c>
       <c r="I224" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -9193,7 +9487,7 @@
         <v>4</v>
       </c>
       <c r="I225" t="s">
-        <v>4</v>
+        <v>834</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -9222,7 +9516,7 @@
         <v>4</v>
       </c>
       <c r="I226" t="s">
-        <v>4</v>
+        <v>835</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -9251,7 +9545,7 @@
         <v>4</v>
       </c>
       <c r="I227" t="s">
-        <v>4</v>
+        <v>836</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -9280,7 +9574,7 @@
         <v>4</v>
       </c>
       <c r="I228" t="s">
-        <v>4</v>
+        <v>350</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -9309,7 +9603,7 @@
         <v>4</v>
       </c>
       <c r="I229" t="s">
-        <v>4</v>
+        <v>352</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -9338,7 +9632,7 @@
         <v>4</v>
       </c>
       <c r="I230" t="s">
-        <v>4</v>
+        <v>354</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -9367,7 +9661,7 @@
         <v>4</v>
       </c>
       <c r="I231" t="s">
-        <v>4</v>
+        <v>356</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -9396,7 +9690,7 @@
         <v>4</v>
       </c>
       <c r="I232" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -9425,7 +9719,7 @@
         <v>4</v>
       </c>
       <c r="I233" t="s">
-        <v>4</v>
+        <v>360</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -9454,7 +9748,7 @@
         <v>4</v>
       </c>
       <c r="I234" t="s">
-        <v>4</v>
+        <v>362</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -9483,7 +9777,7 @@
         <v>4</v>
       </c>
       <c r="I235" t="s">
-        <v>4</v>
+        <v>364</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -9512,7 +9806,7 @@
         <v>4</v>
       </c>
       <c r="I236" t="s">
-        <v>4</v>
+        <v>366</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -9541,7 +9835,7 @@
         <v>4</v>
       </c>
       <c r="I237" t="s">
-        <v>4</v>
+        <v>763</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -9570,7 +9864,7 @@
         <v>4</v>
       </c>
       <c r="I238" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -9599,7 +9893,7 @@
         <v>4</v>
       </c>
       <c r="I239" t="s">
-        <v>4</v>
+        <v>763</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -9628,7 +9922,7 @@
         <v>4</v>
       </c>
       <c r="I240" t="s">
-        <v>4</v>
+        <v>828</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -9657,7 +9951,7 @@
         <v>4</v>
       </c>
       <c r="I241" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -9686,7 +9980,7 @@
         <v>4</v>
       </c>
       <c r="I242" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -9715,7 +10009,7 @@
         <v>4</v>
       </c>
       <c r="I243" t="s">
-        <v>4</v>
+        <v>814</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -9744,7 +10038,7 @@
         <v>4</v>
       </c>
       <c r="I244" t="s">
-        <v>4</v>
+        <v>763</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -9773,7 +10067,7 @@
         <v>4</v>
       </c>
       <c r="I245" t="s">
-        <v>4</v>
+        <v>802</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -9802,7 +10096,7 @@
         <v>4</v>
       </c>
       <c r="I246" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -9825,13 +10119,13 @@
         <v>4</v>
       </c>
       <c r="G247" t="s">
-        <v>369</v>
+        <v>28</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
       </c>
       <c r="I247" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -9839,10 +10133,10 @@
         <v>9</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="D248" t="s">
         <v>4</v>
@@ -9860,7 +10154,7 @@
         <v>4</v>
       </c>
       <c r="I248" t="s">
-        <v>4</v>
+        <v>833</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -9868,7 +10162,7 @@
         <v>9</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>13</v>
@@ -9889,7 +10183,7 @@
         <v>4</v>
       </c>
       <c r="I249" t="s">
-        <v>4</v>
+        <v>828</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -9897,10 +10191,10 @@
         <v>9</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D250" t="s">
         <v>4</v>
@@ -9918,7 +10212,7 @@
         <v>4</v>
       </c>
       <c r="I250" t="s">
-        <v>4</v>
+        <v>837</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -9926,7 +10220,7 @@
         <v>9</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>162</v>
@@ -9955,7 +10249,7 @@
         <v>9</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>209</v>
@@ -9964,19 +10258,19 @@
         <v>4</v>
       </c>
       <c r="E252" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F252" t="s">
         <v>4</v>
       </c>
       <c r="G252" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
       </c>
       <c r="I252" t="s">
-        <v>4</v>
+        <v>372</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -9984,10 +10278,10 @@
         <v>9</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D253" t="s">
         <v>4</v>
@@ -10005,7 +10299,7 @@
         <v>4</v>
       </c>
       <c r="I253" t="s">
-        <v>4</v>
+        <v>833</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -10013,7 +10307,7 @@
         <v>9</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>25</v>
@@ -10034,7 +10328,7 @@
         <v>4</v>
       </c>
       <c r="I254" t="s">
-        <v>4</v>
+        <v>828</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -10042,10 +10336,10 @@
         <v>9</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D255" t="s">
         <v>4</v>
@@ -10063,7 +10357,7 @@
         <v>4</v>
       </c>
       <c r="I255" t="s">
-        <v>4</v>
+        <v>837</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -10071,7 +10365,7 @@
         <v>9</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>123</v>
@@ -10100,7 +10394,7 @@
         <v>9</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>215</v>
@@ -10109,19 +10403,19 @@
         <v>4</v>
       </c>
       <c r="E257" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F257" t="s">
         <v>4</v>
       </c>
       <c r="G257" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
       </c>
       <c r="I257" t="s">
-        <v>4</v>
+        <v>375</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -10129,10 +10423,10 @@
         <v>9</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D258" t="s">
         <v>4</v>
@@ -10150,7 +10444,7 @@
         <v>4</v>
       </c>
       <c r="I258" t="s">
-        <v>4</v>
+        <v>833</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -10158,7 +10452,7 @@
         <v>9</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>23</v>
@@ -10179,7 +10473,7 @@
         <v>4</v>
       </c>
       <c r="I259" t="s">
-        <v>4</v>
+        <v>828</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -10187,10 +10481,10 @@
         <v>9</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D260" t="s">
         <v>4</v>
@@ -10208,7 +10502,7 @@
         <v>4</v>
       </c>
       <c r="I260" t="s">
-        <v>4</v>
+        <v>837</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -10216,7 +10510,7 @@
         <v>9</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>152</v>
@@ -10245,7 +10539,7 @@
         <v>9</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>269</v>
@@ -10254,19 +10548,19 @@
         <v>4</v>
       </c>
       <c r="E262" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F262" t="s">
         <v>4</v>
       </c>
       <c r="G262" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
       </c>
       <c r="I262" t="s">
-        <v>4</v>
+        <v>378</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -10274,7 +10568,7 @@
         <v>9</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>188</v>
@@ -10295,7 +10589,7 @@
         <v>4</v>
       </c>
       <c r="I263" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -10303,7 +10597,7 @@
         <v>9</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>31</v>
@@ -10324,7 +10618,7 @@
         <v>4</v>
       </c>
       <c r="I264" t="s">
-        <v>4</v>
+        <v>838</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -10332,28 +10626,28 @@
         <v>9</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="D265" t="s">
+        <v>4</v>
+      </c>
+      <c r="E265" t="s">
         <v>381</v>
       </c>
-      <c r="D265" t="s">
-        <v>4</v>
-      </c>
-      <c r="E265" t="s">
-        <v>382</v>
-      </c>
       <c r="F265" t="s">
         <v>4</v>
       </c>
       <c r="G265" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
       </c>
       <c r="I265" t="s">
-        <v>4</v>
+        <v>818</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -10361,7 +10655,7 @@
         <v>9</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>123</v>
@@ -10390,7 +10684,7 @@
         <v>9</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>209</v>
@@ -10399,19 +10693,19 @@
         <v>4</v>
       </c>
       <c r="E267" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F267" t="s">
         <v>4</v>
       </c>
       <c r="G267" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
       </c>
       <c r="I267" t="s">
-        <v>4</v>
+        <v>382</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -10419,7 +10713,7 @@
         <v>9</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>311</v>
@@ -10440,7 +10734,7 @@
         <v>4</v>
       </c>
       <c r="I268" t="s">
-        <v>4</v>
+        <v>818</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -10448,7 +10742,7 @@
         <v>9</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>162</v>
@@ -10477,7 +10771,7 @@
         <v>9</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>269</v>
@@ -10498,7 +10792,7 @@
         <v>4</v>
       </c>
       <c r="I270" t="s">
-        <v>4</v>
+        <v>312</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -10506,7 +10800,7 @@
         <v>9</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>313</v>
@@ -10527,7 +10821,7 @@
         <v>4</v>
       </c>
       <c r="I271" t="s">
-        <v>4</v>
+        <v>818</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -10535,7 +10829,7 @@
         <v>9</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>152</v>
@@ -10564,7 +10858,7 @@
         <v>9</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>215</v>
@@ -10593,28 +10887,28 @@
         <v>9</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C274" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D274" t="s">
+        <v>4</v>
+      </c>
+      <c r="E274" t="s">
         <v>384</v>
       </c>
-      <c r="D274" t="s">
-        <v>4</v>
-      </c>
-      <c r="E274" t="s">
-        <v>385</v>
-      </c>
       <c r="F274" t="s">
         <v>4</v>
       </c>
       <c r="G274" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
       </c>
       <c r="I274" t="s">
-        <v>4</v>
+        <v>839</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -10622,7 +10916,7 @@
         <v>9</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>184</v>
@@ -10651,10 +10945,10 @@
         <v>9</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D276" t="s">
         <v>4</v>
@@ -10672,7 +10966,7 @@
         <v>4</v>
       </c>
       <c r="I276" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -10680,7 +10974,7 @@
         <v>9</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>188</v>
@@ -10701,7 +10995,7 @@
         <v>4</v>
       </c>
       <c r="I277" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -10709,7 +11003,7 @@
         <v>9</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>31</v>
@@ -10730,7 +11024,7 @@
         <v>4</v>
       </c>
       <c r="I278" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -10738,28 +11032,28 @@
         <v>9</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="D279" t="s">
+        <v>4</v>
+      </c>
+      <c r="E279" t="s">
         <v>388</v>
       </c>
-      <c r="D279" t="s">
-        <v>4</v>
-      </c>
-      <c r="E279" t="s">
-        <v>389</v>
-      </c>
       <c r="F279" t="s">
         <v>4</v>
       </c>
       <c r="G279" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
       </c>
       <c r="I279" t="s">
-        <v>4</v>
+        <v>840</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -10767,28 +11061,28 @@
         <v>9</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C280" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D280" t="s">
+        <v>4</v>
+      </c>
+      <c r="E280" t="s">
         <v>390</v>
       </c>
-      <c r="D280" t="s">
-        <v>4</v>
-      </c>
-      <c r="E280" t="s">
-        <v>391</v>
-      </c>
       <c r="F280" t="s">
         <v>4</v>
       </c>
       <c r="G280" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
       </c>
       <c r="I280" t="s">
-        <v>4</v>
+        <v>841</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -10796,7 +11090,7 @@
         <v>9</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>123</v>
@@ -10817,7 +11111,7 @@
         <v>4</v>
       </c>
       <c r="I281" t="s">
-        <v>4</v>
+        <v>797</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -10825,28 +11119,28 @@
         <v>9</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D282" t="s">
         <v>4</v>
       </c>
       <c r="E282" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F282" t="s">
         <v>4</v>
       </c>
       <c r="G282" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
       </c>
       <c r="I282" t="s">
-        <v>4</v>
+        <v>840</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -10854,28 +11148,28 @@
         <v>9</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D283" t="s">
         <v>4</v>
       </c>
       <c r="E283" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F283" t="s">
         <v>4</v>
       </c>
       <c r="G283" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
       </c>
       <c r="I283" t="s">
-        <v>4</v>
+        <v>841</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -10883,7 +11177,7 @@
         <v>9</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>152</v>
@@ -10904,7 +11198,7 @@
         <v>4</v>
       </c>
       <c r="I284" t="s">
-        <v>4</v>
+        <v>798</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -10912,28 +11206,28 @@
         <v>9</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C285" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D285" t="s">
+        <v>4</v>
+      </c>
+      <c r="E285" t="s">
         <v>394</v>
       </c>
-      <c r="D285" t="s">
-        <v>4</v>
-      </c>
-      <c r="E285" t="s">
-        <v>395</v>
-      </c>
       <c r="F285" t="s">
         <v>4</v>
       </c>
       <c r="G285" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
       </c>
       <c r="I285" t="s">
-        <v>4</v>
+        <v>842</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -10941,10 +11235,10 @@
         <v>9</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D286" t="s">
         <v>4</v>
@@ -10962,7 +11256,7 @@
         <v>4</v>
       </c>
       <c r="I286" t="s">
-        <v>4</v>
+        <v>792</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -10970,10 +11264,10 @@
         <v>9</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D287" t="s">
         <v>4</v>
@@ -10991,7 +11285,7 @@
         <v>4</v>
       </c>
       <c r="I287" t="s">
-        <v>4</v>
+        <v>799</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -10999,28 +11293,28 @@
         <v>9</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C288" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D288" t="s">
+        <v>4</v>
+      </c>
+      <c r="E288" t="s">
         <v>398</v>
       </c>
-      <c r="D288" t="s">
-        <v>4</v>
-      </c>
-      <c r="E288" t="s">
-        <v>399</v>
-      </c>
       <c r="F288" t="s">
         <v>4</v>
       </c>
       <c r="G288" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
       </c>
       <c r="I288" t="s">
-        <v>4</v>
+        <v>398</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -11028,7 +11322,7 @@
         <v>9</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>188</v>
@@ -11049,7 +11343,7 @@
         <v>4</v>
       </c>
       <c r="I289" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -11057,28 +11351,28 @@
         <v>9</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D290" t="s">
         <v>4</v>
       </c>
       <c r="E290" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F290" t="s">
         <v>4</v>
       </c>
       <c r="G290" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
       </c>
       <c r="I290" t="s">
-        <v>4</v>
+        <v>842</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -11086,10 +11380,10 @@
         <v>9</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D291" t="s">
         <v>4</v>
@@ -11107,7 +11401,7 @@
         <v>4</v>
       </c>
       <c r="I291" t="s">
-        <v>4</v>
+        <v>792</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -11115,10 +11409,10 @@
         <v>9</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D292" t="s">
         <v>4</v>
@@ -11136,7 +11430,7 @@
         <v>4</v>
       </c>
       <c r="I292" t="s">
-        <v>4</v>
+        <v>799</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -11144,28 +11438,28 @@
         <v>9</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C293" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D293" t="s">
+        <v>4</v>
+      </c>
+      <c r="E293" t="s">
         <v>403</v>
       </c>
-      <c r="D293" t="s">
-        <v>4</v>
-      </c>
-      <c r="E293" t="s">
-        <v>404</v>
-      </c>
       <c r="F293" t="s">
         <v>4</v>
       </c>
       <c r="G293" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
       </c>
       <c r="I293" t="s">
-        <v>4</v>
+        <v>403</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -11173,10 +11467,10 @@
         <v>9</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D294" t="s">
         <v>4</v>
@@ -11194,7 +11488,7 @@
         <v>4</v>
       </c>
       <c r="I294" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -11202,7 +11496,7 @@
         <v>9</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>31</v>
@@ -11211,19 +11505,19 @@
         <v>4</v>
       </c>
       <c r="E295" t="s">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="F295" t="s">
         <v>4</v>
       </c>
       <c r="G295" t="s">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
       </c>
       <c r="I295" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -11231,27 +11525,24 @@
         <v>9</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D296" t="s">
         <v>4</v>
       </c>
       <c r="E296" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F296" t="s">
         <v>4</v>
       </c>
       <c r="G296" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H296" t="s">
-        <v>4</v>
-      </c>
-      <c r="I296" t="s">
         <v>4</v>
       </c>
     </row>
@@ -11260,22 +11551,22 @@
         <v>9</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D297" t="s">
         <v>4</v>
       </c>
       <c r="E297" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F297" t="s">
         <v>4</v>
       </c>
       <c r="G297" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -11289,22 +11580,22 @@
         <v>9</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D298" t="s">
         <v>4</v>
       </c>
       <c r="E298" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F298" t="s">
         <v>4</v>
       </c>
       <c r="G298" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11318,22 +11609,22 @@
         <v>9</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D299" t="s">
         <v>4</v>
       </c>
       <c r="E299" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F299" t="s">
         <v>4</v>
       </c>
       <c r="G299" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -11347,22 +11638,22 @@
         <v>9</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D300" t="s">
         <v>4</v>
       </c>
       <c r="E300" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F300" t="s">
         <v>4</v>
       </c>
       <c r="G300" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -11376,22 +11667,22 @@
         <v>9</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D301" t="s">
         <v>4</v>
       </c>
       <c r="E301" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F301" t="s">
         <v>4</v>
       </c>
       <c r="G301" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -11405,7 +11696,7 @@
         <v>9</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>135</v>
@@ -11434,28 +11725,28 @@
         <v>9</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D303" t="s">
+        <v>4</v>
+      </c>
+      <c r="E303" t="s">
         <v>416</v>
       </c>
-      <c r="C303" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D303" t="s">
-        <v>4</v>
-      </c>
-      <c r="E303" t="s">
-        <v>418</v>
-      </c>
       <c r="F303" t="s">
         <v>4</v>
       </c>
       <c r="G303" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
       </c>
       <c r="I303" t="s">
-        <v>4</v>
+        <v>843</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -11463,28 +11754,28 @@
         <v>9</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D304" t="s">
         <v>4</v>
       </c>
       <c r="E304" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F304" t="s">
         <v>4</v>
       </c>
       <c r="G304" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
       </c>
       <c r="I304" t="s">
-        <v>4</v>
+        <v>844</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -11492,28 +11783,28 @@
         <v>9</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D305" t="s">
         <v>4</v>
       </c>
       <c r="E305" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F305" t="s">
         <v>4</v>
       </c>
       <c r="G305" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
       </c>
       <c r="I305" t="s">
-        <v>4</v>
+        <v>845</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -11521,28 +11812,28 @@
         <v>9</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D306" t="s">
         <v>4</v>
       </c>
       <c r="E306" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F306" t="s">
         <v>4</v>
       </c>
       <c r="G306" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
       </c>
       <c r="I306" t="s">
-        <v>4</v>
+        <v>846</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -11550,28 +11841,28 @@
         <v>9</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D307" t="s">
         <v>4</v>
       </c>
       <c r="E307" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F307" t="s">
         <v>4</v>
       </c>
       <c r="G307" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
       </c>
       <c r="I307" t="s">
-        <v>4</v>
+        <v>847</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -11579,28 +11870,28 @@
         <v>9</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D308" t="s">
         <v>4</v>
       </c>
       <c r="E308" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F308" t="s">
         <v>4</v>
       </c>
       <c r="G308" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
       </c>
       <c r="I308" t="s">
-        <v>4</v>
+        <v>848</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -11608,28 +11899,28 @@
         <v>9</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D309" t="s">
         <v>4</v>
       </c>
       <c r="E309" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F309" t="s">
         <v>4</v>
       </c>
       <c r="G309" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
       </c>
       <c r="I309" t="s">
-        <v>4</v>
+        <v>849</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -11637,28 +11928,28 @@
         <v>9</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D310" t="s">
         <v>4</v>
       </c>
       <c r="E310" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F310" t="s">
         <v>4</v>
       </c>
       <c r="G310" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
       </c>
       <c r="I310" t="s">
-        <v>4</v>
+        <v>850</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -11666,28 +11957,28 @@
         <v>9</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D311" t="s">
         <v>4</v>
       </c>
       <c r="E311" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F311" t="s">
         <v>4</v>
       </c>
       <c r="G311" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
       </c>
       <c r="I311" t="s">
-        <v>4</v>
+        <v>851</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -11695,28 +11986,28 @@
         <v>9</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D312" t="s">
         <v>4</v>
       </c>
       <c r="E312" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F312" t="s">
         <v>4</v>
       </c>
       <c r="G312" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
       </c>
       <c r="I312" t="s">
-        <v>4</v>
+        <v>852</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -11724,28 +12015,28 @@
         <v>9</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D313" t="s">
         <v>4</v>
       </c>
       <c r="E313" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F313" t="s">
         <v>4</v>
       </c>
       <c r="G313" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
       </c>
       <c r="I313" t="s">
-        <v>4</v>
+        <v>853</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -11753,28 +12044,28 @@
         <v>9</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D314" t="s">
         <v>4</v>
       </c>
       <c r="E314" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F314" t="s">
         <v>4</v>
       </c>
       <c r="G314" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
       </c>
       <c r="I314" t="s">
-        <v>4</v>
+        <v>854</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -11782,28 +12073,28 @@
         <v>9</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D315" t="s">
         <v>4</v>
       </c>
       <c r="E315" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F315" t="s">
         <v>4</v>
       </c>
       <c r="G315" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
       </c>
       <c r="I315" t="s">
-        <v>4</v>
+        <v>855</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -11811,28 +12102,28 @@
         <v>9</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D316" t="s">
         <v>4</v>
       </c>
       <c r="E316" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F316" t="s">
         <v>4</v>
       </c>
       <c r="G316" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
       </c>
       <c r="I316" t="s">
-        <v>4</v>
+        <v>856</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -11840,22 +12131,22 @@
         <v>9</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D317" t="s">
         <v>4</v>
       </c>
       <c r="E317" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F317" t="s">
         <v>4</v>
       </c>
       <c r="G317" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -11869,22 +12160,22 @@
         <v>9</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D318" t="s">
         <v>4</v>
       </c>
       <c r="E318" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F318" t="s">
         <v>4</v>
       </c>
       <c r="G318" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -11898,22 +12189,22 @@
         <v>9</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D319" t="s">
         <v>4</v>
       </c>
       <c r="E319" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F319" t="s">
         <v>4</v>
       </c>
       <c r="G319" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -11927,22 +12218,22 @@
         <v>9</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D320" t="s">
         <v>4</v>
       </c>
       <c r="E320" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F320" t="s">
         <v>4</v>
       </c>
       <c r="G320" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -11956,22 +12247,22 @@
         <v>9</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D321" t="s">
         <v>4</v>
       </c>
       <c r="E321" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F321" t="s">
         <v>4</v>
       </c>
       <c r="G321" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -11985,22 +12276,22 @@
         <v>9</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D322" t="s">
         <v>4</v>
       </c>
       <c r="E322" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F322" t="s">
         <v>4</v>
       </c>
       <c r="G322" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -12014,22 +12305,22 @@
         <v>9</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D323" t="s">
         <v>4</v>
       </c>
       <c r="E323" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F323" t="s">
         <v>4</v>
       </c>
       <c r="G323" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -12043,22 +12334,22 @@
         <v>9</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D324" t="s">
         <v>4</v>
       </c>
       <c r="E324" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F324" t="s">
         <v>4</v>
       </c>
       <c r="G324" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -12072,22 +12363,22 @@
         <v>9</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D325" t="s">
         <v>4</v>
       </c>
       <c r="E325" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F325" t="s">
         <v>4</v>
       </c>
       <c r="G325" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -12101,22 +12392,22 @@
         <v>9</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D326" t="s">
         <v>4</v>
       </c>
       <c r="E326" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F326" t="s">
         <v>4</v>
       </c>
       <c r="G326" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -12130,22 +12421,22 @@
         <v>9</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D327" t="s">
         <v>4</v>
       </c>
       <c r="E327" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F327" t="s">
         <v>4</v>
       </c>
       <c r="G327" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -12159,22 +12450,22 @@
         <v>9</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D328" t="s">
         <v>4</v>
       </c>
       <c r="E328" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F328" t="s">
         <v>4</v>
       </c>
       <c r="G328" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -12188,22 +12479,22 @@
         <v>9</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D329" t="s">
         <v>4</v>
       </c>
       <c r="E329" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F329" t="s">
         <v>4</v>
       </c>
       <c r="G329" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -12217,22 +12508,22 @@
         <v>9</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D330" t="s">
         <v>4</v>
       </c>
       <c r="E330" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F330" t="s">
         <v>4</v>
       </c>
       <c r="G330" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -12246,22 +12537,22 @@
         <v>9</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D331" t="s">
         <v>4</v>
       </c>
       <c r="E331" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F331" t="s">
         <v>4</v>
       </c>
       <c r="G331" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -12275,22 +12566,22 @@
         <v>9</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D332" t="s">
         <v>4</v>
       </c>
       <c r="E332" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F332" t="s">
         <v>4</v>
       </c>
       <c r="G332" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -12304,22 +12595,22 @@
         <v>9</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D333" t="s">
         <v>4</v>
       </c>
       <c r="E333" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F333" t="s">
         <v>4</v>
       </c>
       <c r="G333" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -12333,22 +12624,22 @@
         <v>9</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D334" t="s">
         <v>4</v>
       </c>
       <c r="E334" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F334" t="s">
         <v>4</v>
       </c>
       <c r="G334" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -12362,22 +12653,22 @@
         <v>9</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D335" t="s">
         <v>4</v>
       </c>
       <c r="E335" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F335" t="s">
         <v>4</v>
       </c>
       <c r="G335" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -12391,22 +12682,22 @@
         <v>9</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D336" t="s">
         <v>4</v>
       </c>
       <c r="E336" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F336" t="s">
         <v>4</v>
       </c>
       <c r="G336" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -12420,22 +12711,22 @@
         <v>9</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D337" t="s">
         <v>4</v>
       </c>
       <c r="E337" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F337" t="s">
         <v>4</v>
       </c>
       <c r="G337" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -12449,22 +12740,22 @@
         <v>9</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D338" t="s">
         <v>4</v>
       </c>
       <c r="E338" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F338" t="s">
         <v>4</v>
       </c>
       <c r="G338" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -12478,22 +12769,22 @@
         <v>9</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D339" t="s">
         <v>4</v>
       </c>
       <c r="E339" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F339" t="s">
         <v>4</v>
       </c>
       <c r="G339" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -12507,22 +12798,22 @@
         <v>9</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D340" t="s">
         <v>4</v>
       </c>
       <c r="E340" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F340" t="s">
         <v>4</v>
       </c>
       <c r="G340" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -12536,22 +12827,22 @@
         <v>9</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D341" t="s">
         <v>4</v>
       </c>
       <c r="E341" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F341" t="s">
         <v>4</v>
       </c>
       <c r="G341" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -12565,22 +12856,22 @@
         <v>9</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D342" t="s">
         <v>4</v>
       </c>
       <c r="E342" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F342" t="s">
         <v>4</v>
       </c>
       <c r="G342" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -12594,22 +12885,22 @@
         <v>9</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D343" t="s">
         <v>4</v>
       </c>
       <c r="E343" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F343" t="s">
         <v>4</v>
       </c>
       <c r="G343" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -12623,22 +12914,22 @@
         <v>9</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D344" t="s">
         <v>4</v>
       </c>
       <c r="E344" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F344" t="s">
         <v>4</v>
       </c>
       <c r="G344" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -12652,22 +12943,22 @@
         <v>9</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D345" t="s">
         <v>4</v>
       </c>
       <c r="E345" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F345" t="s">
         <v>4</v>
       </c>
       <c r="G345" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -12681,22 +12972,22 @@
         <v>9</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D346" t="s">
         <v>4</v>
       </c>
       <c r="E346" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F346" t="s">
         <v>4</v>
       </c>
       <c r="G346" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -12710,22 +13001,22 @@
         <v>9</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D347" t="s">
         <v>4</v>
       </c>
       <c r="E347" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F347" t="s">
         <v>4</v>
       </c>
       <c r="G347" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -12739,22 +13030,22 @@
         <v>9</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D348" t="s">
         <v>4</v>
       </c>
       <c r="E348" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F348" t="s">
         <v>4</v>
       </c>
       <c r="G348" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -12768,22 +13059,22 @@
         <v>9</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D349" t="s">
         <v>4</v>
       </c>
       <c r="E349" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F349" t="s">
         <v>4</v>
       </c>
       <c r="G349" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -12797,7 +13088,7 @@
         <v>9</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>11</v>
@@ -12806,13 +13097,13 @@
         <v>4</v>
       </c>
       <c r="E350" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F350" t="s">
         <v>4</v>
       </c>
       <c r="G350" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -12826,7 +13117,7 @@
         <v>9</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>13</v>
@@ -12835,13 +13126,13 @@
         <v>4</v>
       </c>
       <c r="E351" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F351" t="s">
         <v>4</v>
       </c>
       <c r="G351" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -12855,7 +13146,7 @@
         <v>9</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>15</v>
@@ -12864,13 +13155,13 @@
         <v>4</v>
       </c>
       <c r="E352" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F352" t="s">
         <v>4</v>
       </c>
       <c r="G352" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -12884,7 +13175,7 @@
         <v>9</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>19</v>
@@ -12893,13 +13184,13 @@
         <v>4</v>
       </c>
       <c r="E353" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F353" t="s">
         <v>4</v>
       </c>
       <c r="G353" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -12913,7 +13204,7 @@
         <v>9</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>21</v>
@@ -12922,13 +13213,13 @@
         <v>4</v>
       </c>
       <c r="E354" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F354" t="s">
         <v>4</v>
       </c>
       <c r="G354" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -12942,22 +13233,22 @@
         <v>9</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D355" t="s">
         <v>4</v>
       </c>
       <c r="E355" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F355" t="s">
         <v>4</v>
       </c>
       <c r="G355" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -12971,7 +13262,7 @@
         <v>9</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>23</v>
@@ -12980,13 +13271,13 @@
         <v>4</v>
       </c>
       <c r="E356" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F356" t="s">
         <v>4</v>
       </c>
       <c r="G356" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -13000,22 +13291,22 @@
         <v>9</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D357" t="s">
         <v>4</v>
       </c>
       <c r="E357" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F357" t="s">
         <v>4</v>
       </c>
       <c r="G357" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -13029,7 +13320,7 @@
         <v>9</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>25</v>
@@ -13038,13 +13329,13 @@
         <v>4</v>
       </c>
       <c r="E358" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F358" t="s">
         <v>4</v>
       </c>
       <c r="G358" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -13058,7 +13349,7 @@
         <v>9</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>123</v>
@@ -13067,13 +13358,13 @@
         <v>4</v>
       </c>
       <c r="E359" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F359" t="s">
         <v>4</v>
       </c>
       <c r="G359" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
@@ -13087,7 +13378,7 @@
         <v>9</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>226</v>
@@ -13116,7 +13407,7 @@
         <v>9</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>31</v>
@@ -13125,13 +13416,13 @@
         <v>4</v>
       </c>
       <c r="E361" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F361" t="s">
         <v>4</v>
       </c>
       <c r="G361" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -13145,10 +13436,10 @@
         <v>9</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D362" t="s">
         <v>4</v>
@@ -13174,7 +13465,7 @@
         <v>9</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>123</v>
@@ -13203,7 +13494,7 @@
         <v>9</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>209</v>
@@ -13212,13 +13503,13 @@
         <v>4</v>
       </c>
       <c r="E364" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F364" t="s">
         <v>4</v>
       </c>
       <c r="G364" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -13232,22 +13523,22 @@
         <v>9</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D365" t="s">
         <v>4</v>
       </c>
       <c r="E365" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F365" t="s">
         <v>4</v>
       </c>
       <c r="G365" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H365" t="s">
         <v>4</v>
@@ -13261,22 +13552,22 @@
         <v>9</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D366" t="s">
         <v>4</v>
       </c>
       <c r="E366" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F366" t="s">
         <v>4</v>
       </c>
       <c r="G366" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -13290,10 +13581,10 @@
         <v>9</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D367" t="s">
         <v>4</v>
@@ -13319,7 +13610,7 @@
         <v>9</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>184</v>
@@ -13328,13 +13619,13 @@
         <v>4</v>
       </c>
       <c r="E368" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F368" t="s">
         <v>4</v>
       </c>
       <c r="G368" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -13348,22 +13639,22 @@
         <v>9</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D369" t="s">
         <v>4</v>
       </c>
       <c r="E369" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F369" t="s">
         <v>4</v>
       </c>
       <c r="G369" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -13377,22 +13668,22 @@
         <v>9</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D370" t="s">
         <v>4</v>
       </c>
       <c r="E370" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F370" t="s">
         <v>4</v>
       </c>
       <c r="G370" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H370" t="s">
         <v>4</v>
@@ -13406,10 +13697,10 @@
         <v>9</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D371" t="s">
         <v>4</v>
@@ -13435,7 +13726,7 @@
         <v>9</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>152</v>
@@ -13444,13 +13735,13 @@
         <v>4</v>
       </c>
       <c r="E372" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F372" t="s">
         <v>4</v>
       </c>
       <c r="G372" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -13464,10 +13755,10 @@
         <v>9</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D373" t="s">
         <v>4</v>
@@ -13493,22 +13784,22 @@
         <v>9</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D374" t="s">
         <v>4</v>
       </c>
       <c r="E374" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F374" t="s">
         <v>4</v>
       </c>
       <c r="G374" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H374" t="s">
         <v>4</v>
@@ -13522,22 +13813,22 @@
         <v>9</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D375" t="s">
         <v>4</v>
       </c>
       <c r="E375" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F375" t="s">
         <v>4</v>
       </c>
       <c r="G375" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H375" t="s">
         <v>4</v>
@@ -13551,10 +13842,10 @@
         <v>9</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D376" t="s">
         <v>4</v>
@@ -13580,22 +13871,22 @@
         <v>9</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D377" t="s">
         <v>4</v>
       </c>
       <c r="E377" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F377" t="s">
         <v>4</v>
       </c>
       <c r="G377" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -13609,10 +13900,10 @@
         <v>9</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D378" t="s">
         <v>4</v>
@@ -13638,7 +13929,7 @@
         <v>9</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>178</v>
@@ -13647,13 +13938,13 @@
         <v>4</v>
       </c>
       <c r="E379" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F379" t="s">
         <v>4</v>
       </c>
       <c r="G379" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -13667,10 +13958,10 @@
         <v>9</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D380" t="s">
         <v>4</v>
@@ -13696,22 +13987,22 @@
         <v>9</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D381" t="s">
         <v>4</v>
       </c>
       <c r="E381" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F381" t="s">
         <v>4</v>
       </c>
       <c r="G381" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H381" t="s">
         <v>4</v>
@@ -13725,22 +14016,22 @@
         <v>9</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D382" t="s">
         <v>4</v>
       </c>
       <c r="E382" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F382" t="s">
         <v>4</v>
       </c>
       <c r="G382" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H382" t="s">
         <v>4</v>
@@ -13754,22 +14045,22 @@
         <v>9</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D383" t="s">
         <v>4</v>
       </c>
       <c r="E383" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F383" t="s">
         <v>4</v>
       </c>
       <c r="G383" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H383" t="s">
         <v>4</v>
@@ -13783,10 +14074,10 @@
         <v>9</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D384" t="s">
         <v>4</v>
@@ -13812,7 +14103,7 @@
         <v>9</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>162</v>
@@ -13841,22 +14132,22 @@
         <v>9</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D386" t="s">
         <v>4</v>
       </c>
       <c r="E386" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F386" t="s">
         <v>4</v>
       </c>
       <c r="G386" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H386" t="s">
         <v>4</v>
@@ -13870,7 +14161,7 @@
         <v>9</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>215</v>
@@ -13879,13 +14170,13 @@
         <v>4</v>
       </c>
       <c r="E387" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F387" t="s">
         <v>4</v>
       </c>
       <c r="G387" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H387" t="s">
         <v>4</v>
@@ -13899,22 +14190,22 @@
         <v>9</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D388" t="s">
         <v>4</v>
       </c>
       <c r="E388" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F388" t="s">
         <v>4</v>
       </c>
       <c r="G388" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H388" t="s">
         <v>4</v>
@@ -13928,22 +14219,22 @@
         <v>9</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D389" t="s">
         <v>4</v>
       </c>
       <c r="E389" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F389" t="s">
         <v>4</v>
       </c>
       <c r="G389" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
@@ -13957,10 +14248,10 @@
         <v>9</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D390" t="s">
         <v>4</v>
@@ -13986,10 +14277,10 @@
         <v>9</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D391" t="s">
         <v>4</v>
@@ -14015,22 +14306,22 @@
         <v>9</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D392" t="s">
         <v>4</v>
       </c>
       <c r="E392" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F392" t="s">
         <v>4</v>
       </c>
       <c r="G392" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
@@ -14044,22 +14335,22 @@
         <v>9</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D393" t="s">
         <v>4</v>
       </c>
       <c r="E393" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F393" t="s">
         <v>4</v>
       </c>
       <c r="G393" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -14073,10 +14364,10 @@
         <v>9</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D394" t="s">
         <v>4</v>
@@ -14102,10 +14393,10 @@
         <v>9</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D395" t="s">
         <v>4</v>
@@ -14131,22 +14422,22 @@
         <v>9</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D396" t="s">
         <v>4</v>
       </c>
       <c r="E396" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F396" t="s">
         <v>4</v>
       </c>
       <c r="G396" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -14160,10 +14451,10 @@
         <v>9</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D397" t="s">
         <v>4</v>
@@ -14189,10 +14480,10 @@
         <v>9</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D398" t="s">
         <v>4</v>
@@ -14218,10 +14509,10 @@
         <v>9</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D399" t="s">
         <v>4</v>
@@ -14247,22 +14538,22 @@
         <v>9</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D400" t="s">
         <v>4</v>
       </c>
       <c r="E400" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F400" t="s">
         <v>4</v>
       </c>
       <c r="G400" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H400" t="s">
         <v>4</v>
@@ -14276,7 +14567,7 @@
         <v>9</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>226</v>
@@ -14305,7 +14596,7 @@
         <v>9</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>31</v>
@@ -14334,7 +14625,7 @@
         <v>9</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>188</v>
@@ -14363,22 +14654,22 @@
         <v>9</v>
       </c>
       <c r="B404" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D404" t="s">
+        <v>4</v>
+      </c>
+      <c r="E404" t="s">
         <v>566</v>
       </c>
-      <c r="C404" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D404" t="s">
-        <v>4</v>
-      </c>
-      <c r="E404" t="s">
-        <v>568</v>
-      </c>
       <c r="F404" t="s">
         <v>4</v>
       </c>
       <c r="G404" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H404" t="s">
         <v>4</v>
@@ -14392,22 +14683,22 @@
         <v>9</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D405" t="s">
         <v>4</v>
       </c>
       <c r="E405" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F405" t="s">
         <v>4</v>
       </c>
       <c r="G405" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H405" t="s">
         <v>4</v>
@@ -14421,22 +14712,22 @@
         <v>9</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D406" t="s">
         <v>4</v>
       </c>
       <c r="E406" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F406" t="s">
         <v>4</v>
       </c>
       <c r="G406" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H406" t="s">
         <v>4</v>
@@ -14450,22 +14741,22 @@
         <v>9</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D407" t="s">
         <v>4</v>
       </c>
       <c r="E407" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F407" t="s">
         <v>4</v>
       </c>
       <c r="G407" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H407" t="s">
         <v>4</v>
@@ -14479,22 +14770,22 @@
         <v>9</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D408" t="s">
         <v>4</v>
       </c>
       <c r="E408" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F408" t="s">
         <v>4</v>
       </c>
       <c r="G408" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H408" t="s">
         <v>4</v>
@@ -14508,22 +14799,22 @@
         <v>9</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D409" t="s">
         <v>4</v>
       </c>
       <c r="E409" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F409" t="s">
         <v>4</v>
       </c>
       <c r="G409" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H409" t="s">
         <v>4</v>
@@ -14537,22 +14828,22 @@
         <v>9</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D410" t="s">
         <v>4</v>
       </c>
       <c r="E410" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F410" t="s">
         <v>4</v>
       </c>
       <c r="G410" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H410" t="s">
         <v>4</v>
@@ -14566,7 +14857,7 @@
         <v>9</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>31</v>
@@ -14575,13 +14866,13 @@
         <v>4</v>
       </c>
       <c r="E411" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F411" t="s">
         <v>4</v>
       </c>
       <c r="G411" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H411" t="s">
         <v>4</v>
@@ -14595,28 +14886,28 @@
         <v>9</v>
       </c>
       <c r="B412" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D412" t="s">
+        <v>4</v>
+      </c>
+      <c r="E412" t="s">
         <v>582</v>
       </c>
-      <c r="C412" s="1" t="s">
+      <c r="F412" t="s">
+        <v>4</v>
+      </c>
+      <c r="G412" t="s">
+        <v>582</v>
+      </c>
+      <c r="H412" t="s">
+        <v>4</v>
+      </c>
+      <c r="I412" t="s">
         <v>583</v>
-      </c>
-      <c r="D412" t="s">
-        <v>4</v>
-      </c>
-      <c r="E412" t="s">
-        <v>584</v>
-      </c>
-      <c r="F412" t="s">
-        <v>4</v>
-      </c>
-      <c r="G412" t="s">
-        <v>584</v>
-      </c>
-      <c r="H412" t="s">
-        <v>4</v>
-      </c>
-      <c r="I412" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
@@ -14624,28 +14915,28 @@
         <v>9</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C413" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D413" t="s">
+        <v>4</v>
+      </c>
+      <c r="E413" t="s">
+        <v>585</v>
+      </c>
+      <c r="F413" t="s">
+        <v>4</v>
+      </c>
+      <c r="G413" t="s">
+        <v>585</v>
+      </c>
+      <c r="H413" t="s">
+        <v>4</v>
+      </c>
+      <c r="I413" t="s">
         <v>586</v>
-      </c>
-      <c r="D413" t="s">
-        <v>4</v>
-      </c>
-      <c r="E413" t="s">
-        <v>587</v>
-      </c>
-      <c r="F413" t="s">
-        <v>4</v>
-      </c>
-      <c r="G413" t="s">
-        <v>587</v>
-      </c>
-      <c r="H413" t="s">
-        <v>4</v>
-      </c>
-      <c r="I413" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
@@ -14653,10 +14944,10 @@
         <v>9</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D414" t="s">
         <v>4</v>
@@ -14674,7 +14965,7 @@
         <v>4</v>
       </c>
       <c r="I414" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
@@ -14682,28 +14973,28 @@
         <v>9</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C415" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D415" t="s">
+        <v>4</v>
+      </c>
+      <c r="E415" t="s">
+        <v>590</v>
+      </c>
+      <c r="F415" t="s">
+        <v>4</v>
+      </c>
+      <c r="G415" t="s">
+        <v>590</v>
+      </c>
+      <c r="H415" t="s">
+        <v>4</v>
+      </c>
+      <c r="I415" t="s">
         <v>591</v>
-      </c>
-      <c r="D415" t="s">
-        <v>4</v>
-      </c>
-      <c r="E415" t="s">
-        <v>592</v>
-      </c>
-      <c r="F415" t="s">
-        <v>4</v>
-      </c>
-      <c r="G415" t="s">
-        <v>592</v>
-      </c>
-      <c r="H415" t="s">
-        <v>4</v>
-      </c>
-      <c r="I415" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
@@ -14711,10 +15002,10 @@
         <v>9</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D416" t="s">
         <v>4</v>
@@ -14740,22 +15031,22 @@
         <v>9</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D417" t="s">
         <v>4</v>
       </c>
       <c r="E417" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F417" t="s">
         <v>4</v>
       </c>
       <c r="G417" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H417" t="s">
         <v>4</v>
@@ -14769,22 +15060,22 @@
         <v>9</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D418" t="s">
         <v>4</v>
       </c>
       <c r="E418" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F418" t="s">
         <v>4</v>
       </c>
       <c r="G418" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H418" t="s">
         <v>4</v>
@@ -14798,10 +15089,10 @@
         <v>9</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D419" t="s">
         <v>4</v>
@@ -14827,10 +15118,10 @@
         <v>9</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D420" t="s">
         <v>4</v>
@@ -14856,22 +15147,22 @@
         <v>9</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D421" t="s">
         <v>4</v>
       </c>
       <c r="E421" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F421" t="s">
         <v>4</v>
       </c>
       <c r="G421" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H421" t="s">
         <v>4</v>
@@ -14885,10 +15176,10 @@
         <v>9</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D422" t="s">
         <v>4</v>
@@ -14914,22 +15205,22 @@
         <v>9</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D423" t="s">
         <v>4</v>
       </c>
       <c r="E423" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F423" t="s">
         <v>4</v>
       </c>
       <c r="G423" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H423" t="s">
         <v>4</v>
@@ -14943,22 +15234,22 @@
         <v>9</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D424" t="s">
         <v>4</v>
       </c>
       <c r="E424" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F424" t="s">
         <v>4</v>
       </c>
       <c r="G424" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -14972,22 +15263,22 @@
         <v>9</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D425" t="s">
         <v>4</v>
       </c>
       <c r="E425" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F425" t="s">
         <v>4</v>
       </c>
       <c r="G425" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -15001,22 +15292,22 @@
         <v>9</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D426" t="s">
         <v>4</v>
       </c>
       <c r="E426" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F426" t="s">
         <v>4</v>
       </c>
       <c r="G426" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -15030,22 +15321,22 @@
         <v>9</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D427" t="s">
         <v>4</v>
       </c>
       <c r="E427" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F427" t="s">
         <v>4</v>
       </c>
       <c r="G427" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -15059,22 +15350,22 @@
         <v>9</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D428" t="s">
         <v>4</v>
       </c>
       <c r="E428" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F428" t="s">
         <v>4</v>
       </c>
       <c r="G428" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H428" t="s">
         <v>4</v>
@@ -15088,22 +15379,22 @@
         <v>9</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D429" t="s">
         <v>4</v>
       </c>
       <c r="E429" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F429" t="s">
         <v>4</v>
       </c>
       <c r="G429" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H429" t="s">
         <v>4</v>
@@ -15117,22 +15408,22 @@
         <v>9</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D430" t="s">
         <v>4</v>
       </c>
       <c r="E430" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F430" t="s">
         <v>4</v>
       </c>
       <c r="G430" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
@@ -15146,22 +15437,22 @@
         <v>9</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D431" t="s">
         <v>4</v>
       </c>
       <c r="E431" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F431" t="s">
         <v>4</v>
       </c>
       <c r="G431" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H431" t="s">
         <v>4</v>
@@ -15175,22 +15466,22 @@
         <v>9</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D432" t="s">
         <v>4</v>
       </c>
       <c r="E432" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F432" t="s">
         <v>4</v>
       </c>
       <c r="G432" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H432" t="s">
         <v>4</v>
@@ -15204,22 +15495,22 @@
         <v>9</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D433" t="s">
         <v>4</v>
       </c>
       <c r="E433" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F433" t="s">
         <v>4</v>
       </c>
       <c r="G433" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H433" t="s">
         <v>4</v>
@@ -15233,22 +15524,22 @@
         <v>9</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D434" t="s">
         <v>4</v>
       </c>
       <c r="E434" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F434" t="s">
         <v>4</v>
       </c>
       <c r="G434" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H434" t="s">
         <v>4</v>
@@ -15262,22 +15553,22 @@
         <v>9</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D435" t="s">
         <v>4</v>
       </c>
       <c r="E435" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F435" t="s">
         <v>4</v>
       </c>
       <c r="G435" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H435" t="s">
         <v>4</v>
@@ -15291,22 +15582,22 @@
         <v>9</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D436" t="s">
         <v>4</v>
       </c>
       <c r="E436" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F436" t="s">
         <v>4</v>
       </c>
       <c r="G436" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H436" t="s">
         <v>4</v>
@@ -15320,22 +15611,22 @@
         <v>9</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D437" t="s">
         <v>4</v>
       </c>
       <c r="E437" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F437" t="s">
         <v>4</v>
       </c>
       <c r="G437" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H437" t="s">
         <v>4</v>
@@ -15349,22 +15640,22 @@
         <v>9</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D438" t="s">
         <v>4</v>
       </c>
       <c r="E438" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F438" t="s">
         <v>4</v>
       </c>
       <c r="G438" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H438" t="s">
         <v>4</v>
@@ -15378,10 +15669,10 @@
         <v>9</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D439" t="s">
         <v>4</v>
@@ -15407,22 +15698,22 @@
         <v>9</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D440" t="s">
         <v>4</v>
       </c>
       <c r="E440" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F440" t="s">
         <v>4</v>
       </c>
       <c r="G440" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H440" t="s">
         <v>4</v>
@@ -15436,10 +15727,10 @@
         <v>9</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D441" t="s">
         <v>4</v>
@@ -15465,22 +15756,22 @@
         <v>9</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D442" t="s">
         <v>4</v>
       </c>
       <c r="E442" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F442" t="s">
         <v>4</v>
       </c>
       <c r="G442" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -15494,10 +15785,10 @@
         <v>9</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D443" t="s">
         <v>4</v>
@@ -15523,22 +15814,22 @@
         <v>9</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D444" t="s">
         <v>4</v>
       </c>
       <c r="E444" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F444" t="s">
         <v>4</v>
       </c>
       <c r="G444" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H444" t="s">
         <v>4</v>
@@ -15552,10 +15843,10 @@
         <v>9</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D445" t="s">
         <v>4</v>
@@ -15581,10 +15872,10 @@
         <v>9</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D446" t="s">
         <v>4</v>
@@ -15610,22 +15901,22 @@
         <v>9</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D447" t="s">
         <v>4</v>
       </c>
       <c r="E447" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F447" t="s">
         <v>4</v>
       </c>
       <c r="G447" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H447" t="s">
         <v>4</v>
@@ -15639,22 +15930,22 @@
         <v>9</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D448" t="s">
         <v>4</v>
       </c>
       <c r="E448" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F448" t="s">
         <v>4</v>
       </c>
       <c r="G448" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H448" t="s">
         <v>4</v>
@@ -15668,22 +15959,22 @@
         <v>9</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D449" t="s">
         <v>4</v>
       </c>
       <c r="E449" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F449" t="s">
         <v>4</v>
       </c>
       <c r="G449" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H449" t="s">
         <v>4</v>
@@ -15697,22 +15988,22 @@
         <v>9</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D450" t="s">
         <v>4</v>
       </c>
       <c r="E450" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F450" t="s">
         <v>4</v>
       </c>
       <c r="G450" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H450" t="s">
         <v>4</v>
@@ -15726,22 +16017,22 @@
         <v>9</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D451" t="s">
         <v>4</v>
       </c>
       <c r="E451" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F451" t="s">
         <v>4</v>
       </c>
       <c r="G451" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H451" t="s">
         <v>4</v>
@@ -15755,22 +16046,22 @@
         <v>9</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D452" t="s">
         <v>4</v>
       </c>
       <c r="E452" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F452" t="s">
         <v>4</v>
       </c>
       <c r="G452" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H452" t="s">
         <v>4</v>
@@ -15784,22 +16075,22 @@
         <v>9</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D453" t="s">
         <v>4</v>
       </c>
       <c r="E453" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F453" t="s">
         <v>4</v>
       </c>
       <c r="G453" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H453" t="s">
         <v>4</v>
@@ -15813,22 +16104,22 @@
         <v>9</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D454" t="s">
         <v>4</v>
       </c>
       <c r="E454" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F454" t="s">
         <v>4</v>
       </c>
       <c r="G454" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H454" t="s">
         <v>4</v>
@@ -15842,10 +16133,10 @@
         <v>9</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D455" t="s">
         <v>4</v>
@@ -15871,10 +16162,10 @@
         <v>9</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D456" t="s">
         <v>4</v>
@@ -15900,22 +16191,22 @@
         <v>9</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D457" t="s">
         <v>4</v>
       </c>
       <c r="E457" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F457" t="s">
         <v>4</v>
       </c>
       <c r="G457" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H457" t="s">
         <v>4</v>
@@ -15929,22 +16220,22 @@
         <v>9</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D458" t="s">
         <v>4</v>
       </c>
       <c r="E458" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F458" t="s">
         <v>4</v>
       </c>
       <c r="G458" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H458" t="s">
         <v>4</v>
@@ -15958,22 +16249,22 @@
         <v>9</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D459" t="s">
         <v>4</v>
       </c>
       <c r="E459" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F459" t="s">
         <v>4</v>
       </c>
       <c r="G459" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H459" t="s">
         <v>4</v>
@@ -15987,22 +16278,22 @@
         <v>9</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D460" t="s">
         <v>4</v>
       </c>
       <c r="E460" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F460" t="s">
         <v>4</v>
       </c>
       <c r="G460" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H460" t="s">
         <v>4</v>
@@ -16016,22 +16307,22 @@
         <v>9</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D461" t="s">
         <v>4</v>
       </c>
       <c r="E461" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F461" t="s">
         <v>4</v>
       </c>
       <c r="G461" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H461" t="s">
         <v>4</v>
@@ -16045,22 +16336,22 @@
         <v>9</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D462" t="s">
         <v>4</v>
       </c>
       <c r="E462" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F462" t="s">
         <v>4</v>
       </c>
       <c r="G462" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H462" t="s">
         <v>4</v>
@@ -16074,22 +16365,22 @@
         <v>9</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D463" t="s">
         <v>4</v>
       </c>
       <c r="E463" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F463" t="s">
         <v>4</v>
       </c>
       <c r="G463" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H463" t="s">
         <v>4</v>
@@ -16103,22 +16394,22 @@
         <v>9</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D464" t="s">
         <v>4</v>
       </c>
       <c r="E464" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F464" t="s">
         <v>4</v>
       </c>
       <c r="G464" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H464" t="s">
         <v>4</v>
@@ -16132,22 +16423,22 @@
         <v>9</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D465" t="s">
         <v>4</v>
       </c>
       <c r="E465" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F465" t="s">
         <v>4</v>
       </c>
       <c r="G465" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H465" t="s">
         <v>4</v>
@@ -16161,22 +16452,22 @@
         <v>9</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D466" t="s">
         <v>4</v>
       </c>
       <c r="E466" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F466" t="s">
         <v>4</v>
       </c>
       <c r="G466" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H466" t="s">
         <v>4</v>
@@ -16190,22 +16481,22 @@
         <v>9</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D467" t="s">
         <v>4</v>
       </c>
       <c r="E467" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F467" t="s">
         <v>4</v>
       </c>
       <c r="G467" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H467" t="s">
         <v>4</v>
@@ -16219,22 +16510,22 @@
         <v>9</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D468" t="s">
         <v>4</v>
       </c>
       <c r="E468" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F468" t="s">
         <v>4</v>
       </c>
       <c r="G468" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H468" t="s">
         <v>4</v>
@@ -16248,10 +16539,10 @@
         <v>9</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D469" t="s">
         <v>4</v>
@@ -16277,10 +16568,10 @@
         <v>9</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D470" t="s">
         <v>4</v>
@@ -16306,10 +16597,10 @@
         <v>9</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D471" t="s">
         <v>4</v>
@@ -16335,22 +16626,22 @@
         <v>9</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D472" t="s">
         <v>4</v>
       </c>
       <c r="E472" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F472" t="s">
         <v>4</v>
       </c>
       <c r="G472" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H472" t="s">
         <v>4</v>
@@ -16364,10 +16655,10 @@
         <v>9</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D473" t="s">
         <v>4</v>
@@ -16393,22 +16684,22 @@
         <v>9</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D474" t="s">
         <v>4</v>
       </c>
       <c r="E474" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F474" t="s">
         <v>4</v>
       </c>
       <c r="G474" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H474" t="s">
         <v>4</v>
@@ -16422,10 +16713,10 @@
         <v>9</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D475" t="s">
         <v>4</v>
@@ -16451,22 +16742,22 @@
         <v>9</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D476" t="s">
         <v>4</v>
       </c>
       <c r="E476" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F476" t="s">
         <v>4</v>
       </c>
       <c r="G476" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H476" t="s">
         <v>4</v>
@@ -16480,10 +16771,10 @@
         <v>9</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D477" t="s">
         <v>4</v>
@@ -16509,22 +16800,22 @@
         <v>9</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D478" t="s">
         <v>4</v>
       </c>
       <c r="E478" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F478" t="s">
         <v>4</v>
       </c>
       <c r="G478" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H478" t="s">
         <v>4</v>
@@ -16538,10 +16829,10 @@
         <v>9</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D479" t="s">
         <v>4</v>
@@ -16567,22 +16858,22 @@
         <v>9</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D480" t="s">
         <v>4</v>
       </c>
       <c r="E480" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F480" t="s">
         <v>4</v>
       </c>
       <c r="G480" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H480" t="s">
         <v>4</v>
@@ -16596,10 +16887,10 @@
         <v>9</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D481" t="s">
         <v>4</v>
@@ -16625,22 +16916,22 @@
         <v>9</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D482" t="s">
         <v>4</v>
       </c>
       <c r="E482" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F482" t="s">
         <v>4</v>
       </c>
       <c r="G482" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H482" t="s">
         <v>4</v>
@@ -16654,10 +16945,10 @@
         <v>9</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D483" t="s">
         <v>4</v>
@@ -16683,22 +16974,22 @@
         <v>9</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D484" t="s">
         <v>4</v>
       </c>
       <c r="E484" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F484" t="s">
         <v>4</v>
       </c>
       <c r="G484" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H484" t="s">
         <v>4</v>
@@ -16712,10 +17003,10 @@
         <v>9</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D485" t="s">
         <v>4</v>
@@ -16741,22 +17032,22 @@
         <v>9</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D486" t="s">
         <v>4</v>
       </c>
       <c r="E486" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F486" t="s">
         <v>4</v>
       </c>
       <c r="G486" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H486" t="s">
         <v>4</v>
@@ -16770,10 +17061,10 @@
         <v>9</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D487" t="s">
         <v>4</v>
@@ -16799,22 +17090,22 @@
         <v>9</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D488" t="s">
         <v>4</v>
       </c>
       <c r="E488" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F488" t="s">
         <v>4</v>
       </c>
       <c r="G488" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H488" t="s">
         <v>4</v>
@@ -16828,10 +17119,10 @@
         <v>9</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D489" t="s">
         <v>4</v>
@@ -16857,22 +17148,22 @@
         <v>9</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D490" t="s">
         <v>4</v>
       </c>
       <c r="E490" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F490" t="s">
         <v>4</v>
       </c>
       <c r="G490" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H490" t="s">
         <v>4</v>
@@ -16886,10 +17177,10 @@
         <v>9</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D491" t="s">
         <v>4</v>
@@ -16915,22 +17206,22 @@
         <v>9</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D492" t="s">
         <v>4</v>
       </c>
       <c r="E492" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F492" t="s">
         <v>4</v>
       </c>
       <c r="G492" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H492" t="s">
         <v>4</v>
@@ -16944,10 +17235,10 @@
         <v>9</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D493" t="s">
         <v>4</v>
@@ -16973,22 +17264,22 @@
         <v>9</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D494" t="s">
         <v>4</v>
       </c>
       <c r="E494" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F494" t="s">
         <v>4</v>
       </c>
       <c r="G494" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H494" t="s">
         <v>4</v>
@@ -17002,10 +17293,10 @@
         <v>9</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D495" t="s">
         <v>4</v>
@@ -17031,22 +17322,22 @@
         <v>9</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D496" t="s">
         <v>4</v>
       </c>
       <c r="E496" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F496" t="s">
         <v>4</v>
       </c>
       <c r="G496" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H496" t="s">
         <v>4</v>
@@ -17060,10 +17351,10 @@
         <v>9</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D497" t="s">
         <v>4</v>
@@ -17089,22 +17380,22 @@
         <v>9</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D498" t="s">
         <v>4</v>
       </c>
       <c r="E498" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F498" t="s">
         <v>4</v>
       </c>
       <c r="G498" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H498" t="s">
         <v>4</v>
@@ -17118,10 +17409,10 @@
         <v>9</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D499" t="s">
         <v>4</v>
@@ -17147,22 +17438,22 @@
         <v>9</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D500" t="s">
         <v>4</v>
       </c>
       <c r="E500" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F500" t="s">
         <v>4</v>
       </c>
       <c r="G500" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H500" t="s">
         <v>4</v>
@@ -17176,10 +17467,10 @@
         <v>9</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D501" t="s">
         <v>4</v>
@@ -17205,22 +17496,22 @@
         <v>9</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D502" t="s">
         <v>4</v>
       </c>
       <c r="E502" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F502" t="s">
         <v>4</v>
       </c>
       <c r="G502" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H502" t="s">
         <v>4</v>
@@ -17234,10 +17525,10 @@
         <v>9</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D503" t="s">
         <v>4</v>
@@ -17263,22 +17554,22 @@
         <v>9</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D504" t="s">
         <v>4</v>
       </c>
       <c r="E504" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F504" t="s">
         <v>4</v>
       </c>
       <c r="G504" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H504" t="s">
         <v>4</v>
@@ -17292,10 +17583,10 @@
         <v>9</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D505" t="s">
         <v>4</v>
@@ -17321,22 +17612,22 @@
         <v>9</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D506" t="s">
         <v>4</v>
       </c>
       <c r="E506" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F506" t="s">
         <v>4</v>
       </c>
       <c r="G506" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H506" t="s">
         <v>4</v>
@@ -17350,10 +17641,10 @@
         <v>9</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D507" t="s">
         <v>4</v>
@@ -17379,22 +17670,22 @@
         <v>9</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D508" t="s">
         <v>4</v>
       </c>
       <c r="E508" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F508" t="s">
         <v>4</v>
       </c>
       <c r="G508" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H508" t="s">
         <v>4</v>
@@ -17408,22 +17699,22 @@
         <v>9</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D509" t="s">
         <v>4</v>
       </c>
       <c r="E509" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F509" t="s">
         <v>4</v>
       </c>
       <c r="G509" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H509" t="s">
         <v>4</v>
@@ -17437,22 +17728,22 @@
         <v>9</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D510" t="s">
         <v>4</v>
       </c>
       <c r="E510" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F510" t="s">
         <v>4</v>
       </c>
       <c r="G510" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H510" t="s">
         <v>4</v>
@@ -17466,22 +17757,22 @@
         <v>9</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D511" t="s">
         <v>4</v>
       </c>
       <c r="E511" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F511" t="s">
         <v>4</v>
       </c>
       <c r="G511" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H511" t="s">
         <v>4</v>
@@ -17495,22 +17786,22 @@
         <v>9</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D512" t="s">
         <v>4</v>
       </c>
       <c r="E512" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F512" t="s">
         <v>4</v>
       </c>
       <c r="G512" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H512" t="s">
         <v>4</v>
@@ -17524,22 +17815,22 @@
         <v>9</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D513" t="s">
         <v>4</v>
       </c>
       <c r="E513" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F513" t="s">
         <v>4</v>
       </c>
       <c r="G513" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H513" t="s">
         <v>4</v>
@@ -17553,22 +17844,22 @@
         <v>9</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D514" t="s">
         <v>4</v>
       </c>
       <c r="E514" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F514" t="s">
         <v>4</v>
       </c>
       <c r="G514" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H514" t="s">
         <v>4</v>
@@ -17582,22 +17873,22 @@
         <v>9</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D515" t="s">
         <v>4</v>
       </c>
       <c r="E515" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F515" t="s">
         <v>4</v>
       </c>
       <c r="G515" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H515" t="s">
         <v>4</v>
@@ -17611,22 +17902,22 @@
         <v>9</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D516" t="s">
         <v>4</v>
       </c>
       <c r="E516" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F516" t="s">
         <v>4</v>
       </c>
       <c r="G516" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H516" t="s">
         <v>4</v>
@@ -17640,22 +17931,22 @@
         <v>9</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D517" t="s">
         <v>4</v>
       </c>
       <c r="E517" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F517" t="s">
         <v>4</v>
       </c>
       <c r="G517" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="H517" t="s">
         <v>4</v>
@@ -17669,22 +17960,22 @@
         <v>9</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D518" t="s">
         <v>4</v>
       </c>
       <c r="E518" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F518" t="s">
         <v>4</v>
       </c>
       <c r="G518" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="H518" t="s">
         <v>4</v>
@@ -17698,22 +17989,22 @@
         <v>9</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D519" t="s">
         <v>4</v>
       </c>
       <c r="E519" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F519" t="s">
         <v>4</v>
       </c>
       <c r="G519" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H519" t="s">
         <v>4</v>
@@ -17727,22 +18018,22 @@
         <v>9</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D520" t="s">
         <v>4</v>
       </c>
       <c r="E520" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F520" t="s">
         <v>4</v>
       </c>
       <c r="G520" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="H520" t="s">
         <v>4</v>
@@ -17756,22 +18047,22 @@
         <v>9</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D521" t="s">
         <v>4</v>
       </c>
       <c r="E521" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F521" t="s">
         <v>4</v>
       </c>
       <c r="G521" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="H521" t="s">
         <v>4</v>
@@ -17785,22 +18076,22 @@
         <v>9</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D522" t="s">
         <v>4</v>
       </c>
       <c r="E522" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F522" t="s">
         <v>4</v>
       </c>
       <c r="G522" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H522" t="s">
         <v>4</v>

--- a/Culture.xlsx
+++ b/Culture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iWeber\source\repos\MiBand5WatchFacesGithubRelease\MiBand-5-watchface-editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C858F49-EFD8-4163-97E9-92CEA08ADA9D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDEE012-4333-47EE-832D-DA0BED74C839}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="38400" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="38400" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResXResourceManager" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4711" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5141" uniqueCount="1141">
   <si>
     <t>Project</t>
   </si>
@@ -2595,6 +2595,858 @@
   </si>
   <si>
     <t>Качество воздуха:</t>
+  </si>
+  <si>
+    <t>Comment.pt</t>
+  </si>
+  <si>
+    <t>.pt</t>
+  </si>
+  <si>
+    <t>Largura</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Raio</t>
+  </si>
+  <si>
+    <t>Guardar</t>
+  </si>
+  <si>
+    <t>Previsualizar</t>
+  </si>
+  <si>
+    <t>Angulo Final</t>
+  </si>
+  <si>
+    <t>Angulo Inicial</t>
+  </si>
+  <si>
+    <t>Cor</t>
+  </si>
+  <si>
+    <t>Propriedades</t>
+  </si>
+  <si>
+    <t>Apagar</t>
+  </si>
+  <si>
+    <t>Escala do Circulo</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Confirmar</t>
+  </si>
+  <si>
+    <t>Numero da imagem</t>
+  </si>
+  <si>
+    <t>Fundo</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Actividade</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Clima</t>
+  </si>
+  <si>
+    <t>Progresso dos Passos</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Bateria</t>
+  </si>
+  <si>
+    <t>Face Analogica</t>
+  </si>
+  <si>
+    <t>Animação</t>
+  </si>
+  <si>
+    <t>Progresso Cardio</t>
+  </si>
+  <si>
+    <t>Icones Dias da Semana</t>
+  </si>
+  <si>
+    <t>Progresso Calorias</t>
+  </si>
+  <si>
+    <t>Alarme</t>
+  </si>
+  <si>
+    <t>Estado Simplificado</t>
+  </si>
+  <si>
+    <t>Adicionar Elemento</t>
+  </si>
+  <si>
+    <t>Abrir</t>
+  </si>
+  <si>
+    <t>Ficheiro</t>
+  </si>
+  <si>
+    <t>Imagens</t>
+  </si>
+  <si>
+    <t>Detetou um Erro?</t>
+  </si>
+  <si>
+    <t>Historico de alterações</t>
+  </si>
+  <si>
+    <t>Verificar actualizações</t>
+  </si>
+  <si>
+    <t>Wiki</t>
+  </si>
+  <si>
+    <t>Suporte</t>
+  </si>
+  <si>
+    <t>Sobre</t>
+  </si>
+  <si>
+    <t>Definições</t>
+  </si>
+  <si>
+    <t>Defenir Watchface</t>
+  </si>
+  <si>
+    <t>Controlos</t>
+  </si>
+  <si>
+    <t>Renderizar</t>
+  </si>
+  <si>
+    <t>Editar</t>
+  </si>
+  <si>
+    <t>Remover</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>Inglês</t>
+  </si>
+  <si>
+    <t>Russo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linguagem </t>
+  </si>
+  <si>
+    <t>Abrir editor JSON</t>
+  </si>
+  <si>
+    <t>Adicionar Sufixo</t>
+  </si>
+  <si>
+    <t>Adicionar Prefixo</t>
+  </si>
+  <si>
+    <t>Adicionar Passos</t>
+  </si>
+  <si>
+    <t>Passos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Passos</t>
+  </si>
+  <si>
+    <t>Adicionar Calorias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Calorias</t>
+  </si>
+  <si>
+    <t>Calorias</t>
+  </si>
+  <si>
+    <t>Adicionar sem dados</t>
+  </si>
+  <si>
+    <t>Adicionar Pulso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Pulso</t>
+  </si>
+  <si>
+    <t>Pulso</t>
+  </si>
+  <si>
+    <t>Adicionar imagem MI</t>
+  </si>
+  <si>
+    <t>Adicionar imagem KM</t>
+  </si>
+  <si>
+    <t>Adicionar sufixo MI</t>
+  </si>
+  <si>
+    <t>Adicionar ponto decimal</t>
+  </si>
+  <si>
+    <t>Adicionar sufixo KM</t>
+  </si>
+  <si>
+    <t>Adicionar distancia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Distancia</t>
+  </si>
+  <si>
+    <t>Distancia</t>
+  </si>
+  <si>
+    <t>Adicionar PAI</t>
+  </si>
+  <si>
+    <t>Adicionar numero</t>
+  </si>
+  <si>
+    <t>Adicionar imagem SEM ALARME</t>
+  </si>
+  <si>
+    <t>Adicionar imagem OFF</t>
+  </si>
+  <si>
+    <t>Adicionar imagem ON</t>
+  </si>
+  <si>
+    <t>Adicionar delimitador</t>
+  </si>
+  <si>
+    <t>Apenas borda</t>
+  </si>
+  <si>
+    <t>Adicionar imagem central</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Minutos</t>
+  </si>
+  <si>
+    <t>Adicionar</t>
+  </si>
+  <si>
+    <t>Repetir vezes</t>
+  </si>
+  <si>
+    <t>Velocidade</t>
+  </si>
+  <si>
+    <t>Selecionar Imagens</t>
+  </si>
+  <si>
+    <t>Apagar ponto</t>
+  </si>
+  <si>
+    <t>Clique com o botão direito para mostrar o menu de contexto, coloque os pontos em sequência pois a seta é um poligono.</t>
+  </si>
+  <si>
+    <t>Apagar todos</t>
+  </si>
+  <si>
+    <t>Duplo click para apagar ponto</t>
+  </si>
+  <si>
+    <t>Ponto</t>
+  </si>
+  <si>
+    <t>Duplo click para colocar ponto</t>
+  </si>
+  <si>
+    <t>Seta</t>
+  </si>
+  <si>
+    <t>Usar cor de fundo</t>
+  </si>
+  <si>
+    <t>Selecionar cor</t>
+  </si>
+  <si>
+    <t>Cor de fundo</t>
+  </si>
+  <si>
+    <t>Imagem:</t>
+  </si>
+  <si>
+    <t>Previsualização3</t>
+  </si>
+  <si>
+    <t>Previsualização2</t>
+  </si>
+  <si>
+    <t>Previsualização1</t>
+  </si>
+  <si>
+    <t>Gerar Previsulização</t>
+  </si>
+  <si>
+    <t>Adicionar sufixo</t>
+  </si>
+  <si>
+    <t>Adicionar prefixo</t>
+  </si>
+  <si>
+    <t>Texto bateria</t>
+  </si>
+  <si>
+    <t>Adicionar imagens</t>
+  </si>
+  <si>
+    <t>Icone bateria</t>
+  </si>
+  <si>
+    <t>Dia com dois digitos</t>
+  </si>
+  <si>
+    <t>Mês com dois digitos</t>
+  </si>
+  <si>
+    <t>Adicionar dia</t>
+  </si>
+  <si>
+    <t>Adicionar mês</t>
+  </si>
+  <si>
+    <t>Adicionar imagens mês</t>
+  </si>
+  <si>
+    <t>Separar</t>
+  </si>
+  <si>
+    <t>Adicionar imagem delimitador</t>
+  </si>
+  <si>
+    <t>Adicionar mês e dia</t>
+  </si>
+  <si>
+    <t>Uma linha</t>
+  </si>
+  <si>
+    <t>Adicionar imagem delimitadora</t>
+  </si>
+  <si>
+    <t>Adicionar mês, dia e ano</t>
+  </si>
+  <si>
+    <t>Uma linha com ano</t>
+  </si>
+  <si>
+    <t>Mês Dia Ano</t>
+  </si>
+  <si>
+    <t>Posição:</t>
+  </si>
+  <si>
+    <t>Adicionar imagem PM</t>
+  </si>
+  <si>
+    <t>Adicionar imagem AM</t>
+  </si>
+  <si>
+    <t>Adiciona imagens dia da semana</t>
+  </si>
+  <si>
+    <t>Dias da Semana EN</t>
+  </si>
+  <si>
+    <t>Escala</t>
+  </si>
+  <si>
+    <t>Escala linear</t>
+  </si>
+  <si>
+    <t>Selecionar Imagem</t>
+  </si>
+  <si>
+    <t>Posição</t>
+  </si>
+  <si>
+    <t>Selecionar Imagems</t>
+  </si>
+  <si>
+    <t>Apagar imagen</t>
+  </si>
+  <si>
+    <t>Adicionar imagem com numero</t>
+  </si>
+  <si>
+    <t>Desmarcar todos</t>
+  </si>
+  <si>
+    <t>Apagar imagens</t>
+  </si>
+  <si>
+    <t>Adicionar imagens ao elemento</t>
+  </si>
+  <si>
+    <t>Editar imagem</t>
+  </si>
+  <si>
+    <t>Selecionar imagens</t>
+  </si>
+  <si>
+    <t>Tamanho:</t>
+  </si>
+  <si>
+    <t>Espaçamento Y:</t>
+  </si>
+  <si>
+    <t>Espaçamento X:</t>
+  </si>
+  <si>
+    <t>Alinhamento:</t>
+  </si>
+  <si>
+    <t>TopoEsquerdo</t>
+  </si>
+  <si>
+    <t>Topo</t>
+  </si>
+  <si>
+    <t>TopoDireito</t>
+  </si>
+  <si>
+    <t>Esquerda</t>
+  </si>
+  <si>
+    <t>Direita</t>
+  </si>
+  <si>
+    <t>InferiorEsquerdo</t>
+  </si>
+  <si>
+    <t>Inferior</t>
+  </si>
+  <si>
+    <t>InferiorDireito</t>
+  </si>
+  <si>
+    <t>Imagens:</t>
+  </si>
+  <si>
+    <t>Selecionar Iimagens</t>
+  </si>
+  <si>
+    <t>Propriedades da escala</t>
+  </si>
+  <si>
+    <t>Bloquear</t>
+  </si>
+  <si>
+    <t>Adicionr imagem OFF</t>
+  </si>
+  <si>
+    <t>Não Incomodar</t>
+  </si>
+  <si>
+    <t>Adicionar imagem</t>
+  </si>
+  <si>
+    <t>Imagem de objectivo</t>
+  </si>
+  <si>
+    <t>Adicionar escala circular</t>
+  </si>
+  <si>
+    <t>Escala circular</t>
+  </si>
+  <si>
+    <t>Progresso de Passos</t>
+  </si>
+  <si>
+    <t>Adicionar Dezenas</t>
+  </si>
+  <si>
+    <t>Editar pos Unidades</t>
+  </si>
+  <si>
+    <t>Editar pos Dezenas</t>
+  </si>
+  <si>
+    <t>Adicionar Unidades</t>
+  </si>
+  <si>
+    <t>Adicionar sem hora</t>
+  </si>
+  <si>
+    <t>Editar pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Gerar aleatoriamente estado do mostrador</t>
+  </si>
+  <si>
+    <t>Alarme  não definido</t>
+  </si>
+  <si>
+    <t>Calorias:</t>
+  </si>
+  <si>
+    <t>Aleatorio</t>
+  </si>
+  <si>
+    <t>Vento:</t>
+  </si>
+  <si>
+    <t>Indice UV:</t>
+  </si>
+  <si>
+    <t>Alarme ON</t>
+  </si>
+  <si>
+    <t>Não incomodar</t>
+  </si>
+  <si>
+    <t>Bloqueado</t>
+  </si>
+  <si>
+    <t>Qualidade do AR</t>
+  </si>
+  <si>
+    <t>Temperatura a noite:</t>
+  </si>
+  <si>
+    <t>Temperatura de dia:</t>
+  </si>
+  <si>
+    <t>Temperatura:</t>
+  </si>
+  <si>
+    <t>Clima:</t>
+  </si>
+  <si>
+    <t>Humidade:</t>
+  </si>
+  <si>
+    <t>Bateria:</t>
+  </si>
+  <si>
+    <t>Pulso:</t>
+  </si>
+  <si>
+    <t>Distancia:</t>
+  </si>
+  <si>
+    <t>Passos:</t>
+  </si>
+  <si>
+    <t>Alarme:</t>
+  </si>
+  <si>
+    <t>Hora:</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>Estado do mostrador</t>
+  </si>
+  <si>
+    <t>Icone</t>
+  </si>
+  <si>
+    <t>Adicionar imagem Graus</t>
+  </si>
+  <si>
+    <t>Adicionar imagem Menos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Noite</t>
+  </si>
+  <si>
+    <t>Adicionar imagem graus</t>
+  </si>
+  <si>
+    <t>Adicionar imagem menos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dia</t>
+  </si>
+  <si>
+    <t>Separado</t>
+  </si>
+  <si>
+    <t>Adicionar graus para ambos</t>
+  </si>
+  <si>
+    <t>Hoje</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>Adicionar imagem sufixo</t>
+  </si>
+  <si>
+    <t>Humidade</t>
+  </si>
+  <si>
+    <t>Vento</t>
+  </si>
+  <si>
+    <t>Indice UV</t>
+  </si>
+  <si>
+    <t>Adicionar imagem segunda</t>
+  </si>
+  <si>
+    <t>Adicionar imagem terça</t>
+  </si>
+  <si>
+    <t>Adicionar imagem quarta</t>
+  </si>
+  <si>
+    <t>Adicionar imagem quinta</t>
+  </si>
+  <si>
+    <t>Adicionar imagem sexta</t>
+  </si>
+  <si>
+    <t>Adicionar imagem sabado</t>
+  </si>
+  <si>
+    <t>Adicionar imagem domingo</t>
+  </si>
+  <si>
+    <t>Adicionar icones dia da semana</t>
+  </si>
+  <si>
+    <t>Queres sair sem guardar?</t>
+  </si>
+  <si>
+    <t>Não guardar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicionar imagem sem alarme </t>
+  </si>
+  <si>
+    <t>Editar imagem sem alarme</t>
+  </si>
+  <si>
+    <t>Editar imagem OFF</t>
+  </si>
+  <si>
+    <t>Editar imagem ON</t>
+  </si>
+  <si>
+    <t>Editar delimitador</t>
+  </si>
+  <si>
+    <t>Editar numero</t>
+  </si>
+  <si>
+    <t>Editar imagem segunda</t>
+  </si>
+  <si>
+    <t>Editar imagem terça</t>
+  </si>
+  <si>
+    <t>Editar imagem quarta</t>
+  </si>
+  <si>
+    <t>Editar imagem quinta</t>
+  </si>
+  <si>
+    <t>Editar imagem sexta</t>
+  </si>
+  <si>
+    <t>Editar imagem sabado</t>
+  </si>
+  <si>
+    <t>Editar imagem domingo</t>
+  </si>
+  <si>
+    <t>Aicionar imagem segunda</t>
+  </si>
+  <si>
+    <t>Editar imagens</t>
+  </si>
+  <si>
+    <t>Editar seta</t>
+  </si>
+  <si>
+    <t>Adicionar seta</t>
+  </si>
+  <si>
+    <t>Editar imagem central</t>
+  </si>
+  <si>
+    <t>Editar prefixo</t>
+  </si>
+  <si>
+    <t>Editar sufixo</t>
+  </si>
+  <si>
+    <t>Editar imagem graus</t>
+  </si>
+  <si>
+    <t>Editar imagem menos</t>
+  </si>
+  <si>
+    <t>Editar imagem sufixo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar imagem delimitador </t>
+  </si>
+  <si>
+    <t>Editar escala circular</t>
+  </si>
+  <si>
+    <t>Editar Unidades</t>
+  </si>
+  <si>
+    <t>Editar Dezenas</t>
+  </si>
+  <si>
+    <t>Editar sem hora</t>
+  </si>
+  <si>
+    <t>Dezenas e Unidades da Hora e as Dezenas e Unidades dos minutos devem ser adicionados!\nSair sem guardar?</t>
+  </si>
+  <si>
+    <t>DPI da imagem não é 96!</t>
+  </si>
+  <si>
+    <t>Adicionar passos</t>
+  </si>
+  <si>
+    <t>Editar passos</t>
+  </si>
+  <si>
+    <t>Adicionar calorias</t>
+  </si>
+  <si>
+    <t>Editar calorias</t>
+  </si>
+  <si>
+    <t>Editar Pulso</t>
+  </si>
+  <si>
+    <t>Adicionar sem info</t>
+  </si>
+  <si>
+    <t>Editar sem info</t>
+  </si>
+  <si>
+    <t>Editar distancia</t>
+  </si>
+  <si>
+    <t>Editar sufixo KM</t>
+  </si>
+  <si>
+    <t>Editar ponto decimal</t>
+  </si>
+  <si>
+    <t>Editar sufixo MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicionar imagem KM </t>
+  </si>
+  <si>
+    <t>Editar imagem KM</t>
+  </si>
+  <si>
+    <t>Editar imagem MI</t>
+  </si>
+  <si>
+    <t>Editar PAI</t>
+  </si>
+  <si>
+    <t>Editar mês</t>
+  </si>
+  <si>
+    <t>Editar imagens mês</t>
+  </si>
+  <si>
+    <t>Editar dia</t>
+  </si>
+  <si>
+    <t>Editar mês e dia</t>
+  </si>
+  <si>
+    <t>Editar mês, dia e ano</t>
+  </si>
+  <si>
+    <t>Editar imagem AM</t>
+  </si>
+  <si>
+    <t>Editar imagem PM</t>
+  </si>
+  <si>
+    <t>Adicionar imagens dia da semana</t>
+  </si>
+  <si>
+    <t>Editar imagens dia da semana</t>
+  </si>
+  <si>
+    <t>Rederizar</t>
+  </si>
+  <si>
+    <t>Editor JSON</t>
+  </si>
+  <si>
+    <t>O item seleccionado será eliminado irremediavelmente.</t>
+  </si>
+  <si>
+    <t>Tem a certeza?</t>
+  </si>
+  <si>
+    <t>Erro!</t>
+  </si>
+  <si>
+    <t>Erro gerar pré-visualização!</t>
+  </si>
+  <si>
+    <t>Guardar uma cara de relógio aberta antes de abrir outra cara de relógio?</t>
+  </si>
+  <si>
+    <t>Guardar?</t>
+  </si>
+  <si>
+    <t>Guardar o ficheiro antes de fechar o programa?</t>
+  </si>
+  <si>
+    <t>Abrir um link para descarregar a nova versão do programa?</t>
+  </si>
+  <si>
+    <t>Salvar erro!</t>
+  </si>
+  <si>
+    <t>Actualização</t>
+  </si>
+  <si>
+    <t>Não gerado!</t>
+  </si>
+  <si>
+    <t>Bem sucedido!</t>
+  </si>
+  <si>
+    <t>Completo</t>
   </si>
 </sst>
 </file>
@@ -2630,13 +3482,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2953,10 +3808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I522"/>
+  <dimension ref="A1:K522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="I317" sqref="I317"/>
+    <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
+      <selection activeCell="I501" sqref="I501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2967,11 +3822,13 @@
     <col min="5" max="5" width="33.140625" customWidth="1"/>
     <col min="6" max="6" width="0.42578125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="0.140625" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
     <col min="9" max="9" width="36.7109375" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" customWidth="1"/>
+    <col min="11" max="11" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2999,8 +3856,14 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3028,8 +3891,12 @@
       <c r="I2" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3057,8 +3924,12 @@
       <c r="I3" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3086,8 +3957,12 @@
       <c r="I4" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3115,8 +3990,12 @@
       <c r="I5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3144,8 +4023,12 @@
       <c r="I6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3173,8 +4056,12 @@
       <c r="I7" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -3202,8 +4089,12 @@
       <c r="I8" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -3231,8 +4122,12 @@
       <c r="I9" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3260,8 +4155,12 @@
       <c r="I10" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3289,8 +4188,12 @@
       <c r="I11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -3318,8 +4221,12 @@
       <c r="I12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -3347,8 +4254,12 @@
       <c r="I13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -3376,8 +4287,10 @@
       <c r="I14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -3405,8 +4318,12 @@
       <c r="I15" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -3434,8 +4351,12 @@
       <c r="I16" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -3463,8 +4384,12 @@
       <c r="I17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -3492,8 +4417,12 @@
       <c r="I18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -3521,8 +4450,12 @@
       <c r="I19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -3550,8 +4483,12 @@
       <c r="I20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -3579,8 +4516,12 @@
       <c r="I21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -3608,8 +4549,12 @@
       <c r="I22" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -3637,8 +4582,12 @@
       <c r="I23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -3666,8 +4615,12 @@
       <c r="I24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -3695,8 +4648,12 @@
       <c r="I25" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -3724,8 +4681,12 @@
       <c r="I26" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -3753,8 +4714,12 @@
       <c r="I27" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -3782,8 +4747,12 @@
       <c r="I28" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -3811,8 +4780,12 @@
       <c r="I29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -3840,8 +4813,12 @@
       <c r="I30" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -3869,8 +4846,12 @@
       <c r="I31" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -3898,8 +4879,12 @@
       <c r="I32" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -3927,8 +4912,12 @@
       <c r="I33" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -3956,8 +4945,12 @@
       <c r="I34" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="3"/>
+      <c r="K34" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -3985,8 +4978,12 @@
       <c r="I35" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -4014,8 +5011,12 @@
       <c r="I36" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -4043,8 +5044,12 @@
       <c r="I37" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -4072,8 +5077,12 @@
       <c r="I38" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="3"/>
+      <c r="K38" s="3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -4101,8 +5110,12 @@
       <c r="I39" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -4130,8 +5143,12 @@
       <c r="I40" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="3"/>
+      <c r="K40" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -4159,8 +5176,12 @@
       <c r="I41" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="3"/>
+      <c r="K41" s="3" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -4188,8 +5209,12 @@
       <c r="I42" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="3"/>
+      <c r="K42" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -4217,8 +5242,12 @@
       <c r="I43" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="3"/>
+      <c r="K43" s="3" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -4246,8 +5275,10 @@
       <c r="I44" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -4275,8 +5306,12 @@
       <c r="I45" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -4304,8 +5339,12 @@
       <c r="I46" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="3"/>
+      <c r="K46" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -4333,8 +5372,12 @@
       <c r="I47" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
@@ -4362,8 +5405,12 @@
       <c r="I48" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
@@ -4391,8 +5438,12 @@
       <c r="I49" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="3"/>
+      <c r="K49" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
@@ -4420,8 +5471,10 @@
       <c r="I50" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -4449,8 +5502,10 @@
       <c r="I51" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -4478,8 +5533,12 @@
       <c r="I52" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -4507,8 +5566,12 @@
       <c r="I53" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="3"/>
+      <c r="K53" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
@@ -4536,8 +5599,12 @@
       <c r="I54" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="3"/>
+      <c r="K54" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
@@ -4565,8 +5632,12 @@
       <c r="I55" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="3"/>
+      <c r="K55" s="3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
@@ -4594,8 +5665,12 @@
       <c r="I56" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
@@ -4623,8 +5698,12 @@
       <c r="I57" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
@@ -4652,8 +5731,12 @@
       <c r="I58" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="3"/>
+      <c r="K58" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>9</v>
       </c>
@@ -4681,8 +5764,12 @@
       <c r="I59" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="3"/>
+      <c r="K59" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -4710,8 +5797,12 @@
       <c r="I60" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="3"/>
+      <c r="K60" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -4739,8 +5830,12 @@
       <c r="I61" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="3"/>
+      <c r="K61" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -4768,8 +5863,12 @@
       <c r="I62" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="3"/>
+      <c r="K62" s="3" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
@@ -4797,8 +5896,12 @@
       <c r="I63" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="3"/>
+      <c r="K63" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
@@ -4826,8 +5929,12 @@
       <c r="I64" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="3"/>
+      <c r="K64" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
@@ -4855,8 +5962,12 @@
       <c r="I65" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="3"/>
+      <c r="K65" s="3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>9</v>
       </c>
@@ -4884,8 +5995,12 @@
       <c r="I66" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="3"/>
+      <c r="K66" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
@@ -4913,8 +6028,12 @@
       <c r="I67" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="3"/>
+      <c r="K67" s="3" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>9</v>
       </c>
@@ -4942,8 +6061,12 @@
       <c r="I68" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="3"/>
+      <c r="K68" s="3" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -4971,8 +6094,12 @@
       <c r="I69" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="3"/>
+      <c r="K69" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>9</v>
       </c>
@@ -5000,8 +6127,12 @@
       <c r="I70" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="3"/>
+      <c r="K70" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
@@ -5029,8 +6160,12 @@
       <c r="I71" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="3"/>
+      <c r="K71" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>9</v>
       </c>
@@ -5058,8 +6193,12 @@
       <c r="I72" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="3"/>
+      <c r="K72" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -5087,8 +6226,12 @@
       <c r="I73" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="3"/>
+      <c r="K73" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
@@ -5116,8 +6259,12 @@
       <c r="I74" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="3"/>
+      <c r="K74" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>9</v>
       </c>
@@ -5145,8 +6292,12 @@
       <c r="I75" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="3"/>
+      <c r="K75" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
@@ -5174,8 +6325,12 @@
       <c r="I76" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="3"/>
+      <c r="K76" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
@@ -5203,8 +6358,12 @@
       <c r="I77" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="3"/>
+      <c r="K77" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>9</v>
       </c>
@@ -5232,8 +6391,12 @@
       <c r="I78" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="3"/>
+      <c r="K78" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
@@ -5261,8 +6424,12 @@
       <c r="I79" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="3"/>
+      <c r="K79" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
@@ -5290,8 +6457,12 @@
       <c r="I80" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="3"/>
+      <c r="K80" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
@@ -5319,8 +6490,12 @@
       <c r="I81" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="3"/>
+      <c r="K81" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>9</v>
       </c>
@@ -5348,8 +6523,10 @@
       <c r="I82" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -5377,8 +6554,10 @@
       <c r="I83" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>9</v>
       </c>
@@ -5406,8 +6585,12 @@
       <c r="I84" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="3"/>
+      <c r="K84" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
@@ -5435,8 +6618,12 @@
       <c r="I85" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="3"/>
+      <c r="K85" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>9</v>
       </c>
@@ -5464,8 +6651,12 @@
       <c r="I86" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="3"/>
+      <c r="K86" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
@@ -5493,8 +6684,12 @@
       <c r="I87" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="3"/>
+      <c r="K87" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>9</v>
       </c>
@@ -5522,8 +6717,12 @@
       <c r="I88" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="3"/>
+      <c r="K88" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
@@ -5551,8 +6750,12 @@
       <c r="I89" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="3"/>
+      <c r="K89" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>9</v>
       </c>
@@ -5580,8 +6783,12 @@
       <c r="I90" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="3"/>
+      <c r="K90" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>9</v>
       </c>
@@ -5609,8 +6816,12 @@
       <c r="I91" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="3"/>
+      <c r="K91" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>9</v>
       </c>
@@ -5638,8 +6849,12 @@
       <c r="I92" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="3"/>
+      <c r="K92" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>9</v>
       </c>
@@ -5667,8 +6882,12 @@
       <c r="I93" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="3"/>
+      <c r="K93" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
@@ -5696,8 +6915,12 @@
       <c r="I94" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="3"/>
+      <c r="K94" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -5725,8 +6948,10 @@
       <c r="I95" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
@@ -5754,8 +6979,12 @@
       <c r="I96" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="3"/>
+      <c r="K96" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
@@ -5783,8 +7012,12 @@
       <c r="I97" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="3"/>
+      <c r="K97" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -5812,8 +7045,12 @@
       <c r="I98" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="3"/>
+      <c r="K98" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -5841,8 +7078,12 @@
       <c r="I99" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="3"/>
+      <c r="K99" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -5870,8 +7111,12 @@
       <c r="I100" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="3"/>
+      <c r="K100" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
@@ -5899,8 +7144,10 @@
       <c r="I101" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>9</v>
       </c>
@@ -5928,8 +7175,12 @@
       <c r="I102" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
@@ -5957,8 +7208,10 @@
       <c r="I103" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>9</v>
       </c>
@@ -5986,8 +7239,12 @@
       <c r="I104" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="3"/>
+      <c r="K104" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>9</v>
       </c>
@@ -6015,8 +7272,12 @@
       <c r="I105" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="3"/>
+      <c r="K105" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>9</v>
       </c>
@@ -6044,8 +7305,12 @@
       <c r="I106" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="3"/>
+      <c r="K106" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>9</v>
       </c>
@@ -6073,8 +7338,12 @@
       <c r="I107" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="3"/>
+      <c r="K107" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>9</v>
       </c>
@@ -6102,8 +7371,12 @@
       <c r="I108" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="3"/>
+      <c r="K108" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>9</v>
       </c>
@@ -6131,8 +7404,10 @@
       <c r="I109" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>9</v>
       </c>
@@ -6160,8 +7435,12 @@
       <c r="I110" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="3"/>
+      <c r="K110" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>9</v>
       </c>
@@ -6189,8 +7468,12 @@
       <c r="I111" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="3"/>
+      <c r="K111" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>9</v>
       </c>
@@ -6218,8 +7501,12 @@
       <c r="I112" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="3"/>
+      <c r="K112" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>9</v>
       </c>
@@ -6247,8 +7534,12 @@
       <c r="I113" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="3"/>
+      <c r="K113" s="3" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
@@ -6276,8 +7567,12 @@
       <c r="I114" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="3"/>
+      <c r="K114" s="3" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>9</v>
       </c>
@@ -6305,8 +7600,12 @@
       <c r="I115" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="3"/>
+      <c r="K115" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>9</v>
       </c>
@@ -6334,8 +7633,12 @@
       <c r="I116" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="3"/>
+      <c r="K116" s="3" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>9</v>
       </c>
@@ -6363,8 +7666,12 @@
       <c r="I117" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="3"/>
+      <c r="K117" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
@@ -6392,8 +7699,12 @@
       <c r="I118" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="3"/>
+      <c r="K118" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>9</v>
       </c>
@@ -6421,8 +7732,12 @@
       <c r="I119" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="3"/>
+      <c r="K119" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>9</v>
       </c>
@@ -6450,8 +7765,12 @@
       <c r="I120" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="3"/>
+      <c r="K120" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>9</v>
       </c>
@@ -6479,8 +7798,12 @@
       <c r="I121" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J121" s="3"/>
+      <c r="K121" s="3" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>9</v>
       </c>
@@ -6508,8 +7831,12 @@
       <c r="I122" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="3"/>
+      <c r="K122" s="3" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>9</v>
       </c>
@@ -6537,8 +7864,12 @@
       <c r="I123" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="3"/>
+      <c r="K123" s="3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>9</v>
       </c>
@@ -6566,8 +7897,12 @@
       <c r="I124" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="3"/>
+      <c r="K124" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>9</v>
       </c>
@@ -6595,8 +7930,12 @@
       <c r="I125" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="3"/>
+      <c r="K125" s="3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>9</v>
       </c>
@@ -6624,8 +7963,12 @@
       <c r="I126" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="3"/>
+      <c r="K126" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>9</v>
       </c>
@@ -6653,8 +7996,12 @@
       <c r="I127" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="3"/>
+      <c r="K127" s="3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>9</v>
       </c>
@@ -6682,8 +8029,12 @@
       <c r="I128" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="3"/>
+      <c r="K128" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>9</v>
       </c>
@@ -6711,8 +8062,12 @@
       <c r="I129" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="3"/>
+      <c r="K129" s="3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
@@ -6740,8 +8095,12 @@
       <c r="I130" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="3"/>
+      <c r="K130" s="3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>9</v>
       </c>
@@ -6769,8 +8128,12 @@
       <c r="I131" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="3"/>
+      <c r="K131" s="3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>9</v>
       </c>
@@ -6798,8 +8161,12 @@
       <c r="I132" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="3"/>
+      <c r="K132" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>9</v>
       </c>
@@ -6827,8 +8194,10 @@
       <c r="I133" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>9</v>
       </c>
@@ -6856,8 +8225,10 @@
       <c r="I134" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>9</v>
       </c>
@@ -6885,8 +8256,12 @@
       <c r="I135" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="3"/>
+      <c r="K135" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>9</v>
       </c>
@@ -6914,8 +8289,12 @@
       <c r="I136" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="3"/>
+      <c r="K136" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>9</v>
       </c>
@@ -6940,8 +8319,12 @@
       <c r="I137" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="3"/>
+      <c r="K137" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>9</v>
       </c>
@@ -6969,8 +8352,12 @@
       <c r="I138" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="3"/>
+      <c r="K138" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>9</v>
       </c>
@@ -6998,8 +8385,12 @@
       <c r="I139" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="3"/>
+      <c r="K139" s="3" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>9</v>
       </c>
@@ -7027,8 +8418,12 @@
       <c r="I140" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="3"/>
+      <c r="K140" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>9</v>
       </c>
@@ -7056,8 +8451,12 @@
       <c r="I141" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="3"/>
+      <c r="K141" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>9</v>
       </c>
@@ -7085,8 +8484,12 @@
       <c r="I142" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="3"/>
+      <c r="K142" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
@@ -7114,8 +8517,12 @@
       <c r="I143" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="3"/>
+      <c r="K143" s="3" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
@@ -7143,8 +8550,12 @@
       <c r="I144" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="3"/>
+      <c r="K144" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>9</v>
       </c>
@@ -7172,8 +8583,12 @@
       <c r="I145" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="3"/>
+      <c r="K145" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -7201,8 +8616,10 @@
       <c r="I146" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>9</v>
       </c>
@@ -7230,8 +8647,12 @@
       <c r="I147" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="3"/>
+      <c r="K147" s="3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>9</v>
       </c>
@@ -7259,8 +8680,12 @@
       <c r="I148" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" s="3"/>
+      <c r="K148" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>9</v>
       </c>
@@ -7288,8 +8713,10 @@
       <c r="I149" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>9</v>
       </c>
@@ -7317,8 +8744,12 @@
       <c r="I150" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="3"/>
+      <c r="K150" s="3" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>9</v>
       </c>
@@ -7346,8 +8777,12 @@
       <c r="I151" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="3"/>
+      <c r="K151" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>9</v>
       </c>
@@ -7375,8 +8810,10 @@
       <c r="I152" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>9</v>
       </c>
@@ -7404,8 +8841,10 @@
       <c r="I153" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>9</v>
       </c>
@@ -7433,8 +8872,12 @@
       <c r="I154" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="3"/>
+      <c r="K154" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>9</v>
       </c>
@@ -7462,8 +8905,12 @@
       <c r="I155" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" s="3"/>
+      <c r="K155" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>9</v>
       </c>
@@ -7491,8 +8938,12 @@
       <c r="I156" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="3"/>
+      <c r="K156" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>9</v>
       </c>
@@ -7520,8 +8971,12 @@
       <c r="I157" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="3"/>
+      <c r="K157" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>9</v>
       </c>
@@ -7549,8 +9004,12 @@
       <c r="I158" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="3"/>
+      <c r="K158" s="3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>9</v>
       </c>
@@ -7578,8 +9037,12 @@
       <c r="I159" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="3"/>
+      <c r="K159" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>9</v>
       </c>
@@ -7607,8 +9070,12 @@
       <c r="I160" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="3"/>
+      <c r="K160" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>9</v>
       </c>
@@ -7636,8 +9103,10 @@
       <c r="I161" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>9</v>
       </c>
@@ -7665,8 +9134,12 @@
       <c r="I162" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="3"/>
+      <c r="K162" s="3" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>9</v>
       </c>
@@ -7694,8 +9167,12 @@
       <c r="I163" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="3"/>
+      <c r="K163" s="3" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>9</v>
       </c>
@@ -7723,8 +9200,12 @@
       <c r="I164" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="3"/>
+      <c r="K164" s="3" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>9</v>
       </c>
@@ -7752,8 +9233,10 @@
       <c r="I165" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>9</v>
       </c>
@@ -7781,8 +9264,12 @@
       <c r="I166" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="3"/>
+      <c r="K166" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>9</v>
       </c>
@@ -7810,8 +9297,12 @@
       <c r="I167" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="3"/>
+      <c r="K167" s="3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>9</v>
       </c>
@@ -7839,8 +9330,12 @@
       <c r="I168" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="3"/>
+      <c r="K168" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>9</v>
       </c>
@@ -7868,8 +9363,10 @@
       <c r="I169" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>9</v>
       </c>
@@ -7894,8 +9391,12 @@
       <c r="I170" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="3"/>
+      <c r="K170" s="3" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>9</v>
       </c>
@@ -7923,8 +9424,12 @@
       <c r="I171" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="3"/>
+      <c r="K171" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>9</v>
       </c>
@@ -7952,8 +9457,12 @@
       <c r="I172" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="3"/>
+      <c r="K172" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>9</v>
       </c>
@@ -7981,8 +9490,12 @@
       <c r="I173" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="3"/>
+      <c r="K173" s="3" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>9</v>
       </c>
@@ -8010,8 +9523,12 @@
       <c r="I174" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="3"/>
+      <c r="K174" s="3" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>9</v>
       </c>
@@ -8039,8 +9556,10 @@
       <c r="I175" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>9</v>
       </c>
@@ -8068,8 +9587,10 @@
       <c r="I176" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>9</v>
       </c>
@@ -8097,8 +9618,12 @@
       <c r="I177" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="3"/>
+      <c r="K177" s="3" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>9</v>
       </c>
@@ -8126,8 +9651,10 @@
       <c r="I178" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="3"/>
+      <c r="K178" s="3"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>9</v>
       </c>
@@ -8155,8 +9682,12 @@
       <c r="I179" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="3"/>
+      <c r="K179" s="3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>9</v>
       </c>
@@ -8184,8 +9715,12 @@
       <c r="I180" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="3"/>
+      <c r="K180" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>9</v>
       </c>
@@ -8213,8 +9748,12 @@
       <c r="I181" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="3"/>
+      <c r="K181" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>9</v>
       </c>
@@ -8242,8 +9781,12 @@
       <c r="I182" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="3"/>
+      <c r="K182" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>9</v>
       </c>
@@ -8271,8 +9814,10 @@
       <c r="I183" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>9</v>
       </c>
@@ -8300,8 +9845,12 @@
       <c r="I184" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="3"/>
+      <c r="K184" s="3" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>9</v>
       </c>
@@ -8329,8 +9878,12 @@
       <c r="I185" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="3"/>
+      <c r="K185" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>9</v>
       </c>
@@ -8358,8 +9911,10 @@
       <c r="I186" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>9</v>
       </c>
@@ -8387,8 +9942,12 @@
       <c r="I187" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="3"/>
+      <c r="K187" s="3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
@@ -8416,8 +9975,12 @@
       <c r="I188" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="3"/>
+      <c r="K188" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>9</v>
       </c>
@@ -8445,8 +10008,10 @@
       <c r="I189" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>9</v>
       </c>
@@ -8474,8 +10039,12 @@
       <c r="I190" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" s="3"/>
+      <c r="K190" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>9</v>
       </c>
@@ -8503,8 +10072,12 @@
       <c r="I191" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" s="3"/>
+      <c r="K191" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>9</v>
       </c>
@@ -8532,8 +10105,12 @@
       <c r="I192" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" s="3"/>
+      <c r="K192" s="3" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>9</v>
       </c>
@@ -8561,8 +10138,12 @@
       <c r="I193" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193" s="3"/>
+      <c r="K193" s="3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>9</v>
       </c>
@@ -8590,8 +10171,12 @@
       <c r="I194" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194" s="3"/>
+      <c r="K194" s="3" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>9</v>
       </c>
@@ -8619,8 +10204,12 @@
       <c r="I195" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" s="3"/>
+      <c r="K195" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>9</v>
       </c>
@@ -8648,8 +10237,12 @@
       <c r="I196" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J196" s="3"/>
+      <c r="K196" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>9</v>
       </c>
@@ -8677,8 +10270,12 @@
       <c r="I197" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J197" s="3"/>
+      <c r="K197" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>9</v>
       </c>
@@ -8706,8 +10303,12 @@
       <c r="I198" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198" s="3"/>
+      <c r="K198" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>9</v>
       </c>
@@ -8735,8 +10336,12 @@
       <c r="I199" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199" s="3"/>
+      <c r="K199" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>9</v>
       </c>
@@ -8764,8 +10369,12 @@
       <c r="I200" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" s="3"/>
+      <c r="K200" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>9</v>
       </c>
@@ -8793,8 +10402,12 @@
       <c r="I201" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201" s="3"/>
+      <c r="K201" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>9</v>
       </c>
@@ -8822,8 +10435,12 @@
       <c r="I202" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" s="3"/>
+      <c r="K202" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>9</v>
       </c>
@@ -8851,8 +10468,12 @@
       <c r="I203" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" s="3"/>
+      <c r="K203" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>9</v>
       </c>
@@ -8880,8 +10501,12 @@
       <c r="I204" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" s="3"/>
+      <c r="K204" s="3" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>9</v>
       </c>
@@ -8909,8 +10534,12 @@
       <c r="I205" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" s="3"/>
+      <c r="K205" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>9</v>
       </c>
@@ -8938,8 +10567,12 @@
       <c r="I206" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" s="3"/>
+      <c r="K206" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>9</v>
       </c>
@@ -8967,8 +10600,12 @@
       <c r="I207" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" s="3"/>
+      <c r="K207" s="3" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>9</v>
       </c>
@@ -8996,8 +10633,12 @@
       <c r="I208" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" s="3"/>
+      <c r="K208" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>9</v>
       </c>
@@ -9025,8 +10666,12 @@
       <c r="I209" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209" s="3"/>
+      <c r="K209" s="3" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>9</v>
       </c>
@@ -9054,8 +10699,12 @@
       <c r="I210" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210" s="3"/>
+      <c r="K210" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>9</v>
       </c>
@@ -9083,8 +10732,12 @@
       <c r="I211" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211" s="3"/>
+      <c r="K211" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>9</v>
       </c>
@@ -9112,8 +10765,10 @@
       <c r="I212" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" s="3"/>
+      <c r="K212" s="3"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>9</v>
       </c>
@@ -9141,8 +10796,12 @@
       <c r="I213" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" s="3"/>
+      <c r="K213" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>9</v>
       </c>
@@ -9170,8 +10829,12 @@
       <c r="I214" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214" s="3"/>
+      <c r="K214" s="3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>9</v>
       </c>
@@ -9199,8 +10862,12 @@
       <c r="I215" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215" s="3"/>
+      <c r="K215" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>9</v>
       </c>
@@ -9228,8 +10895,12 @@
       <c r="I216" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" s="3"/>
+      <c r="K216" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>9</v>
       </c>
@@ -9257,8 +10928,12 @@
       <c r="I217" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217" s="3"/>
+      <c r="K217" s="3" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>9</v>
       </c>
@@ -9286,8 +10961,12 @@
       <c r="I218" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218" s="3"/>
+      <c r="K218" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>9</v>
       </c>
@@ -9315,8 +10994,12 @@
       <c r="I219" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J219" s="3"/>
+      <c r="K219" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>9</v>
       </c>
@@ -9344,8 +11027,12 @@
       <c r="I220" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220" s="3"/>
+      <c r="K220" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>9</v>
       </c>
@@ -9373,8 +11060,12 @@
       <c r="I221" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J221" s="3"/>
+      <c r="K221" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>9</v>
       </c>
@@ -9402,8 +11093,12 @@
       <c r="I222" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J222" s="3"/>
+      <c r="K222" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>9</v>
       </c>
@@ -9431,8 +11126,12 @@
       <c r="I223" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223" s="3"/>
+      <c r="K223" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>9</v>
       </c>
@@ -9460,8 +11159,12 @@
       <c r="I224" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J224" s="3"/>
+      <c r="K224" s="3" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>9</v>
       </c>
@@ -9489,8 +11192,12 @@
       <c r="I225" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J225" s="3"/>
+      <c r="K225" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>9</v>
       </c>
@@ -9518,8 +11225,12 @@
       <c r="I226" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J226" s="3"/>
+      <c r="K226" s="3" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>9</v>
       </c>
@@ -9547,8 +11258,12 @@
       <c r="I227" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J227" s="3"/>
+      <c r="K227" s="3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>9</v>
       </c>
@@ -9576,8 +11291,12 @@
       <c r="I228" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J228" s="3"/>
+      <c r="K228" s="3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>9</v>
       </c>
@@ -9605,8 +11324,12 @@
       <c r="I229" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J229" s="3"/>
+      <c r="K229" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>9</v>
       </c>
@@ -9634,8 +11357,12 @@
       <c r="I230" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J230" s="3"/>
+      <c r="K230" s="3" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>9</v>
       </c>
@@ -9663,8 +11390,12 @@
       <c r="I231" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J231" s="3"/>
+      <c r="K231" s="3" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>9</v>
       </c>
@@ -9692,8 +11423,12 @@
       <c r="I232" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J232" s="3"/>
+      <c r="K232" s="3" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>9</v>
       </c>
@@ -9721,8 +11456,12 @@
       <c r="I233" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J233" s="3"/>
+      <c r="K233" s="3" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>9</v>
       </c>
@@ -9750,8 +11489,12 @@
       <c r="I234" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J234" s="3"/>
+      <c r="K234" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>9</v>
       </c>
@@ -9779,8 +11522,12 @@
       <c r="I235" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J235" s="3"/>
+      <c r="K235" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>9</v>
       </c>
@@ -9808,8 +11555,12 @@
       <c r="I236" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J236" s="3"/>
+      <c r="K236" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>9</v>
       </c>
@@ -9837,8 +11588,12 @@
       <c r="I237" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J237" s="3"/>
+      <c r="K237" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>9</v>
       </c>
@@ -9866,8 +11621,12 @@
       <c r="I238" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J238" s="3"/>
+      <c r="K238" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>9</v>
       </c>
@@ -9895,8 +11654,12 @@
       <c r="I239" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J239" s="3"/>
+      <c r="K239" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>9</v>
       </c>
@@ -9924,8 +11687,12 @@
       <c r="I240" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J240" s="3"/>
+      <c r="K240" s="3" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>9</v>
       </c>
@@ -9953,8 +11720,12 @@
       <c r="I241" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J241" s="3"/>
+      <c r="K241" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>9</v>
       </c>
@@ -9982,8 +11753,12 @@
       <c r="I242" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J242" s="3"/>
+      <c r="K242" s="3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>9</v>
       </c>
@@ -10011,8 +11786,12 @@
       <c r="I243" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J243" s="3"/>
+      <c r="K243" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>9</v>
       </c>
@@ -10040,8 +11819,12 @@
       <c r="I244" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J244" s="3"/>
+      <c r="K244" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>9</v>
       </c>
@@ -10069,8 +11852,12 @@
       <c r="I245" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J245" s="3"/>
+      <c r="K245" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>9</v>
       </c>
@@ -10098,8 +11885,12 @@
       <c r="I246" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J246" s="3"/>
+      <c r="K246" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>9</v>
       </c>
@@ -10127,8 +11918,12 @@
       <c r="I247" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J247" s="3"/>
+      <c r="K247" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>9</v>
       </c>
@@ -10156,8 +11951,10 @@
       <c r="I248" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J248" s="3"/>
+      <c r="K248" s="3"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>9</v>
       </c>
@@ -10185,8 +11982,10 @@
       <c r="I249" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J249" s="3"/>
+      <c r="K249" s="3"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>9</v>
       </c>
@@ -10214,8 +12013,12 @@
       <c r="I250" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J250" s="3"/>
+      <c r="K250" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>9</v>
       </c>
@@ -10243,8 +12046,12 @@
       <c r="I251" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J251" s="3"/>
+      <c r="K251" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>9</v>
       </c>
@@ -10272,8 +12079,12 @@
       <c r="I252" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J252" s="3"/>
+      <c r="K252" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>9</v>
       </c>
@@ -10301,8 +12112,10 @@
       <c r="I253" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J253" s="3"/>
+      <c r="K253" s="3"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>9</v>
       </c>
@@ -10330,8 +12143,12 @@
       <c r="I254" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J254" s="3"/>
+      <c r="K254" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>9</v>
       </c>
@@ -10359,8 +12176,12 @@
       <c r="I255" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J255" s="3"/>
+      <c r="K255" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>9</v>
       </c>
@@ -10388,8 +12209,12 @@
       <c r="I256" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J256" s="3"/>
+      <c r="K256" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>9</v>
       </c>
@@ -10417,8 +12242,12 @@
       <c r="I257" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J257" s="3"/>
+      <c r="K257" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>9</v>
       </c>
@@ -10446,8 +12275,10 @@
       <c r="I258" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J258" s="3"/>
+      <c r="K258" s="3"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>9</v>
       </c>
@@ -10475,8 +12306,12 @@
       <c r="I259" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J259" s="3"/>
+      <c r="K259" s="3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>9</v>
       </c>
@@ -10504,8 +12339,12 @@
       <c r="I260" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J260" s="3"/>
+      <c r="K260" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>9</v>
       </c>
@@ -10533,8 +12372,12 @@
       <c r="I261" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J261" s="3"/>
+      <c r="K261" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>9</v>
       </c>
@@ -10562,8 +12405,12 @@
       <c r="I262" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J262" s="3"/>
+      <c r="K262" s="3" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>9</v>
       </c>
@@ -10591,8 +12438,10 @@
       <c r="I263" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J263" s="3"/>
+      <c r="K263" s="3"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>9</v>
       </c>
@@ -10620,8 +12469,12 @@
       <c r="I264" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J264" s="3"/>
+      <c r="K264" s="3" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>9</v>
       </c>
@@ -10649,8 +12502,12 @@
       <c r="I265" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J265" s="3"/>
+      <c r="K265" s="3" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>9</v>
       </c>
@@ -10678,8 +12535,10 @@
       <c r="I266" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J266" s="3"/>
+      <c r="K266" s="3"/>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>9</v>
       </c>
@@ -10707,8 +12566,12 @@
       <c r="I267" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J267" s="3"/>
+      <c r="K267" s="3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>9</v>
       </c>
@@ -10736,8 +12599,12 @@
       <c r="I268" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J268" s="3"/>
+      <c r="K268" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>9</v>
       </c>
@@ -10765,8 +12632,10 @@
       <c r="I269" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J269" s="3"/>
+      <c r="K269" s="3"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>9</v>
       </c>
@@ -10794,8 +12663,12 @@
       <c r="I270" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J270" s="3"/>
+      <c r="K270" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>9</v>
       </c>
@@ -10823,8 +12696,12 @@
       <c r="I271" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J271" s="3"/>
+      <c r="K271" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>9</v>
       </c>
@@ -10852,8 +12729,10 @@
       <c r="I272" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J272" s="3"/>
+      <c r="K272" s="3"/>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>9</v>
       </c>
@@ -10881,8 +12760,12 @@
       <c r="I273" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J273" s="3"/>
+      <c r="K273" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>9</v>
       </c>
@@ -10910,8 +12793,12 @@
       <c r="I274" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J274" s="3"/>
+      <c r="K274" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>9</v>
       </c>
@@ -10939,8 +12826,12 @@
       <c r="I275" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J275" s="3"/>
+      <c r="K275" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>9</v>
       </c>
@@ -10968,8 +12859,12 @@
       <c r="I276" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J276" s="3"/>
+      <c r="K276" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>9</v>
       </c>
@@ -10997,8 +12892,12 @@
       <c r="I277" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J277" s="3"/>
+      <c r="K277" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>9</v>
       </c>
@@ -11026,8 +12925,12 @@
       <c r="I278" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J278" s="3"/>
+      <c r="K278" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>9</v>
       </c>
@@ -11055,8 +12958,12 @@
       <c r="I279" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J279" s="3"/>
+      <c r="K279" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>9</v>
       </c>
@@ -11084,8 +12991,12 @@
       <c r="I280" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J280" s="3"/>
+      <c r="K280" s="3" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>9</v>
       </c>
@@ -11113,8 +13024,12 @@
       <c r="I281" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J281" s="3"/>
+      <c r="K281" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>9</v>
       </c>
@@ -11142,8 +13057,12 @@
       <c r="I282" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J282" s="3"/>
+      <c r="K282" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>9</v>
       </c>
@@ -11171,8 +13090,12 @@
       <c r="I283" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J283" s="3"/>
+      <c r="K283" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>9</v>
       </c>
@@ -11200,8 +13123,12 @@
       <c r="I284" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J284" s="3"/>
+      <c r="K284" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>9</v>
       </c>
@@ -11229,8 +13156,12 @@
       <c r="I285" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J285" s="3"/>
+      <c r="K285" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>9</v>
       </c>
@@ -11258,8 +13189,12 @@
       <c r="I286" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J286" s="3"/>
+      <c r="K286" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>9</v>
       </c>
@@ -11287,8 +13222,12 @@
       <c r="I287" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J287" s="3"/>
+      <c r="K287" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>9</v>
       </c>
@@ -11316,8 +13255,12 @@
       <c r="I288" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J288" s="3"/>
+      <c r="K288" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>9</v>
       </c>
@@ -11345,8 +13288,12 @@
       <c r="I289" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J289" s="3"/>
+      <c r="K289" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>9</v>
       </c>
@@ -11374,8 +13321,12 @@
       <c r="I290" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J290" s="3"/>
+      <c r="K290" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>9</v>
       </c>
@@ -11403,8 +13354,12 @@
       <c r="I291" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J291" s="3"/>
+      <c r="K291" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>9</v>
       </c>
@@ -11432,8 +13387,12 @@
       <c r="I292" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J292" s="3"/>
+      <c r="K292" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>9</v>
       </c>
@@ -11461,8 +13420,12 @@
       <c r="I293" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J293" s="3"/>
+      <c r="K293" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>9</v>
       </c>
@@ -11490,8 +13453,12 @@
       <c r="I294" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J294" s="3"/>
+      <c r="K294" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>9</v>
       </c>
@@ -11519,8 +13486,12 @@
       <c r="I295" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J295" s="3"/>
+      <c r="K295" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>9</v>
       </c>
@@ -11545,8 +13516,10 @@
       <c r="H296" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J296" s="3"/>
+      <c r="K296" s="3"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>9</v>
       </c>
@@ -11574,8 +13547,12 @@
       <c r="I297" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J297" s="3"/>
+      <c r="K297" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>9</v>
       </c>
@@ -11603,8 +13580,10 @@
       <c r="I298" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J298" s="3"/>
+      <c r="K298" s="3"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>9</v>
       </c>
@@ -11632,8 +13611,10 @@
       <c r="I299" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J299" s="3"/>
+      <c r="K299" s="3"/>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>9</v>
       </c>
@@ -11661,8 +13642,12 @@
       <c r="I300" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J300" s="3"/>
+      <c r="K300" s="3" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>9</v>
       </c>
@@ -11690,8 +13675,12 @@
       <c r="I301" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J301" s="3"/>
+      <c r="K301" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>9</v>
       </c>
@@ -11719,8 +13708,12 @@
       <c r="I302" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J302" s="3"/>
+      <c r="K302" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>9</v>
       </c>
@@ -11748,8 +13741,12 @@
       <c r="I303" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J303" s="3"/>
+      <c r="K303" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>9</v>
       </c>
@@ -11777,8 +13774,10 @@
       <c r="I304" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J304" s="3"/>
+      <c r="K304" s="3"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>9</v>
       </c>
@@ -11806,8 +13805,12 @@
       <c r="I305" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J305" s="3"/>
+      <c r="K305" s="3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>9</v>
       </c>
@@ -11835,8 +13838,12 @@
       <c r="I306" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J306" s="3"/>
+      <c r="K306" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>9</v>
       </c>
@@ -11864,8 +13871,10 @@
       <c r="I307" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J307" s="3"/>
+      <c r="K307" s="3"/>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>9</v>
       </c>
@@ -11893,8 +13902,10 @@
       <c r="I308" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J308" s="3"/>
+      <c r="K308" s="3"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>9</v>
       </c>
@@ -11922,8 +13933,12 @@
       <c r="I309" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J309" s="3"/>
+      <c r="K309" s="3" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>9</v>
       </c>
@@ -11951,8 +13966,12 @@
       <c r="I310" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J310" s="3"/>
+      <c r="K310" s="3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>9</v>
       </c>
@@ -11980,8 +13999,12 @@
       <c r="I311" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J311" s="3"/>
+      <c r="K311" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>9</v>
       </c>
@@ -12009,8 +14032,10 @@
       <c r="I312" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J312" s="3"/>
+      <c r="K312" s="3"/>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>9</v>
       </c>
@@ -12038,8 +14063,12 @@
       <c r="I313" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J313" s="3"/>
+      <c r="K313" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>9</v>
       </c>
@@ -12067,8 +14096,12 @@
       <c r="I314" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J314" s="3"/>
+      <c r="K314" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>9</v>
       </c>
@@ -12096,8 +14129,12 @@
       <c r="I315" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J315" s="3"/>
+      <c r="K315" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>9</v>
       </c>
@@ -12125,8 +14162,12 @@
       <c r="I316" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J316" s="3"/>
+      <c r="K316" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>9</v>
       </c>
@@ -12154,8 +14195,12 @@
       <c r="I317" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J317" s="3"/>
+      <c r="K317" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>9</v>
       </c>
@@ -12183,8 +14228,10 @@
       <c r="I318" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J318" s="3"/>
+      <c r="K318" s="3"/>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>9</v>
       </c>
@@ -12212,8 +14259,10 @@
       <c r="I319" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J319" s="3"/>
+      <c r="K319" s="3"/>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>9</v>
       </c>
@@ -12241,6 +14290,8 @@
       <c r="I320" t="s">
         <v>4</v>
       </c>
+      <c r="J320" s="3"/>
+      <c r="K320" s="3"/>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
@@ -12706,7 +14757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>9</v>
       </c>
@@ -12734,8 +14785,10 @@
       <c r="I337" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J337" s="3"/>
+      <c r="K337" s="3"/>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>9</v>
       </c>
@@ -12763,8 +14816,10 @@
       <c r="I338" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J338" s="3"/>
+      <c r="K338" s="3"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>9</v>
       </c>
@@ -12792,8 +14847,10 @@
       <c r="I339" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J339" s="3"/>
+      <c r="K339" s="3"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>9</v>
       </c>
@@ -12821,8 +14878,10 @@
       <c r="I340" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J340" s="3"/>
+      <c r="K340" s="3"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>9</v>
       </c>
@@ -12850,8 +14909,10 @@
       <c r="I341" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J341" s="3"/>
+      <c r="K341" s="3"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>9</v>
       </c>
@@ -12879,8 +14940,10 @@
       <c r="I342" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J342" s="3"/>
+      <c r="K342" s="3"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>9</v>
       </c>
@@ -12908,8 +14971,10 @@
       <c r="I343" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J343" s="3"/>
+      <c r="K343" s="3"/>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>9</v>
       </c>
@@ -12937,8 +15002,10 @@
       <c r="I344" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J344" s="3"/>
+      <c r="K344" s="3"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>9</v>
       </c>
@@ -12966,8 +15033,10 @@
       <c r="I345" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J345" s="3"/>
+      <c r="K345" s="3"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>9</v>
       </c>
@@ -12995,8 +15064,12 @@
       <c r="I346" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J346" s="3"/>
+      <c r="K346" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>9</v>
       </c>
@@ -13024,8 +15097,12 @@
       <c r="I347" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J347" s="3"/>
+      <c r="K347" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>9</v>
       </c>
@@ -13053,8 +15130,12 @@
       <c r="I348" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J348" s="3"/>
+      <c r="K348" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>9</v>
       </c>
@@ -13082,8 +15163,12 @@
       <c r="I349" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J349" s="3"/>
+      <c r="K349" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>9</v>
       </c>
@@ -13111,8 +15196,12 @@
       <c r="I350" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J350" s="3"/>
+      <c r="K350" s="3" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>9</v>
       </c>
@@ -13140,8 +15229,12 @@
       <c r="I351" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J351" s="3"/>
+      <c r="K351" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>9</v>
       </c>
@@ -13169,8 +15262,10 @@
       <c r="I352" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J352" s="3"/>
+      <c r="K352" s="3"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>9</v>
       </c>
@@ -13198,8 +15293,12 @@
       <c r="I353" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J353" s="3"/>
+      <c r="K353" s="3" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>9</v>
       </c>
@@ -13227,8 +15326,10 @@
       <c r="I354" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J354" s="3"/>
+      <c r="K354" s="3"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>9</v>
       </c>
@@ -13256,8 +15357,12 @@
       <c r="I355" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J355" s="3"/>
+      <c r="K355" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>9</v>
       </c>
@@ -13285,8 +15390,12 @@
       <c r="I356" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J356" s="3"/>
+      <c r="K356" s="3" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>9</v>
       </c>
@@ -13314,8 +15423,12 @@
       <c r="I357" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J357" s="3"/>
+      <c r="K357" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>9</v>
       </c>
@@ -13343,8 +15456,12 @@
       <c r="I358" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J358" s="3"/>
+      <c r="K358" s="3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>9</v>
       </c>
@@ -13372,8 +15489,12 @@
       <c r="I359" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J359" s="3"/>
+      <c r="K359" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>9</v>
       </c>
@@ -13401,8 +15522,10 @@
       <c r="I360" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J360" s="3"/>
+      <c r="K360" s="3"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>9</v>
       </c>
@@ -13430,8 +15553,12 @@
       <c r="I361" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J361" s="3"/>
+      <c r="K361" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>9</v>
       </c>
@@ -13459,8 +15586,12 @@
       <c r="I362" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J362" s="3"/>
+      <c r="K362" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>9</v>
       </c>
@@ -13488,8 +15619,12 @@
       <c r="I363" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J363" s="3"/>
+      <c r="K363" s="3" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>9</v>
       </c>
@@ -13517,8 +15652,12 @@
       <c r="I364" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J364" s="3"/>
+      <c r="K364" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>9</v>
       </c>
@@ -13546,8 +15685,12 @@
       <c r="I365" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J365" s="3"/>
+      <c r="K365" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>9</v>
       </c>
@@ -13575,8 +15718,12 @@
       <c r="I366" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J366" s="3"/>
+      <c r="K366" s="3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>9</v>
       </c>
@@ -13604,8 +15751,12 @@
       <c r="I367" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J367" s="3"/>
+      <c r="K367" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>9</v>
       </c>
@@ -13633,8 +15784,12 @@
       <c r="I368" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J368" s="3"/>
+      <c r="K368" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>9</v>
       </c>
@@ -13662,8 +15817,12 @@
       <c r="I369" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J369" s="3"/>
+      <c r="K369" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>9</v>
       </c>
@@ -13691,8 +15850,12 @@
       <c r="I370" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J370" s="3"/>
+      <c r="K370" s="3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>9</v>
       </c>
@@ -13720,8 +15883,12 @@
       <c r="I371" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J371" s="3"/>
+      <c r="K371" s="3" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>9</v>
       </c>
@@ -13749,8 +15916,12 @@
       <c r="I372" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J372" s="3"/>
+      <c r="K372" s="3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>9</v>
       </c>
@@ -13778,8 +15949,12 @@
       <c r="I373" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J373" s="3"/>
+      <c r="K373" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>9</v>
       </c>
@@ -13807,8 +15982,12 @@
       <c r="I374" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J374" s="3"/>
+      <c r="K374" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>9</v>
       </c>
@@ -13836,8 +16015,12 @@
       <c r="I375" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J375" s="3"/>
+      <c r="K375" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>9</v>
       </c>
@@ -13865,8 +16048,10 @@
       <c r="I376" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J376" s="3"/>
+      <c r="K376" s="3"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>9</v>
       </c>
@@ -13894,8 +16079,12 @@
       <c r="I377" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J377" s="3"/>
+      <c r="K377" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>9</v>
       </c>
@@ -13923,8 +16112,12 @@
       <c r="I378" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J378" s="3"/>
+      <c r="K378" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>9</v>
       </c>
@@ -13952,8 +16145,12 @@
       <c r="I379" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J379" s="3"/>
+      <c r="K379" s="3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>9</v>
       </c>
@@ -13981,8 +16178,12 @@
       <c r="I380" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J380" s="3"/>
+      <c r="K380" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>9</v>
       </c>
@@ -14010,8 +16211,12 @@
       <c r="I381" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J381" s="3"/>
+      <c r="K381" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>9</v>
       </c>
@@ -14039,8 +16244,10 @@
       <c r="I382" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J382" s="3"/>
+      <c r="K382" s="3"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>9</v>
       </c>
@@ -14068,8 +16275,12 @@
       <c r="I383" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J383" s="3"/>
+      <c r="K383" s="3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>9</v>
       </c>
@@ -14097,8 +16308,12 @@
       <c r="I384" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J384" s="3"/>
+      <c r="K384" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>9</v>
       </c>
@@ -14126,8 +16341,12 @@
       <c r="I385" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J385" s="3"/>
+      <c r="K385" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>9</v>
       </c>
@@ -14155,8 +16374,12 @@
       <c r="I386" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J386" s="3"/>
+      <c r="K386" s="3" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>9</v>
       </c>
@@ -14184,8 +16407,12 @@
       <c r="I387" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J387" s="3"/>
+      <c r="K387" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>9</v>
       </c>
@@ -14213,8 +16440,10 @@
       <c r="I388" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J388" s="3"/>
+      <c r="K388" s="3"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>9</v>
       </c>
@@ -14242,8 +16471,12 @@
       <c r="I389" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J389" s="3"/>
+      <c r="K389" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>9</v>
       </c>
@@ -14271,8 +16504,12 @@
       <c r="I390" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J390" s="3"/>
+      <c r="K390" s="3" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>9</v>
       </c>
@@ -14300,8 +16537,12 @@
       <c r="I391" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J391" s="3"/>
+      <c r="K391" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>9</v>
       </c>
@@ -14329,8 +16570,10 @@
       <c r="I392" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J392" s="3"/>
+      <c r="K392" s="3"/>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>9</v>
       </c>
@@ -14358,8 +16601,12 @@
       <c r="I393" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J393" s="3"/>
+      <c r="K393" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>9</v>
       </c>
@@ -14387,8 +16634,12 @@
       <c r="I394" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J394" s="3"/>
+      <c r="K394" s="3" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>9</v>
       </c>
@@ -14416,8 +16667,12 @@
       <c r="I395" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J395" s="3"/>
+      <c r="K395" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>9</v>
       </c>
@@ -14445,8 +16700,10 @@
       <c r="I396" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J396" s="3"/>
+      <c r="K396" s="3"/>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>9</v>
       </c>
@@ -14474,8 +16731,12 @@
       <c r="I397" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J397" s="3"/>
+      <c r="K397" s="3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>9</v>
       </c>
@@ -14503,8 +16764,12 @@
       <c r="I398" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J398" s="3"/>
+      <c r="K398" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>9</v>
       </c>
@@ -14532,8 +16797,12 @@
       <c r="I399" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J399" s="3"/>
+      <c r="K399" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>9</v>
       </c>
@@ -14561,8 +16830,12 @@
       <c r="I400" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J400" s="3"/>
+      <c r="K400" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>9</v>
       </c>
@@ -14590,8 +16863,12 @@
       <c r="I401" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J401" s="3"/>
+      <c r="K401" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>9</v>
       </c>
@@ -14619,8 +16896,12 @@
       <c r="I402" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J402" s="3"/>
+      <c r="K402" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>9</v>
       </c>
@@ -14648,8 +16929,12 @@
       <c r="I403" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J403" s="3"/>
+      <c r="K403" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>9</v>
       </c>
@@ -14677,8 +16962,12 @@
       <c r="I404" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J404" s="3"/>
+      <c r="K404" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>9</v>
       </c>
@@ -14706,8 +16995,12 @@
       <c r="I405" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J405" s="3"/>
+      <c r="K405" s="3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>9</v>
       </c>
@@ -14735,8 +17028,12 @@
       <c r="I406" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J406" s="3"/>
+      <c r="K406" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>9</v>
       </c>
@@ -14764,8 +17061,12 @@
       <c r="I407" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J407" s="3"/>
+      <c r="K407" s="3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>9</v>
       </c>
@@ -14793,8 +17094,12 @@
       <c r="I408" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J408" s="3"/>
+      <c r="K408" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>9</v>
       </c>
@@ -14822,8 +17127,12 @@
       <c r="I409" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J409" s="3"/>
+      <c r="K409" s="3" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>9</v>
       </c>
@@ -14851,8 +17160,12 @@
       <c r="I410" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J410" s="3"/>
+      <c r="K410" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>9</v>
       </c>
@@ -14880,8 +17193,12 @@
       <c r="I411" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J411" s="3"/>
+      <c r="K411" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>9</v>
       </c>
@@ -14909,8 +17226,12 @@
       <c r="I412" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J412" s="3"/>
+      <c r="K412" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>9</v>
       </c>
@@ -14938,8 +17259,12 @@
       <c r="I413" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J413" s="3"/>
+      <c r="K413" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>9</v>
       </c>
@@ -14967,8 +17292,12 @@
       <c r="I414" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J414" s="3"/>
+      <c r="K414" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>9</v>
       </c>
@@ -14996,8 +17325,12 @@
       <c r="I415" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J415" s="3"/>
+      <c r="K415" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>9</v>
       </c>
@@ -15025,8 +17358,12 @@
       <c r="I416" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J416" s="3"/>
+      <c r="K416" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>9</v>
       </c>
@@ -15054,8 +17391,12 @@
       <c r="I417" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J417" s="3"/>
+      <c r="K417" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>9</v>
       </c>
@@ -15083,8 +17424,12 @@
       <c r="I418" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J418" s="3"/>
+      <c r="K418" s="3" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>9</v>
       </c>
@@ -15112,8 +17457,12 @@
       <c r="I419" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J419" s="3"/>
+      <c r="K419" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>9</v>
       </c>
@@ -15141,8 +17490,12 @@
       <c r="I420" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J420" s="3"/>
+      <c r="K420" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>9</v>
       </c>
@@ -15170,8 +17523,12 @@
       <c r="I421" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J421" s="3"/>
+      <c r="K421" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>9</v>
       </c>
@@ -15199,8 +17556,12 @@
       <c r="I422" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J422" s="3"/>
+      <c r="K422" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>9</v>
       </c>
@@ -15228,8 +17589,12 @@
       <c r="I423" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J423" s="3"/>
+      <c r="K423" s="3" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>9</v>
       </c>
@@ -15257,8 +17622,12 @@
       <c r="I424" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J424" s="3"/>
+      <c r="K424" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>9</v>
       </c>
@@ -15286,8 +17655,12 @@
       <c r="I425" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J425" s="3"/>
+      <c r="K425" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>9</v>
       </c>
@@ -15315,8 +17688,12 @@
       <c r="I426" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J426" s="3"/>
+      <c r="K426" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>9</v>
       </c>
@@ -15344,8 +17721,12 @@
       <c r="I427" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J427" s="3"/>
+      <c r="K427" s="3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>9</v>
       </c>
@@ -15373,8 +17754,12 @@
       <c r="I428" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J428" s="3"/>
+      <c r="K428" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>9</v>
       </c>
@@ -15402,8 +17787,12 @@
       <c r="I429" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J429" s="3"/>
+      <c r="K429" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>9</v>
       </c>
@@ -15431,8 +17820,12 @@
       <c r="I430" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J430" s="3"/>
+      <c r="K430" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>9</v>
       </c>
@@ -15460,8 +17853,12 @@
       <c r="I431" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J431" s="3"/>
+      <c r="K431" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>9</v>
       </c>
@@ -15489,8 +17886,12 @@
       <c r="I432" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J432" s="3"/>
+      <c r="K432" s="3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>9</v>
       </c>
@@ -15518,8 +17919,12 @@
       <c r="I433" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J433" s="3"/>
+      <c r="K433" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>9</v>
       </c>
@@ -15547,8 +17952,12 @@
       <c r="I434" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J434" s="3"/>
+      <c r="K434" s="3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>9</v>
       </c>
@@ -15576,8 +17985,12 @@
       <c r="I435" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J435" s="3"/>
+      <c r="K435" s="3" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>9</v>
       </c>
@@ -15605,8 +18018,12 @@
       <c r="I436" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J436" s="3"/>
+      <c r="K436" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>9</v>
       </c>
@@ -15634,8 +18051,12 @@
       <c r="I437" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J437" s="3"/>
+      <c r="K437" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>9</v>
       </c>
@@ -15663,8 +18084,12 @@
       <c r="I438" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J438" s="3"/>
+      <c r="K438" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>9</v>
       </c>
@@ -15692,8 +18117,12 @@
       <c r="I439" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J439" s="3"/>
+      <c r="K439" s="3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>9</v>
       </c>
@@ -15721,8 +18150,12 @@
       <c r="I440" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J440" s="3"/>
+      <c r="K440" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>9</v>
       </c>
@@ -15750,8 +18183,12 @@
       <c r="I441" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J441" s="3"/>
+      <c r="K441" s="3" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>9</v>
       </c>
@@ -15779,8 +18216,12 @@
       <c r="I442" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J442" s="3"/>
+      <c r="K442" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>9</v>
       </c>
@@ -15808,8 +18249,12 @@
       <c r="I443" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J443" s="3"/>
+      <c r="K443" s="3" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>9</v>
       </c>
@@ -15837,8 +18282,12 @@
       <c r="I444" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J444" s="3"/>
+      <c r="K444" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>9</v>
       </c>
@@ -15866,8 +18315,12 @@
       <c r="I445" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J445" s="3"/>
+      <c r="K445" s="3" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>9</v>
       </c>
@@ -15895,8 +18348,12 @@
       <c r="I446" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J446" s="3"/>
+      <c r="K446" s="3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>9</v>
       </c>
@@ -15924,8 +18381,12 @@
       <c r="I447" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J447" s="3"/>
+      <c r="K447" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>9</v>
       </c>
@@ -15953,8 +18414,12 @@
       <c r="I448" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J448" s="3"/>
+      <c r="K448" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>9</v>
       </c>
@@ -15982,8 +18447,12 @@
       <c r="I449" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J449" s="3"/>
+      <c r="K449" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>9</v>
       </c>
@@ -16011,8 +18480,12 @@
       <c r="I450" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J450" s="3"/>
+      <c r="K450" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>9</v>
       </c>
@@ -16040,8 +18513,12 @@
       <c r="I451" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J451" s="3"/>
+      <c r="K451" s="3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>9</v>
       </c>
@@ -16069,8 +18546,12 @@
       <c r="I452" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J452" s="3"/>
+      <c r="K452" s="3" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>9</v>
       </c>
@@ -16098,8 +18579,12 @@
       <c r="I453" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J453" s="3"/>
+      <c r="K453" s="3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>9</v>
       </c>
@@ -16127,8 +18612,12 @@
       <c r="I454" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J454" s="3"/>
+      <c r="K454" s="3" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>9</v>
       </c>
@@ -16156,8 +18645,12 @@
       <c r="I455" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J455" s="3"/>
+      <c r="K455" s="3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>9</v>
       </c>
@@ -16185,8 +18678,12 @@
       <c r="I456" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J456" s="3"/>
+      <c r="K456" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>9</v>
       </c>
@@ -16214,8 +18711,12 @@
       <c r="I457" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J457" s="3"/>
+      <c r="K457" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>9</v>
       </c>
@@ -16243,8 +18744,12 @@
       <c r="I458" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J458" s="3"/>
+      <c r="K458" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>9</v>
       </c>
@@ -16272,8 +18777,12 @@
       <c r="I459" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J459" s="3"/>
+      <c r="K459" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>9</v>
       </c>
@@ -16301,8 +18810,12 @@
       <c r="I460" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J460" s="3"/>
+      <c r="K460" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>9</v>
       </c>
@@ -16330,8 +18843,12 @@
       <c r="I461" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J461" s="3"/>
+      <c r="K461" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>9</v>
       </c>
@@ -16359,8 +18876,12 @@
       <c r="I462" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J462" s="3"/>
+      <c r="K462" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>9</v>
       </c>
@@ -16388,8 +18909,12 @@
       <c r="I463" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J463" s="3"/>
+      <c r="K463" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>9</v>
       </c>
@@ -16417,8 +18942,12 @@
       <c r="I464" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J464" s="3"/>
+      <c r="K464" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>9</v>
       </c>
@@ -16446,8 +18975,12 @@
       <c r="I465" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J465" s="3"/>
+      <c r="K465" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>9</v>
       </c>
@@ -16475,8 +19008,12 @@
       <c r="I466" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J466" s="3"/>
+      <c r="K466" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>9</v>
       </c>
@@ -16504,8 +19041,12 @@
       <c r="I467" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J467" s="3"/>
+      <c r="K467" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>9</v>
       </c>
@@ -16533,8 +19074,12 @@
       <c r="I468" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J468" s="3"/>
+      <c r="K468" s="3" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>9</v>
       </c>
@@ -16562,8 +19107,12 @@
       <c r="I469" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J469" s="3"/>
+      <c r="K469" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>9</v>
       </c>
@@ -16591,8 +19140,12 @@
       <c r="I470" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J470" s="3"/>
+      <c r="K470" s="3" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>9</v>
       </c>
@@ -16620,8 +19173,12 @@
       <c r="I471" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J471" s="3"/>
+      <c r="K471" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>9</v>
       </c>
@@ -16649,8 +19206,12 @@
       <c r="I472" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J472" s="3"/>
+      <c r="K472" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>9</v>
       </c>
@@ -16678,8 +19239,12 @@
       <c r="I473" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J473" s="3"/>
+      <c r="K473" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>9</v>
       </c>
@@ -16707,8 +19272,12 @@
       <c r="I474" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J474" s="3"/>
+      <c r="K474" s="3" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>9</v>
       </c>
@@ -16736,8 +19305,12 @@
       <c r="I475" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J475" s="3"/>
+      <c r="K475" s="3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>9</v>
       </c>
@@ -16765,8 +19338,12 @@
       <c r="I476" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J476" s="3"/>
+      <c r="K476" s="3" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>9</v>
       </c>
@@ -16794,8 +19371,12 @@
       <c r="I477" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J477" s="3"/>
+      <c r="K477" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>9</v>
       </c>
@@ -16823,8 +19404,12 @@
       <c r="I478" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J478" s="3"/>
+      <c r="K478" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>9</v>
       </c>
@@ -16852,8 +19437,12 @@
       <c r="I479" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J479" s="3"/>
+      <c r="K479" s="3" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>9</v>
       </c>
@@ -16881,8 +19470,12 @@
       <c r="I480" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J480" s="3"/>
+      <c r="K480" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>9</v>
       </c>
@@ -16910,8 +19503,12 @@
       <c r="I481" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J481" s="3"/>
+      <c r="K481" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>9</v>
       </c>
@@ -16939,8 +19536,12 @@
       <c r="I482" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J482" s="3"/>
+      <c r="K482" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>9</v>
       </c>
@@ -16968,8 +19569,12 @@
       <c r="I483" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J483" s="3"/>
+      <c r="K483" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>9</v>
       </c>
@@ -16997,8 +19602,12 @@
       <c r="I484" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J484" s="3"/>
+      <c r="K484" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>9</v>
       </c>
@@ -17026,8 +19635,12 @@
       <c r="I485" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J485" s="3"/>
+      <c r="K485" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>9</v>
       </c>
@@ -17055,8 +19668,12 @@
       <c r="I486" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J486" s="3"/>
+      <c r="K486" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>9</v>
       </c>
@@ -17084,8 +19701,12 @@
       <c r="I487" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J487" s="3"/>
+      <c r="K487" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>9</v>
       </c>
@@ -17113,8 +19734,12 @@
       <c r="I488" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J488" s="3"/>
+      <c r="K488" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>9</v>
       </c>
@@ -17142,8 +19767,12 @@
       <c r="I489" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J489" s="3"/>
+      <c r="K489" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>9</v>
       </c>
@@ -17171,8 +19800,12 @@
       <c r="I490" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J490" s="3"/>
+      <c r="K490" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>9</v>
       </c>
@@ -17200,8 +19833,12 @@
       <c r="I491" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J491" s="3"/>
+      <c r="K491" s="3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>9</v>
       </c>
@@ -17229,8 +19866,12 @@
       <c r="I492" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J492" s="3"/>
+      <c r="K492" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>9</v>
       </c>
@@ -17258,8 +19899,12 @@
       <c r="I493" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J493" s="3"/>
+      <c r="K493" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>9</v>
       </c>
@@ -17287,8 +19932,12 @@
       <c r="I494" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J494" s="3"/>
+      <c r="K494" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>9</v>
       </c>
@@ -17316,8 +19965,12 @@
       <c r="I495" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J495" s="3"/>
+      <c r="K495" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>9</v>
       </c>
@@ -17345,8 +19998,12 @@
       <c r="I496" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J496" s="3"/>
+      <c r="K496" s="3" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>9</v>
       </c>
@@ -17374,8 +20031,12 @@
       <c r="I497" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J497" s="3"/>
+      <c r="K497" s="3" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>9</v>
       </c>
@@ -17403,8 +20064,12 @@
       <c r="I498" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J498" s="3"/>
+      <c r="K498" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>9</v>
       </c>
@@ -17432,8 +20097,12 @@
       <c r="I499" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J499" s="3"/>
+      <c r="K499" s="3" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>9</v>
       </c>
@@ -17461,8 +20130,12 @@
       <c r="I500" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J500" s="3"/>
+      <c r="K500" s="3" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>9</v>
       </c>
@@ -17490,8 +20163,12 @@
       <c r="I501" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J501" s="3"/>
+      <c r="K501" s="3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>9</v>
       </c>
@@ -17519,8 +20196,12 @@
       <c r="I502" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J502" s="3"/>
+      <c r="K502" s="3" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>9</v>
       </c>
@@ -17548,8 +20229,12 @@
       <c r="I503" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J503" s="3"/>
+      <c r="K503" s="3" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>9</v>
       </c>
@@ -17577,8 +20262,12 @@
       <c r="I504" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J504" s="3"/>
+      <c r="K504" s="3" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>9</v>
       </c>
@@ -17606,8 +20295,12 @@
       <c r="I505" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J505" s="3"/>
+      <c r="K505" s="3" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>9</v>
       </c>
@@ -17635,8 +20328,12 @@
       <c r="I506" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J506" s="3"/>
+      <c r="K506" s="3" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>9</v>
       </c>
@@ -17664,8 +20361,12 @@
       <c r="I507" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J507" s="3"/>
+      <c r="K507" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>9</v>
       </c>
@@ -17693,8 +20394,12 @@
       <c r="I508" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J508" s="3"/>
+      <c r="K508" s="3" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>9</v>
       </c>
@@ -17722,8 +20427,11 @@
       <c r="I509" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K509" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>9</v>
       </c>
@@ -17751,8 +20459,11 @@
       <c r="I510" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K510" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>9</v>
       </c>
@@ -17780,8 +20491,11 @@
       <c r="I511" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K511" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>9</v>
       </c>
@@ -17809,8 +20523,11 @@
       <c r="I512" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K512" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>9</v>
       </c>
@@ -17838,8 +20555,11 @@
       <c r="I513" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K513" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>9</v>
       </c>
@@ -17867,8 +20587,11 @@
       <c r="I514" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K514" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>9</v>
       </c>
@@ -17896,8 +20619,11 @@
       <c r="I515" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K515" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>9</v>
       </c>
@@ -17925,8 +20651,11 @@
       <c r="I516" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K516" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>9</v>
       </c>
@@ -17954,8 +20683,11 @@
       <c r="I517" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K517" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>9</v>
       </c>
@@ -17983,8 +20715,11 @@
       <c r="I518" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K518" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>9</v>
       </c>
@@ -18012,8 +20747,11 @@
       <c r="I519" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K519" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>9</v>
       </c>
@@ -18041,8 +20779,11 @@
       <c r="I520" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K520" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>9</v>
       </c>
@@ -18070,8 +20811,11 @@
       <c r="I521" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K521" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>9</v>
       </c>
@@ -18098,6 +20842,9 @@
       </c>
       <c r="I522" t="s">
         <v>4</v>
+      </c>
+      <c r="K522" t="s">
+        <v>1140</v>
       </c>
     </row>
   </sheetData>

--- a/Culture.xlsx
+++ b/Culture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iWeber\source\repos\MiBand5WatchFacesGithubRelease\MiBand-5-watchface-editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDEE012-4333-47EE-832D-DA0BED74C839}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EC6F55C-D1E5-45F4-AC4B-DF95887FAB6A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="38400" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="38400" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResXResourceManager" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5141" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5147" uniqueCount="1142">
   <si>
     <t>Project</t>
   </si>
@@ -2723,18 +2723,6 @@
     <t>Definições</t>
   </si>
   <si>
-    <t>Defenir Watchface</t>
-  </si>
-  <si>
-    <t>Controlos</t>
-  </si>
-  <si>
-    <t>Renderizar</t>
-  </si>
-  <si>
-    <t>Editar</t>
-  </si>
-  <si>
     <t>Remover</t>
   </si>
   <si>
@@ -2765,9 +2753,6 @@
     <t>Passos</t>
   </si>
   <si>
-    <t xml:space="preserve">   Passos</t>
-  </si>
-  <si>
     <t>Adicionar Calorias</t>
   </si>
   <si>
@@ -2807,9 +2792,6 @@
     <t>Adicionar distancia</t>
   </si>
   <si>
-    <t xml:space="preserve"> Distancia</t>
-  </si>
-  <si>
     <t>Distancia</t>
   </si>
   <si>
@@ -2981,15 +2963,6 @@
     <t>Posição</t>
   </si>
   <si>
-    <t>Selecionar Imagems</t>
-  </si>
-  <si>
-    <t>Apagar imagen</t>
-  </si>
-  <si>
-    <t>Adicionar imagem com numero</t>
-  </si>
-  <si>
     <t>Desmarcar todos</t>
   </si>
   <si>
@@ -3002,9 +2975,6 @@
     <t>Editar imagem</t>
   </si>
   <si>
-    <t>Selecionar imagens</t>
-  </si>
-  <si>
     <t>Tamanho:</t>
   </si>
   <si>
@@ -3119,9 +3089,6 @@
     <t>Não incomodar</t>
   </si>
   <si>
-    <t>Bloqueado</t>
-  </si>
-  <si>
     <t>Qualidade do AR</t>
   </si>
   <si>
@@ -3173,18 +3140,12 @@
     <t>Adicionar imagem Menos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Noite</t>
-  </si>
-  <si>
     <t>Adicionar imagem graus</t>
   </si>
   <si>
     <t>Adicionar imagem menos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dia</t>
-  </si>
-  <si>
     <t>Separado</t>
   </si>
   <si>
@@ -3410,15 +3371,6 @@
     <t>Editor JSON</t>
   </si>
   <si>
-    <t>O item seleccionado será eliminado irremediavelmente.</t>
-  </si>
-  <si>
-    <t>Tem a certeza?</t>
-  </si>
-  <si>
-    <t>Erro!</t>
-  </si>
-  <si>
     <t>Erro gerar pré-visualização!</t>
   </si>
   <si>
@@ -3447,6 +3399,57 @@
   </si>
   <si>
     <t>Completo</t>
+  </si>
+  <si>
+    <t>Acrescentar dia</t>
+  </si>
+  <si>
+    <t>Pré-visualização</t>
+  </si>
+  <si>
+    <t>Imóveis</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Salvar</t>
+  </si>
+  <si>
+    <t>Seleccionar imagens</t>
+  </si>
+  <si>
+    <t>Apagar imagem</t>
+  </si>
+  <si>
+    <t>Adicionar imagem com número</t>
+  </si>
+  <si>
+    <t>Editor do JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Passos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Distancia</t>
+  </si>
+  <si>
+    <t>Opcional</t>
+  </si>
+  <si>
+    <t>Redraw</t>
+  </si>
+  <si>
+    <t>Alterar</t>
+  </si>
+  <si>
+    <t>Bloqueio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Noite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Dia</t>
   </si>
 </sst>
 </file>
@@ -3482,13 +3485,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -3810,8 +3816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="I501" sqref="I501"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="C419" sqref="C419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3822,9 +3828,9 @@
     <col min="5" max="5" width="33.140625" customWidth="1"/>
     <col min="6" max="6" width="0.42578125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0.28515625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3892,7 +3898,7 @@
         <v>757</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>859</v>
       </c>
     </row>
@@ -3925,7 +3931,7 @@
         <v>758</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>860</v>
       </c>
     </row>
@@ -3958,7 +3964,7 @@
         <v>759</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>861</v>
       </c>
     </row>
@@ -3991,7 +3997,7 @@
         <v>79</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>862</v>
       </c>
     </row>
@@ -4024,7 +4030,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>863</v>
       </c>
     </row>
@@ -4057,7 +4063,7 @@
         <v>761</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>864</v>
       </c>
     </row>
@@ -4090,7 +4096,7 @@
         <v>760</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>865</v>
       </c>
     </row>
@@ -4123,7 +4129,7 @@
         <v>762</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>866</v>
       </c>
     </row>
@@ -4156,7 +4162,7 @@
         <v>763</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>867</v>
       </c>
     </row>
@@ -4189,7 +4195,7 @@
         <v>134</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>868</v>
       </c>
     </row>
@@ -4222,7 +4228,7 @@
         <v>32</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>869</v>
       </c>
     </row>
@@ -4255,7 +4261,7 @@
         <v>35</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>870</v>
       </c>
     </row>
@@ -4288,7 +4294,9 @@
         <v>37</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4319,7 +4327,7 @@
         <v>764</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>871</v>
       </c>
     </row>
@@ -4352,7 +4360,7 @@
         <v>765</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>872</v>
       </c>
     </row>
@@ -4385,7 +4393,7 @@
         <v>43</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>873</v>
       </c>
     </row>
@@ -4418,7 +4426,7 @@
         <v>45</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>874</v>
       </c>
     </row>
@@ -4451,7 +4459,7 @@
         <v>47</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="4" t="s">
         <v>875</v>
       </c>
     </row>
@@ -4484,7 +4492,7 @@
         <v>49</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="4" t="s">
         <v>876</v>
       </c>
     </row>
@@ -4517,7 +4525,7 @@
         <v>51</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="4" t="s">
         <v>877</v>
       </c>
     </row>
@@ -4550,7 +4558,7 @@
         <v>53</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="4" t="s">
         <v>878</v>
       </c>
     </row>
@@ -4583,7 +4591,7 @@
         <v>55</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="4" t="s">
         <v>879</v>
       </c>
     </row>
@@ -4616,7 +4624,7 @@
         <v>57</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="4" t="s">
         <v>880</v>
       </c>
     </row>
@@ -4649,7 +4657,7 @@
         <v>59</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="4" t="s">
         <v>881</v>
       </c>
     </row>
@@ -4682,7 +4690,7 @@
         <v>61</v>
       </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="4" t="s">
         <v>882</v>
       </c>
     </row>
@@ -4715,7 +4723,7 @@
         <v>63</v>
       </c>
       <c r="J27" s="3"/>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="4" t="s">
         <v>883</v>
       </c>
     </row>
@@ -4748,7 +4756,7 @@
         <v>65</v>
       </c>
       <c r="J28" s="3"/>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="4" t="s">
         <v>884</v>
       </c>
     </row>
@@ -4781,7 +4789,7 @@
         <v>67</v>
       </c>
       <c r="J29" s="3"/>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="4" t="s">
         <v>885</v>
       </c>
     </row>
@@ -4814,7 +4822,7 @@
         <v>69</v>
       </c>
       <c r="J30" s="3"/>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="4" t="s">
         <v>886</v>
       </c>
     </row>
@@ -4847,7 +4855,7 @@
         <v>71</v>
       </c>
       <c r="J31" s="3"/>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="4" t="s">
         <v>887</v>
       </c>
     </row>
@@ -4880,7 +4888,7 @@
         <v>74</v>
       </c>
       <c r="J32" s="3"/>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="4" t="s">
         <v>888</v>
       </c>
     </row>
@@ -4913,7 +4921,7 @@
         <v>77</v>
       </c>
       <c r="J33" s="3"/>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="4" t="s">
         <v>889</v>
       </c>
     </row>
@@ -4946,7 +4954,7 @@
         <v>79</v>
       </c>
       <c r="J34" s="3"/>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="4" t="s">
         <v>862</v>
       </c>
     </row>
@@ -4979,7 +4987,7 @@
         <v>81</v>
       </c>
       <c r="J35" s="3"/>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="4" t="s">
         <v>890</v>
       </c>
     </row>
@@ -5012,7 +5020,7 @@
         <v>84</v>
       </c>
       <c r="J36" s="3"/>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="4" t="s">
         <v>891</v>
       </c>
     </row>
@@ -5045,7 +5053,7 @@
         <v>87</v>
       </c>
       <c r="J37" s="3"/>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="4" t="s">
         <v>892</v>
       </c>
     </row>
@@ -5078,7 +5086,7 @@
         <v>90</v>
       </c>
       <c r="J38" s="3"/>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="4" t="s">
         <v>893</v>
       </c>
     </row>
@@ -5111,7 +5119,7 @@
         <v>93</v>
       </c>
       <c r="J39" s="3"/>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="4" t="s">
         <v>894</v>
       </c>
     </row>
@@ -5144,7 +5152,7 @@
         <v>96</v>
       </c>
       <c r="J40" s="3"/>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="4" t="s">
         <v>895</v>
       </c>
     </row>
@@ -5177,7 +5185,7 @@
         <v>99</v>
       </c>
       <c r="J41" s="3"/>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="4" t="s">
         <v>896</v>
       </c>
     </row>
@@ -5210,7 +5218,7 @@
         <v>102</v>
       </c>
       <c r="J42" s="3"/>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="4" t="s">
         <v>897</v>
       </c>
     </row>
@@ -5243,7 +5251,7 @@
         <v>105</v>
       </c>
       <c r="J43" s="3"/>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="4" t="s">
         <v>898</v>
       </c>
     </row>
@@ -5276,7 +5284,9 @@
         <v>107</v>
       </c>
       <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
+      <c r="K44" s="4" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -5307,8 +5317,8 @@
         <v>109</v>
       </c>
       <c r="J45" s="3"/>
-      <c r="K45" s="3" t="s">
-        <v>899</v>
+      <c r="K45" s="4" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -5340,8 +5350,8 @@
         <v>112</v>
       </c>
       <c r="J46" s="3"/>
-      <c r="K46" s="3" t="s">
-        <v>900</v>
+      <c r="K46" s="4" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -5373,8 +5383,8 @@
         <v>115</v>
       </c>
       <c r="J47" s="3"/>
-      <c r="K47" s="3" t="s">
-        <v>901</v>
+      <c r="K47" s="4" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -5406,8 +5416,8 @@
         <v>766</v>
       </c>
       <c r="J48" s="3"/>
-      <c r="K48" s="3" t="s">
-        <v>902</v>
+      <c r="K48" s="4" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -5439,9 +5449,7 @@
         <v>4</v>
       </c>
       <c r="J49" s="3"/>
-      <c r="K49" s="3" t="s">
-        <v>903</v>
-      </c>
+      <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -5472,7 +5480,7 @@
         <v>122</v>
       </c>
       <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
+      <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -5503,7 +5511,9 @@
         <v>125</v>
       </c>
       <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
+      <c r="K51" s="4" t="s">
+        <v>1136</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -5534,8 +5544,8 @@
         <v>128</v>
       </c>
       <c r="J52" s="3"/>
-      <c r="K52" s="3" t="s">
-        <v>904</v>
+      <c r="K52" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -5567,8 +5577,8 @@
         <v>131</v>
       </c>
       <c r="J53" s="3"/>
-      <c r="K53" s="3" t="s">
-        <v>905</v>
+      <c r="K53" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -5600,8 +5610,8 @@
         <v>134</v>
       </c>
       <c r="J54" s="3"/>
-      <c r="K54" s="3" t="s">
-        <v>906</v>
+      <c r="K54" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -5633,9 +5643,6 @@
         <v>4</v>
       </c>
       <c r="J55" s="3"/>
-      <c r="K55" s="3" t="s">
-        <v>907</v>
-      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -5666,8 +5673,8 @@
         <v>137</v>
       </c>
       <c r="J56" s="3"/>
-      <c r="K56" s="3" t="s">
-        <v>908</v>
+      <c r="K56" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -5699,8 +5706,8 @@
         <v>767</v>
       </c>
       <c r="J57" s="3"/>
-      <c r="K57" s="3" t="s">
-        <v>909</v>
+      <c r="K57" s="4" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -5732,8 +5739,8 @@
         <v>768</v>
       </c>
       <c r="J58" s="3"/>
-      <c r="K58" s="3" t="s">
-        <v>910</v>
+      <c r="K58" s="4" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -5765,8 +5772,8 @@
         <v>769</v>
       </c>
       <c r="J59" s="3"/>
-      <c r="K59" s="3" t="s">
-        <v>911</v>
+      <c r="K59" s="4" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -5798,8 +5805,8 @@
         <v>770</v>
       </c>
       <c r="J60" s="3"/>
-      <c r="K60" s="3" t="s">
-        <v>912</v>
+      <c r="K60" s="4" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -5831,8 +5838,8 @@
         <v>771</v>
       </c>
       <c r="J61" s="3"/>
-      <c r="K61" s="3" t="s">
-        <v>913</v>
+      <c r="K61" s="4" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -5864,8 +5871,8 @@
         <v>767</v>
       </c>
       <c r="J62" s="3"/>
-      <c r="K62" s="3" t="s">
-        <v>909</v>
+      <c r="K62" s="4" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -5897,8 +5904,8 @@
         <v>768</v>
       </c>
       <c r="J63" s="3"/>
-      <c r="K63" s="3" t="s">
-        <v>910</v>
+      <c r="K63" s="4" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -5930,8 +5937,8 @@
         <v>772</v>
       </c>
       <c r="J64" s="3"/>
-      <c r="K64" s="3" t="s">
-        <v>914</v>
+      <c r="K64" s="4" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -5963,8 +5970,8 @@
         <v>773</v>
       </c>
       <c r="J65" s="3"/>
-      <c r="K65" s="3" t="s">
-        <v>915</v>
+      <c r="K65" s="4" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -5996,8 +6003,8 @@
         <v>774</v>
       </c>
       <c r="J66" s="3"/>
-      <c r="K66" s="3" t="s">
-        <v>916</v>
+      <c r="K66" s="4" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -6029,8 +6036,8 @@
         <v>775</v>
       </c>
       <c r="J67" s="3"/>
-      <c r="K67" s="3" t="s">
-        <v>917</v>
+      <c r="K67" s="4" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -6062,8 +6069,8 @@
         <v>767</v>
       </c>
       <c r="J68" s="3"/>
-      <c r="K68" s="3" t="s">
-        <v>909</v>
+      <c r="K68" s="4" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -6095,8 +6102,8 @@
         <v>768</v>
       </c>
       <c r="J69" s="3"/>
-      <c r="K69" s="3" t="s">
-        <v>910</v>
+      <c r="K69" s="4" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -6128,8 +6135,8 @@
         <v>776</v>
       </c>
       <c r="J70" s="3"/>
-      <c r="K70" s="3" t="s">
-        <v>918</v>
+      <c r="K70" s="4" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -6161,8 +6168,8 @@
         <v>777</v>
       </c>
       <c r="J71" s="3"/>
-      <c r="K71" s="3" t="s">
-        <v>919</v>
+      <c r="K71" s="4" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -6194,8 +6201,8 @@
         <v>778</v>
       </c>
       <c r="J72" s="3"/>
-      <c r="K72" s="3" t="s">
-        <v>920</v>
+      <c r="K72" s="4" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -6227,8 +6234,8 @@
         <v>779</v>
       </c>
       <c r="J73" s="3"/>
-      <c r="K73" s="3" t="s">
-        <v>921</v>
+      <c r="K73" s="4" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -6260,8 +6267,8 @@
         <v>780</v>
       </c>
       <c r="J74" s="3"/>
-      <c r="K74" s="3" t="s">
-        <v>922</v>
+      <c r="K74" s="4" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -6293,8 +6300,8 @@
         <v>781</v>
       </c>
       <c r="J75" s="3"/>
-      <c r="K75" s="3" t="s">
-        <v>923</v>
+      <c r="K75" s="4" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -6326,8 +6333,8 @@
         <v>782</v>
       </c>
       <c r="J76" s="3"/>
-      <c r="K76" s="3" t="s">
-        <v>924</v>
+      <c r="K76" s="4" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -6359,8 +6366,8 @@
         <v>783</v>
       </c>
       <c r="J77" s="3"/>
-      <c r="K77" s="3" t="s">
-        <v>925</v>
+      <c r="K77" s="4" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -6392,8 +6399,8 @@
         <v>784</v>
       </c>
       <c r="J78" s="3"/>
-      <c r="K78" s="3" t="s">
-        <v>926</v>
+      <c r="K78" s="4" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -6425,8 +6432,8 @@
         <v>785</v>
       </c>
       <c r="J79" s="3"/>
-      <c r="K79" s="3" t="s">
-        <v>927</v>
+      <c r="K79" s="4" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -6458,8 +6465,8 @@
         <v>786</v>
       </c>
       <c r="J80" s="3"/>
-      <c r="K80" s="3" t="s">
-        <v>928</v>
+      <c r="K80" s="4" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -6491,8 +6498,8 @@
         <v>787</v>
       </c>
       <c r="J81" s="3"/>
-      <c r="K81" s="3" t="s">
-        <v>929</v>
+      <c r="K81" s="4" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -6524,7 +6531,9 @@
         <v>185</v>
       </c>
       <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
+      <c r="K82" s="4" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -6555,7 +6564,9 @@
         <v>187</v>
       </c>
       <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
+      <c r="K83" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -6586,7 +6597,7 @@
         <v>79</v>
       </c>
       <c r="J84" s="3"/>
-      <c r="K84" s="3" t="s">
+      <c r="K84" s="4" t="s">
         <v>862</v>
       </c>
     </row>
@@ -6619,7 +6630,7 @@
         <v>788</v>
       </c>
       <c r="J85" s="3"/>
-      <c r="K85" s="3" t="s">
+      <c r="K85" s="4" t="s">
         <v>875</v>
       </c>
     </row>
@@ -6652,7 +6663,7 @@
         <v>79</v>
       </c>
       <c r="J86" s="3"/>
-      <c r="K86" s="3" t="s">
+      <c r="K86" s="4" t="s">
         <v>862</v>
       </c>
     </row>
@@ -6685,8 +6696,8 @@
         <v>816</v>
       </c>
       <c r="J87" s="3"/>
-      <c r="K87" s="3" t="s">
-        <v>930</v>
+      <c r="K87" s="4" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -6718,8 +6729,8 @@
         <v>789</v>
       </c>
       <c r="J88" s="3"/>
-      <c r="K88" s="3" t="s">
-        <v>931</v>
+      <c r="K88" s="4" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -6751,8 +6762,8 @@
         <v>790</v>
       </c>
       <c r="J89" s="3"/>
-      <c r="K89" s="3" t="s">
-        <v>932</v>
+      <c r="K89" s="4" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -6784,8 +6795,8 @@
         <v>791</v>
       </c>
       <c r="J90" s="3"/>
-      <c r="K90" s="3" t="s">
-        <v>933</v>
+      <c r="K90" s="4" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -6817,8 +6828,8 @@
         <v>792</v>
       </c>
       <c r="J91" s="3"/>
-      <c r="K91" s="3" t="s">
-        <v>934</v>
+      <c r="K91" s="4" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -6850,7 +6861,7 @@
         <v>763</v>
       </c>
       <c r="J92" s="3"/>
-      <c r="K92" s="3" t="s">
+      <c r="K92" s="4" t="s">
         <v>867</v>
       </c>
     </row>
@@ -6883,7 +6894,7 @@
         <v>793</v>
       </c>
       <c r="J93" s="3"/>
-      <c r="K93" s="3" t="s">
+      <c r="K93" s="4" t="s">
         <v>886</v>
       </c>
     </row>
@@ -6916,7 +6927,7 @@
         <v>79</v>
       </c>
       <c r="J94" s="3"/>
-      <c r="K94" s="3" t="s">
+      <c r="K94" s="4" t="s">
         <v>862</v>
       </c>
     </row>
@@ -6949,7 +6960,9 @@
         <v>794</v>
       </c>
       <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
+      <c r="K95" s="4" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -6980,7 +6993,7 @@
         <v>762</v>
       </c>
       <c r="J96" s="3"/>
-      <c r="K96" s="3" t="s">
+      <c r="K96" s="4" t="s">
         <v>866</v>
       </c>
     </row>
@@ -7013,8 +7026,8 @@
         <v>795</v>
       </c>
       <c r="J97" s="3"/>
-      <c r="K97" s="3" t="s">
-        <v>935</v>
+      <c r="K97" s="4" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -7046,8 +7059,8 @@
         <v>796</v>
       </c>
       <c r="J98" s="3"/>
-      <c r="K98" s="3" t="s">
-        <v>936</v>
+      <c r="K98" s="4" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -7079,7 +7092,7 @@
         <v>758</v>
       </c>
       <c r="J99" s="3"/>
-      <c r="K99" s="3" t="s">
+      <c r="K99" s="4" t="s">
         <v>860</v>
       </c>
     </row>
@@ -7112,7 +7125,7 @@
         <v>763</v>
       </c>
       <c r="J100" s="3"/>
-      <c r="K100" s="3" t="s">
+      <c r="K100" s="4" t="s">
         <v>867</v>
       </c>
     </row>
@@ -7145,7 +7158,7 @@
         <v>4</v>
       </c>
       <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
+      <c r="K101" s="4"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -7176,8 +7189,8 @@
         <v>797</v>
       </c>
       <c r="J102" s="3"/>
-      <c r="K102" s="3" t="s">
-        <v>937</v>
+      <c r="K102" s="4" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -7209,7 +7222,9 @@
         <v>794</v>
       </c>
       <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
+      <c r="K103" s="4" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -7240,7 +7255,7 @@
         <v>762</v>
       </c>
       <c r="J104" s="3"/>
-      <c r="K104" s="3" t="s">
+      <c r="K104" s="4" t="s">
         <v>866</v>
       </c>
     </row>
@@ -7273,8 +7288,8 @@
         <v>795</v>
       </c>
       <c r="J105" s="3"/>
-      <c r="K105" s="3" t="s">
-        <v>935</v>
+      <c r="K105" s="4" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -7306,8 +7321,8 @@
         <v>796</v>
       </c>
       <c r="J106" s="3"/>
-      <c r="K106" s="3" t="s">
-        <v>936</v>
+      <c r="K106" s="4" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -7339,7 +7354,7 @@
         <v>758</v>
       </c>
       <c r="J107" s="3"/>
-      <c r="K107" s="3" t="s">
+      <c r="K107" s="4" t="s">
         <v>860</v>
       </c>
     </row>
@@ -7372,7 +7387,7 @@
         <v>763</v>
       </c>
       <c r="J108" s="3"/>
-      <c r="K108" s="3" t="s">
+      <c r="K108" s="4" t="s">
         <v>867</v>
       </c>
     </row>
@@ -7405,7 +7420,7 @@
         <v>4</v>
       </c>
       <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
+      <c r="K109" s="4"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -7436,8 +7451,8 @@
         <v>798</v>
       </c>
       <c r="J110" s="3"/>
-      <c r="K110" s="3" t="s">
-        <v>938</v>
+      <c r="K110" s="4" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -7469,7 +7484,7 @@
         <v>217</v>
       </c>
       <c r="J111" s="3"/>
-      <c r="K111" s="3" t="s">
+      <c r="K111" s="4" t="s">
         <v>881</v>
       </c>
     </row>
@@ -7502,8 +7517,8 @@
         <v>799</v>
       </c>
       <c r="J112" s="3"/>
-      <c r="K112" s="3" t="s">
-        <v>939</v>
+      <c r="K112" s="4" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -7535,8 +7550,8 @@
         <v>134</v>
       </c>
       <c r="J113" s="3"/>
-      <c r="K113" s="3" t="s">
-        <v>903</v>
+      <c r="K113" s="4" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -7568,8 +7583,8 @@
         <v>800</v>
       </c>
       <c r="J114" s="3"/>
-      <c r="K114" s="3" t="s">
-        <v>940</v>
+      <c r="K114" s="4" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -7601,8 +7616,8 @@
         <v>801</v>
       </c>
       <c r="J115" s="3"/>
-      <c r="K115" s="3" t="s">
-        <v>941</v>
+      <c r="K115" s="4" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -7634,8 +7649,8 @@
         <v>802</v>
       </c>
       <c r="J116" s="3"/>
-      <c r="K116" s="3" t="s">
-        <v>942</v>
+      <c r="K116" s="4" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -7667,7 +7682,7 @@
         <v>803</v>
       </c>
       <c r="J117" s="3"/>
-      <c r="K117" s="3" t="s">
+      <c r="K117" s="4" t="s">
         <v>882</v>
       </c>
     </row>
@@ -7700,7 +7715,7 @@
         <v>79</v>
       </c>
       <c r="J118" s="3"/>
-      <c r="K118" s="3" t="s">
+      <c r="K118" s="4" t="s">
         <v>862</v>
       </c>
     </row>
@@ -7733,7 +7748,7 @@
         <v>61</v>
       </c>
       <c r="J119" s="3"/>
-      <c r="K119" s="3" t="s">
+      <c r="K119" s="4" t="s">
         <v>882</v>
       </c>
     </row>
@@ -7766,7 +7781,7 @@
         <v>79</v>
       </c>
       <c r="J120" s="3"/>
-      <c r="K120" s="3" t="s">
+      <c r="K120" s="4" t="s">
         <v>862</v>
       </c>
     </row>
@@ -7799,8 +7814,8 @@
         <v>804</v>
       </c>
       <c r="J121" s="3"/>
-      <c r="K121" s="3" t="s">
-        <v>943</v>
+      <c r="K121" s="4" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -7832,8 +7847,8 @@
         <v>805</v>
       </c>
       <c r="J122" s="3"/>
-      <c r="K122" s="3" t="s">
-        <v>944</v>
+      <c r="K122" s="4" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -7865,8 +7880,8 @@
         <v>806</v>
       </c>
       <c r="J123" s="3"/>
-      <c r="K123" s="3" t="s">
-        <v>945</v>
+      <c r="K123" s="4" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -7898,7 +7913,7 @@
         <v>807</v>
       </c>
       <c r="J124" s="3"/>
-      <c r="K124" s="3" t="s">
+      <c r="K124" s="4" t="s">
         <v>868</v>
       </c>
     </row>
@@ -7931,8 +7946,8 @@
         <v>808</v>
       </c>
       <c r="J125" s="3"/>
-      <c r="K125" s="3" t="s">
-        <v>946</v>
+      <c r="K125" s="4" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -7964,8 +7979,8 @@
         <v>809</v>
       </c>
       <c r="J126" s="3"/>
-      <c r="K126" s="3" t="s">
-        <v>947</v>
+      <c r="K126" s="4" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -7997,8 +8012,8 @@
         <v>810</v>
       </c>
       <c r="J127" s="3"/>
-      <c r="K127" s="3" t="s">
-        <v>948</v>
+      <c r="K127" s="4" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -8030,7 +8045,7 @@
         <v>134</v>
       </c>
       <c r="J128" s="3"/>
-      <c r="K128" s="3" t="s">
+      <c r="K128" s="4" t="s">
         <v>868</v>
       </c>
     </row>
@@ -8063,8 +8078,8 @@
         <v>242</v>
       </c>
       <c r="J129" s="3"/>
-      <c r="K129" s="3" t="s">
-        <v>949</v>
+      <c r="K129" s="4" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -8096,8 +8111,8 @@
         <v>811</v>
       </c>
       <c r="J130" s="3"/>
-      <c r="K130" s="3" t="s">
-        <v>950</v>
+      <c r="K130" s="4" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -8129,8 +8144,8 @@
         <v>812</v>
       </c>
       <c r="J131" s="3"/>
-      <c r="K131" s="3" t="s">
-        <v>951</v>
+      <c r="K131" s="4" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -8162,8 +8177,8 @@
         <v>813</v>
       </c>
       <c r="J132" s="3"/>
-      <c r="K132" s="3" t="s">
-        <v>952</v>
+      <c r="K132" s="4" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -8195,7 +8210,7 @@
         <v>250</v>
       </c>
       <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
+      <c r="K133" s="4"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -8226,7 +8241,7 @@
         <v>251</v>
       </c>
       <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
+      <c r="K134" s="4"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -8257,8 +8272,8 @@
         <v>814</v>
       </c>
       <c r="J135" s="3"/>
-      <c r="K135" s="3" t="s">
-        <v>953</v>
+      <c r="K135" s="4" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -8290,7 +8305,7 @@
         <v>84</v>
       </c>
       <c r="J136" s="3"/>
-      <c r="K136" s="3" t="s">
+      <c r="K136" s="4" t="s">
         <v>891</v>
       </c>
     </row>
@@ -8320,7 +8335,7 @@
         <v>79</v>
       </c>
       <c r="J137" s="3"/>
-      <c r="K137" s="3" t="s">
+      <c r="K137" s="4" t="s">
         <v>862</v>
       </c>
     </row>
@@ -8353,8 +8368,8 @@
         <v>254</v>
       </c>
       <c r="J138" s="3"/>
-      <c r="K138" s="3" t="s">
-        <v>954</v>
+      <c r="K138" s="4" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -8386,8 +8401,8 @@
         <v>255</v>
       </c>
       <c r="J139" s="3"/>
-      <c r="K139" s="3" t="s">
-        <v>955</v>
+      <c r="K139" s="4" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -8419,8 +8434,8 @@
         <v>256</v>
       </c>
       <c r="J140" s="3"/>
-      <c r="K140" s="3" t="s">
-        <v>956</v>
+      <c r="K140" s="4" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -8452,8 +8467,8 @@
         <v>815</v>
       </c>
       <c r="J141" s="3"/>
-      <c r="K141" s="3" t="s">
-        <v>957</v>
+      <c r="K141" s="4" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -8485,7 +8500,7 @@
         <v>43</v>
       </c>
       <c r="J142" s="3"/>
-      <c r="K142" s="3" t="s">
+      <c r="K142" s="4" t="s">
         <v>873</v>
       </c>
     </row>
@@ -8518,8 +8533,8 @@
         <v>767</v>
       </c>
       <c r="J143" s="3"/>
-      <c r="K143" s="3" t="s">
-        <v>958</v>
+      <c r="K143" s="4" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -8551,8 +8566,8 @@
         <v>768</v>
       </c>
       <c r="J144" s="3"/>
-      <c r="K144" s="3" t="s">
-        <v>959</v>
+      <c r="K144" s="4" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -8584,8 +8599,8 @@
         <v>816</v>
       </c>
       <c r="J145" s="3"/>
-      <c r="K145" s="3" t="s">
-        <v>930</v>
+      <c r="K145" s="4" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -8617,7 +8632,7 @@
         <v>4</v>
       </c>
       <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
+      <c r="K146" s="4"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
@@ -8648,8 +8663,8 @@
         <v>817</v>
       </c>
       <c r="J147" s="3"/>
-      <c r="K147" s="3" t="s">
-        <v>960</v>
+      <c r="K147" s="4" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -8681,8 +8696,8 @@
         <v>818</v>
       </c>
       <c r="J148" s="3"/>
-      <c r="K148" s="3" t="s">
-        <v>961</v>
+      <c r="K148" s="4" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -8714,7 +8729,7 @@
         <v>4</v>
       </c>
       <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
+      <c r="K149" s="4"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
@@ -8745,8 +8760,8 @@
         <v>819</v>
       </c>
       <c r="J150" s="3"/>
-      <c r="K150" s="3" t="s">
-        <v>962</v>
+      <c r="K150" s="4" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -8778,8 +8793,8 @@
         <v>818</v>
       </c>
       <c r="J151" s="3"/>
-      <c r="K151" s="3" t="s">
-        <v>961</v>
+      <c r="K151" s="4" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -8811,7 +8826,7 @@
         <v>4</v>
       </c>
       <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
+      <c r="K152" s="4"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
@@ -8842,7 +8857,7 @@
         <v>270</v>
       </c>
       <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
+      <c r="K153" s="4"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
@@ -8873,7 +8888,7 @@
         <v>79</v>
       </c>
       <c r="J154" s="3"/>
-      <c r="K154" s="3" t="s">
+      <c r="K154" s="4" t="s">
         <v>862</v>
       </c>
     </row>
@@ -8906,7 +8921,7 @@
         <v>57</v>
       </c>
       <c r="J155" s="3"/>
-      <c r="K155" s="3" t="s">
+      <c r="K155" s="4" t="s">
         <v>880</v>
       </c>
     </row>
@@ -8939,8 +8954,8 @@
         <v>820</v>
       </c>
       <c r="J156" s="3"/>
-      <c r="K156" s="3" t="s">
-        <v>963</v>
+      <c r="K156" s="4" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -8972,8 +8987,8 @@
         <v>821</v>
       </c>
       <c r="J157" s="3"/>
-      <c r="K157" s="3" t="s">
-        <v>964</v>
+      <c r="K157" s="4" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -9005,8 +9020,8 @@
         <v>822</v>
       </c>
       <c r="J158" s="3"/>
-      <c r="K158" s="3" t="s">
-        <v>965</v>
+      <c r="K158" s="4" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -9038,8 +9053,8 @@
         <v>823</v>
       </c>
       <c r="J159" s="3"/>
-      <c r="K159" s="3" t="s">
-        <v>966</v>
+      <c r="K159" s="4" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -9071,8 +9086,8 @@
         <v>824</v>
       </c>
       <c r="J160" s="3"/>
-      <c r="K160" s="3" t="s">
-        <v>967</v>
+      <c r="K160" s="4" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -9104,7 +9119,7 @@
         <v>4</v>
       </c>
       <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
+      <c r="K161" s="4"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -9135,8 +9150,8 @@
         <v>283</v>
       </c>
       <c r="J162" s="3"/>
-      <c r="K162" s="3" t="s">
-        <v>968</v>
+      <c r="K162" s="4" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -9168,8 +9183,8 @@
         <v>826</v>
       </c>
       <c r="J163" s="3"/>
-      <c r="K163" s="3" t="s">
-        <v>969</v>
+      <c r="K163" s="4" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -9201,8 +9216,8 @@
         <v>825</v>
       </c>
       <c r="J164" s="3"/>
-      <c r="K164" s="3" t="s">
-        <v>970</v>
+      <c r="K164" s="4" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -9234,7 +9249,7 @@
         <v>4</v>
       </c>
       <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
+      <c r="K165" s="4"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
@@ -9265,8 +9280,8 @@
         <v>289</v>
       </c>
       <c r="J166" s="3"/>
-      <c r="K166" s="3" t="s">
-        <v>971</v>
+      <c r="K166" s="4" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -9298,8 +9313,8 @@
         <v>826</v>
       </c>
       <c r="J167" s="3"/>
-      <c r="K167" s="3" t="s">
-        <v>972</v>
+      <c r="K167" s="4" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -9331,8 +9346,8 @@
         <v>827</v>
       </c>
       <c r="J168" s="3"/>
-      <c r="K168" s="3" t="s">
-        <v>973</v>
+      <c r="K168" s="4" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -9364,7 +9379,7 @@
         <v>4</v>
       </c>
       <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
+      <c r="K169" s="4"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
@@ -9392,8 +9407,8 @@
         <v>294</v>
       </c>
       <c r="J170" s="3"/>
-      <c r="K170" s="3" t="s">
-        <v>974</v>
+      <c r="K170" s="4" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -9425,8 +9440,8 @@
         <v>296</v>
       </c>
       <c r="J171" s="3"/>
-      <c r="K171" s="3" t="s">
-        <v>975</v>
+      <c r="K171" s="4" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -9458,8 +9473,8 @@
         <v>828</v>
       </c>
       <c r="J172" s="3"/>
-      <c r="K172" s="3" t="s">
-        <v>976</v>
+      <c r="K172" s="4" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -9491,8 +9506,8 @@
         <v>829</v>
       </c>
       <c r="J173" s="3"/>
-      <c r="K173" s="3" t="s">
-        <v>977</v>
+      <c r="K173" s="4" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -9524,8 +9539,8 @@
         <v>830</v>
       </c>
       <c r="J174" s="3"/>
-      <c r="K174" s="3" t="s">
-        <v>978</v>
+      <c r="K174" s="4" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -9557,7 +9572,7 @@
         <v>4</v>
       </c>
       <c r="J175" s="3"/>
-      <c r="K175" s="3"/>
+      <c r="K175" s="4"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
@@ -9588,7 +9603,7 @@
         <v>303</v>
       </c>
       <c r="J176" s="3"/>
-      <c r="K176" s="3"/>
+      <c r="K176" s="4"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
@@ -9619,8 +9634,8 @@
         <v>831</v>
       </c>
       <c r="J177" s="3"/>
-      <c r="K177" s="3" t="s">
-        <v>979</v>
+      <c r="K177" s="4" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -9652,7 +9667,7 @@
         <v>4</v>
       </c>
       <c r="J178" s="3"/>
-      <c r="K178" s="3"/>
+      <c r="K178" s="4"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
@@ -9683,8 +9698,8 @@
         <v>307</v>
       </c>
       <c r="J179" s="3"/>
-      <c r="K179" s="3" t="s">
-        <v>980</v>
+      <c r="K179" s="4" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -9716,7 +9731,7 @@
         <v>79</v>
       </c>
       <c r="J180" s="3"/>
-      <c r="K180" s="3" t="s">
+      <c r="K180" s="4" t="s">
         <v>862</v>
       </c>
     </row>
@@ -9749,7 +9764,7 @@
         <v>49</v>
       </c>
       <c r="J181" s="3"/>
-      <c r="K181" s="3" t="s">
+      <c r="K181" s="4" t="s">
         <v>876</v>
       </c>
     </row>
@@ -9782,8 +9797,8 @@
         <v>818</v>
       </c>
       <c r="J182" s="3"/>
-      <c r="K182" s="3" t="s">
-        <v>961</v>
+      <c r="K182" s="4" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -9815,7 +9830,7 @@
         <v>4</v>
       </c>
       <c r="J183" s="3"/>
-      <c r="K183" s="3"/>
+      <c r="K183" s="4"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
@@ -9846,8 +9861,8 @@
         <v>310</v>
       </c>
       <c r="J184" s="3"/>
-      <c r="K184" s="3" t="s">
-        <v>981</v>
+      <c r="K184" s="4" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -9879,8 +9894,8 @@
         <v>818</v>
       </c>
       <c r="J185" s="3"/>
-      <c r="K185" s="3" t="s">
-        <v>961</v>
+      <c r="K185" s="4" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -9912,7 +9927,7 @@
         <v>4</v>
       </c>
       <c r="J186" s="3"/>
-      <c r="K186" s="3"/>
+      <c r="K186" s="4"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
@@ -9943,8 +9958,8 @@
         <v>312</v>
       </c>
       <c r="J187" s="3"/>
-      <c r="K187" s="3" t="s">
-        <v>982</v>
+      <c r="K187" s="4" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -9976,8 +9991,8 @@
         <v>818</v>
       </c>
       <c r="J188" s="3"/>
-      <c r="K188" s="3" t="s">
-        <v>961</v>
+      <c r="K188" s="4" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -10009,7 +10024,7 @@
         <v>4</v>
       </c>
       <c r="J189" s="3"/>
-      <c r="K189" s="3"/>
+      <c r="K189" s="4"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
@@ -10040,7 +10055,7 @@
         <v>270</v>
       </c>
       <c r="J190" s="3"/>
-      <c r="K190" s="3" t="s">
+      <c r="K190" s="4" t="s">
         <v>270</v>
       </c>
     </row>
@@ -10073,7 +10088,7 @@
         <v>79</v>
       </c>
       <c r="J191" s="3"/>
-      <c r="K191" s="3" t="s">
+      <c r="K191" s="4" t="s">
         <v>862</v>
       </c>
     </row>
@@ -10106,7 +10121,7 @@
         <v>63</v>
       </c>
       <c r="J192" s="3"/>
-      <c r="K192" s="3" t="s">
+      <c r="K192" s="4" t="s">
         <v>883</v>
       </c>
     </row>
@@ -10139,8 +10154,8 @@
         <v>802</v>
       </c>
       <c r="J193" s="3"/>
-      <c r="K193" s="3" t="s">
-        <v>983</v>
+      <c r="K193" s="4" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -10172,8 +10187,8 @@
         <v>828</v>
       </c>
       <c r="J194" s="3"/>
-      <c r="K194" s="3" t="s">
-        <v>984</v>
+      <c r="K194" s="4" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -10205,7 +10220,7 @@
         <v>79</v>
       </c>
       <c r="J195" s="3"/>
-      <c r="K195" s="3" t="s">
+      <c r="K195" s="4" t="s">
         <v>862</v>
       </c>
     </row>
@@ -10238,8 +10253,8 @@
         <v>20</v>
       </c>
       <c r="J196" s="3"/>
-      <c r="K196" s="3" t="s">
-        <v>863</v>
+      <c r="K196" s="4" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -10271,8 +10286,8 @@
         <v>763</v>
       </c>
       <c r="J197" s="3"/>
-      <c r="K197" s="3" t="s">
-        <v>867</v>
+      <c r="K197" s="4" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -10304,8 +10319,8 @@
         <v>134</v>
       </c>
       <c r="J198" s="3"/>
-      <c r="K198" s="3" t="s">
-        <v>868</v>
+      <c r="K198" s="4" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -10337,8 +10352,8 @@
         <v>763</v>
       </c>
       <c r="J199" s="3"/>
-      <c r="K199" s="3" t="s">
-        <v>867</v>
+      <c r="K199" s="4" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -10370,8 +10385,8 @@
         <v>828</v>
       </c>
       <c r="J200" s="3"/>
-      <c r="K200" s="3" t="s">
-        <v>976</v>
+      <c r="K200" s="4" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -10403,8 +10418,8 @@
         <v>79</v>
       </c>
       <c r="J201" s="3"/>
-      <c r="K201" s="3" t="s">
-        <v>862</v>
+      <c r="K201" s="4" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -10436,8 +10451,8 @@
         <v>20</v>
       </c>
       <c r="J202" s="3"/>
-      <c r="K202" s="3" t="s">
-        <v>863</v>
+      <c r="K202" s="4" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -10469,8 +10484,8 @@
         <v>763</v>
       </c>
       <c r="J203" s="3"/>
-      <c r="K203" s="3" t="s">
-        <v>867</v>
+      <c r="K203" s="4" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -10502,8 +10517,8 @@
         <v>802</v>
       </c>
       <c r="J204" s="3"/>
-      <c r="K204" s="3" t="s">
-        <v>985</v>
+      <c r="K204" s="4" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -10535,8 +10550,8 @@
         <v>134</v>
       </c>
       <c r="J205" s="3"/>
-      <c r="K205" s="3" t="s">
-        <v>868</v>
+      <c r="K205" s="4" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -10568,8 +10583,8 @@
         <v>763</v>
       </c>
       <c r="J206" s="3"/>
-      <c r="K206" s="3" t="s">
-        <v>867</v>
+      <c r="K206" s="4" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -10601,8 +10616,8 @@
         <v>79</v>
       </c>
       <c r="J207" s="3"/>
-      <c r="K207" s="3" t="s">
-        <v>986</v>
+      <c r="K207" s="4" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -10634,8 +10649,8 @@
         <v>323</v>
       </c>
       <c r="J208" s="3"/>
-      <c r="K208" s="3" t="s">
-        <v>987</v>
+      <c r="K208" s="4" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -10667,8 +10682,8 @@
         <v>325</v>
       </c>
       <c r="J209" s="3"/>
-      <c r="K209" s="3" t="s">
-        <v>988</v>
+      <c r="K209" s="4" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -10700,8 +10715,8 @@
         <v>328</v>
       </c>
       <c r="J210" s="3"/>
-      <c r="K210" s="3" t="s">
-        <v>989</v>
+      <c r="K210" s="4" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -10733,8 +10748,8 @@
         <v>331</v>
       </c>
       <c r="J211" s="3"/>
-      <c r="K211" s="3" t="s">
-        <v>862</v>
+      <c r="K211" s="4" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -10766,7 +10781,9 @@
         <v>334</v>
       </c>
       <c r="J212" s="3"/>
-      <c r="K212" s="3"/>
+      <c r="K212" s="4" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
@@ -10797,9 +10814,6 @@
         <v>119</v>
       </c>
       <c r="J213" s="3"/>
-      <c r="K213" s="3" t="s">
-        <v>990</v>
-      </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
@@ -10830,8 +10844,8 @@
         <v>84</v>
       </c>
       <c r="J214" s="3"/>
-      <c r="K214" s="3" t="s">
-        <v>991</v>
+      <c r="K214" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -10863,8 +10877,8 @@
         <v>338</v>
       </c>
       <c r="J215" s="3"/>
-      <c r="K215" s="3" t="s">
-        <v>891</v>
+      <c r="K215" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -10896,8 +10910,8 @@
         <v>341</v>
       </c>
       <c r="J216" s="3"/>
-      <c r="K216" s="3" t="s">
-        <v>961</v>
+      <c r="K216" s="4" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -10929,8 +10943,8 @@
         <v>128</v>
       </c>
       <c r="J217" s="3"/>
-      <c r="K217" s="3" t="s">
-        <v>992</v>
+      <c r="K217" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -10962,8 +10976,8 @@
         <v>79</v>
       </c>
       <c r="J218" s="3"/>
-      <c r="K218" s="3" t="s">
-        <v>976</v>
+      <c r="K218" s="4" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -10995,8 +11009,8 @@
         <v>343</v>
       </c>
       <c r="J219" s="3"/>
-      <c r="K219" s="3" t="s">
-        <v>993</v>
+      <c r="K219" s="4" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -11028,8 +11042,8 @@
         <v>802</v>
       </c>
       <c r="J220" s="3"/>
-      <c r="K220" s="3" t="s">
-        <v>862</v>
+      <c r="K220" s="4" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -11061,8 +11075,8 @@
         <v>828</v>
       </c>
       <c r="J221" s="3"/>
-      <c r="K221" s="3" t="s">
-        <v>863</v>
+      <c r="K221" s="4" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -11094,8 +11108,8 @@
         <v>832</v>
       </c>
       <c r="J222" s="3"/>
-      <c r="K222" s="3" t="s">
-        <v>994</v>
+      <c r="K222" s="4" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -11127,8 +11141,8 @@
         <v>79</v>
       </c>
       <c r="J223" s="3"/>
-      <c r="K223" s="3" t="s">
-        <v>995</v>
+      <c r="K223" s="4" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -11160,8 +11174,8 @@
         <v>20</v>
       </c>
       <c r="J224" s="3"/>
-      <c r="K224" s="3" t="s">
-        <v>996</v>
+      <c r="K224" s="4" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -11193,8 +11207,8 @@
         <v>834</v>
       </c>
       <c r="J225" s="3"/>
-      <c r="K225" s="3" t="s">
-        <v>997</v>
+      <c r="K225" s="4" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -11226,8 +11240,8 @@
         <v>835</v>
       </c>
       <c r="J226" s="3"/>
-      <c r="K226" s="3" t="s">
-        <v>998</v>
+      <c r="K226" s="4" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -11259,8 +11273,8 @@
         <v>836</v>
       </c>
       <c r="J227" s="3"/>
-      <c r="K227" s="3" t="s">
-        <v>999</v>
+      <c r="K227" s="4" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -11292,8 +11306,8 @@
         <v>350</v>
       </c>
       <c r="J228" s="3"/>
-      <c r="K228" s="3" t="s">
-        <v>1000</v>
+      <c r="K228" s="4" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -11325,8 +11339,8 @@
         <v>352</v>
       </c>
       <c r="J229" s="3"/>
-      <c r="K229" s="3" t="s">
-        <v>860</v>
+      <c r="K229" s="4" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -11358,8 +11372,8 @@
         <v>354</v>
       </c>
       <c r="J230" s="3"/>
-      <c r="K230" s="3" t="s">
-        <v>1001</v>
+      <c r="K230" s="4" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -11391,8 +11405,8 @@
         <v>356</v>
       </c>
       <c r="J231" s="3"/>
-      <c r="K231" s="3" t="s">
-        <v>1002</v>
+      <c r="K231" s="4" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -11424,8 +11438,8 @@
         <v>358</v>
       </c>
       <c r="J232" s="3"/>
-      <c r="K232" s="3" t="s">
-        <v>1003</v>
+      <c r="K232" s="4" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -11457,8 +11471,8 @@
         <v>360</v>
       </c>
       <c r="J233" s="3"/>
-      <c r="K233" s="3" t="s">
-        <v>1004</v>
+      <c r="K233" s="4" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -11490,8 +11504,8 @@
         <v>362</v>
       </c>
       <c r="J234" s="3"/>
-      <c r="K234" s="3" t="s">
-        <v>867</v>
+      <c r="K234" s="4" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -11523,8 +11537,8 @@
         <v>364</v>
       </c>
       <c r="J235" s="3"/>
-      <c r="K235" s="3" t="s">
-        <v>868</v>
+      <c r="K235" s="4" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -11556,8 +11570,8 @@
         <v>366</v>
       </c>
       <c r="J236" s="3"/>
-      <c r="K236" s="3" t="s">
-        <v>867</v>
+      <c r="K236" s="4" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -11589,8 +11603,8 @@
         <v>763</v>
       </c>
       <c r="J237" s="3"/>
-      <c r="K237" s="3" t="s">
-        <v>976</v>
+      <c r="K237" s="4" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -11622,8 +11636,8 @@
         <v>134</v>
       </c>
       <c r="J238" s="3"/>
-      <c r="K238" s="3" t="s">
-        <v>862</v>
+      <c r="K238" s="4" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -11655,8 +11669,8 @@
         <v>763</v>
       </c>
       <c r="J239" s="3"/>
-      <c r="K239" s="3" t="s">
-        <v>863</v>
+      <c r="K239" s="4" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -11688,8 +11702,8 @@
         <v>828</v>
       </c>
       <c r="J240" s="3"/>
-      <c r="K240" s="3" t="s">
-        <v>1005</v>
+      <c r="K240" s="4" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -11721,8 +11735,8 @@
         <v>79</v>
       </c>
       <c r="J241" s="3"/>
-      <c r="K241" s="3" t="s">
-        <v>867</v>
+      <c r="K241" s="4" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -11754,8 +11768,8 @@
         <v>20</v>
       </c>
       <c r="J242" s="3"/>
-      <c r="K242" s="3" t="s">
-        <v>1006</v>
+      <c r="K242" s="4" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -11787,8 +11801,8 @@
         <v>814</v>
       </c>
       <c r="J243" s="3"/>
-      <c r="K243" s="3" t="s">
-        <v>868</v>
+      <c r="K243" s="4" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -11820,8 +11834,8 @@
         <v>763</v>
       </c>
       <c r="J244" s="3"/>
-      <c r="K244" s="3" t="s">
-        <v>1007</v>
+      <c r="K244" s="4" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -11853,8 +11867,8 @@
         <v>802</v>
       </c>
       <c r="J245" s="3"/>
-      <c r="K245" s="3" t="s">
-        <v>932</v>
+      <c r="K245" s="4" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -11886,8 +11900,8 @@
         <v>134</v>
       </c>
       <c r="J246" s="3"/>
-      <c r="K246" s="3" t="s">
-        <v>976</v>
+      <c r="K246" s="4" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -11919,8 +11933,8 @@
         <v>28</v>
       </c>
       <c r="J247" s="3"/>
-      <c r="K247" s="3" t="s">
-        <v>933</v>
+      <c r="K247" s="4" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -11952,7 +11966,9 @@
         <v>833</v>
       </c>
       <c r="J248" s="3"/>
-      <c r="K248" s="3"/>
+      <c r="K248" s="4" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
@@ -11983,7 +11999,9 @@
         <v>828</v>
       </c>
       <c r="J249" s="3"/>
-      <c r="K249" s="3"/>
+      <c r="K249" s="4" t="s">
+        <v>970</v>
+      </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
@@ -12014,8 +12032,8 @@
         <v>837</v>
       </c>
       <c r="J250" s="3"/>
-      <c r="K250" s="3" t="s">
-        <v>933</v>
+      <c r="K250" s="4" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -12047,9 +12065,7 @@
         <v>4</v>
       </c>
       <c r="J251" s="3"/>
-      <c r="K251" s="3" t="s">
-        <v>976</v>
-      </c>
+      <c r="K251" s="3"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
@@ -12080,9 +12096,7 @@
         <v>372</v>
       </c>
       <c r="J252" s="3"/>
-      <c r="K252" s="3" t="s">
-        <v>933</v>
-      </c>
+      <c r="K252" s="4"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
@@ -12113,7 +12127,9 @@
         <v>833</v>
       </c>
       <c r="J253" s="3"/>
-      <c r="K253" s="3"/>
+      <c r="K253" s="4" t="s">
+        <v>927</v>
+      </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
@@ -12144,8 +12160,8 @@
         <v>828</v>
       </c>
       <c r="J254" s="3"/>
-      <c r="K254" s="3" t="s">
-        <v>1008</v>
+      <c r="K254" s="4" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -12177,8 +12193,8 @@
         <v>837</v>
       </c>
       <c r="J255" s="3"/>
-      <c r="K255" s="3" t="s">
-        <v>1009</v>
+      <c r="K255" s="4" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -12210,9 +12226,7 @@
         <v>4</v>
       </c>
       <c r="J256" s="3"/>
-      <c r="K256" s="3" t="s">
-        <v>976</v>
-      </c>
+      <c r="K256" s="4"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
@@ -12243,8 +12257,8 @@
         <v>375</v>
       </c>
       <c r="J257" s="3"/>
-      <c r="K257" s="3" t="s">
-        <v>933</v>
+      <c r="K257" s="4" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -12276,7 +12290,9 @@
         <v>833</v>
       </c>
       <c r="J258" s="3"/>
-      <c r="K258" s="3"/>
+      <c r="K258" s="4" t="s">
+        <v>999</v>
+      </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
@@ -12307,8 +12323,8 @@
         <v>828</v>
       </c>
       <c r="J259" s="3"/>
-      <c r="K259" s="3" t="s">
-        <v>1010</v>
+      <c r="K259" s="4" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -12340,8 +12356,8 @@
         <v>837</v>
       </c>
       <c r="J260" s="3"/>
-      <c r="K260" s="3" t="s">
-        <v>862</v>
+      <c r="K260" s="4" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -12373,9 +12389,7 @@
         <v>4</v>
       </c>
       <c r="J261" s="3"/>
-      <c r="K261" s="3" t="s">
-        <v>879</v>
-      </c>
+      <c r="K261" s="4"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
@@ -12406,8 +12420,8 @@
         <v>378</v>
       </c>
       <c r="J262" s="3"/>
-      <c r="K262" s="3" t="s">
-        <v>1011</v>
+      <c r="K262" s="4" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -12439,7 +12453,9 @@
         <v>79</v>
       </c>
       <c r="J263" s="3"/>
-      <c r="K263" s="3"/>
+      <c r="K263" s="4" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
@@ -12470,8 +12486,8 @@
         <v>838</v>
       </c>
       <c r="J264" s="3"/>
-      <c r="K264" s="3" t="s">
-        <v>1012</v>
+      <c r="K264" s="4" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -12503,8 +12519,8 @@
         <v>818</v>
       </c>
       <c r="J265" s="3"/>
-      <c r="K265" s="3" t="s">
-        <v>1011</v>
+      <c r="K265" s="4" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -12536,7 +12552,7 @@
         <v>4</v>
       </c>
       <c r="J266" s="3"/>
-      <c r="K266" s="3"/>
+      <c r="K266" s="4"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
@@ -12567,8 +12583,8 @@
         <v>382</v>
       </c>
       <c r="J267" s="3"/>
-      <c r="K267" s="3" t="s">
-        <v>982</v>
+      <c r="K267" s="4" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -12600,8 +12616,8 @@
         <v>818</v>
       </c>
       <c r="J268" s="3"/>
-      <c r="K268" s="3" t="s">
-        <v>961</v>
+      <c r="K268" s="4" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -12633,7 +12649,7 @@
         <v>4</v>
       </c>
       <c r="J269" s="3"/>
-      <c r="K269" s="3"/>
+      <c r="K269" s="4"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
@@ -12664,8 +12680,8 @@
         <v>312</v>
       </c>
       <c r="J270" s="3"/>
-      <c r="K270" s="3" t="s">
-        <v>270</v>
+      <c r="K270" s="4" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -12697,8 +12713,8 @@
         <v>818</v>
       </c>
       <c r="J271" s="3"/>
-      <c r="K271" s="3" t="s">
-        <v>1013</v>
+      <c r="K271" s="4" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -12730,7 +12746,7 @@
         <v>4</v>
       </c>
       <c r="J272" s="3"/>
-      <c r="K272" s="3"/>
+      <c r="K272" s="4"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
@@ -12757,12 +12773,12 @@
       <c r="H273" t="s">
         <v>4</v>
       </c>
-      <c r="I273" t="s">
-        <v>4</v>
+      <c r="I273" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="J273" s="3"/>
-      <c r="K273" s="3" t="s">
-        <v>1014</v>
+      <c r="K273" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -12794,8 +12810,8 @@
         <v>839</v>
       </c>
       <c r="J274" s="3"/>
-      <c r="K274" s="3" t="s">
-        <v>862</v>
+      <c r="K274" s="4" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -12827,9 +12843,7 @@
         <v>4</v>
       </c>
       <c r="J275" s="3"/>
-      <c r="K275" s="3" t="s">
-        <v>1015</v>
-      </c>
+      <c r="K275" s="4"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
@@ -12860,8 +12874,8 @@
         <v>32</v>
       </c>
       <c r="J276" s="3"/>
-      <c r="K276" s="3" t="s">
-        <v>1016</v>
+      <c r="K276" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -12893,8 +12907,8 @@
         <v>79</v>
       </c>
       <c r="J277" s="3"/>
-      <c r="K277" s="3" t="s">
-        <v>1017</v>
+      <c r="K277" s="4" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -12926,8 +12940,8 @@
         <v>53</v>
       </c>
       <c r="J278" s="3"/>
-      <c r="K278" s="3" t="s">
-        <v>1018</v>
+      <c r="K278" s="4" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -12959,8 +12973,8 @@
         <v>840</v>
       </c>
       <c r="J279" s="3"/>
-      <c r="K279" s="3" t="s">
-        <v>1019</v>
+      <c r="K279" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -12992,8 +13006,8 @@
         <v>841</v>
       </c>
       <c r="J280" s="3"/>
-      <c r="K280" s="3" t="s">
-        <v>937</v>
+      <c r="K280" s="4" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -13025,8 +13039,8 @@
         <v>797</v>
       </c>
       <c r="J281" s="3"/>
-      <c r="K281" s="3" t="s">
-        <v>1016</v>
+      <c r="K281" s="4" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -13058,8 +13072,8 @@
         <v>840</v>
       </c>
       <c r="J282" s="3"/>
-      <c r="K282" s="3" t="s">
-        <v>1019</v>
+      <c r="K282" s="4" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -13091,8 +13105,8 @@
         <v>841</v>
       </c>
       <c r="J283" s="3"/>
-      <c r="K283" s="3" t="s">
-        <v>1017</v>
+      <c r="K283" s="4" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
@@ -13124,8 +13138,8 @@
         <v>798</v>
       </c>
       <c r="J284" s="3"/>
-      <c r="K284" s="3" t="s">
-        <v>1018</v>
+      <c r="K284" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
@@ -13157,8 +13171,8 @@
         <v>842</v>
       </c>
       <c r="J285" s="3"/>
-      <c r="K285" s="3" t="s">
-        <v>938</v>
+      <c r="K285" s="4" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
@@ -13190,8 +13204,8 @@
         <v>792</v>
       </c>
       <c r="J286" s="3"/>
-      <c r="K286" s="3" t="s">
-        <v>1020</v>
+      <c r="K286" s="4" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
@@ -13223,8 +13237,8 @@
         <v>799</v>
       </c>
       <c r="J287" s="3"/>
-      <c r="K287" s="3" t="s">
-        <v>934</v>
+      <c r="K287" s="4" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
@@ -13256,8 +13270,8 @@
         <v>398</v>
       </c>
       <c r="J288" s="3"/>
-      <c r="K288" s="3" t="s">
-        <v>1021</v>
+      <c r="K288" s="4" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
@@ -13289,8 +13303,8 @@
         <v>79</v>
       </c>
       <c r="J289" s="3"/>
-      <c r="K289" s="3" t="s">
-        <v>939</v>
+      <c r="K289" s="4" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
@@ -13322,8 +13336,8 @@
         <v>842</v>
       </c>
       <c r="J290" s="3"/>
-      <c r="K290" s="3" t="s">
-        <v>1022</v>
+      <c r="K290" s="4" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
@@ -13355,8 +13369,8 @@
         <v>792</v>
       </c>
       <c r="J291" s="3"/>
-      <c r="K291" s="3" t="s">
-        <v>862</v>
+      <c r="K291" s="4" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
@@ -13388,8 +13402,8 @@
         <v>799</v>
       </c>
       <c r="J292" s="3"/>
-      <c r="K292" s="3" t="s">
-        <v>1020</v>
+      <c r="K292" s="4" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
@@ -13421,8 +13435,8 @@
         <v>403</v>
       </c>
       <c r="J293" s="3"/>
-      <c r="K293" s="3" t="s">
-        <v>934</v>
+      <c r="K293" s="4" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
@@ -13454,8 +13468,8 @@
         <v>134</v>
       </c>
       <c r="J294" s="3"/>
-      <c r="K294" s="3" t="s">
-        <v>1021</v>
+      <c r="K294" s="4" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
@@ -13487,8 +13501,8 @@
         <v>45</v>
       </c>
       <c r="J295" s="3"/>
-      <c r="K295" s="3" t="s">
-        <v>939</v>
+      <c r="K295" s="4" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
@@ -13517,7 +13531,9 @@
         <v>4</v>
       </c>
       <c r="J296" s="3"/>
-      <c r="K296" s="3"/>
+      <c r="K296" s="4" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
@@ -13548,8 +13564,8 @@
         <v>4</v>
       </c>
       <c r="J297" s="3"/>
-      <c r="K297" s="3" t="s">
-        <v>868</v>
+      <c r="K297" s="4" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
@@ -13581,7 +13597,9 @@
         <v>4</v>
       </c>
       <c r="J298" s="3"/>
-      <c r="K298" s="3"/>
+      <c r="K298" s="4" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
@@ -13612,7 +13630,7 @@
         <v>4</v>
       </c>
       <c r="J299" s="3"/>
-      <c r="K299" s="3"/>
+      <c r="K299" s="4"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
@@ -13643,8 +13661,8 @@
         <v>4</v>
       </c>
       <c r="J300" s="3"/>
-      <c r="K300" s="3" t="s">
-        <v>1023</v>
+      <c r="K300" s="4" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
@@ -13676,9 +13694,7 @@
         <v>4</v>
       </c>
       <c r="J301" s="3"/>
-      <c r="K301" s="3" t="s">
-        <v>1024</v>
-      </c>
+      <c r="K301" s="4"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
@@ -13709,9 +13725,7 @@
         <v>4</v>
       </c>
       <c r="J302" s="3"/>
-      <c r="K302" s="3" t="s">
-        <v>1025</v>
-      </c>
+      <c r="K302" s="4"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
@@ -13742,8 +13756,8 @@
         <v>843</v>
       </c>
       <c r="J303" s="3"/>
-      <c r="K303" s="3" t="s">
-        <v>1026</v>
+      <c r="K303" s="4" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
@@ -13775,7 +13789,9 @@
         <v>844</v>
       </c>
       <c r="J304" s="3"/>
-      <c r="K304" s="3"/>
+      <c r="K304" s="4" t="s">
+        <v>1014</v>
+      </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
@@ -13806,8 +13822,8 @@
         <v>845</v>
       </c>
       <c r="J305" s="3"/>
-      <c r="K305" s="3" t="s">
-        <v>1027</v>
+      <c r="K305" s="4" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
@@ -13839,8 +13855,8 @@
         <v>846</v>
       </c>
       <c r="J306" s="3"/>
-      <c r="K306" s="3" t="s">
-        <v>1028</v>
+      <c r="K306" s="4" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
@@ -13872,7 +13888,7 @@
         <v>847</v>
       </c>
       <c r="J307" s="3"/>
-      <c r="K307" s="3"/>
+      <c r="K307" s="4"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
@@ -13903,7 +13919,9 @@
         <v>848</v>
       </c>
       <c r="J308" s="3"/>
-      <c r="K308" s="3"/>
+      <c r="K308" s="4" t="s">
+        <v>1017</v>
+      </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
@@ -13934,8 +13952,8 @@
         <v>849</v>
       </c>
       <c r="J309" s="3"/>
-      <c r="K309" s="3" t="s">
-        <v>1029</v>
+      <c r="K309" s="4" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
@@ -13967,9 +13985,7 @@
         <v>850</v>
       </c>
       <c r="J310" s="3"/>
-      <c r="K310" s="3" t="s">
-        <v>1030</v>
-      </c>
+      <c r="K310" s="4"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
@@ -14000,9 +14016,7 @@
         <v>851</v>
       </c>
       <c r="J311" s="3"/>
-      <c r="K311" s="3" t="s">
-        <v>1031</v>
-      </c>
+      <c r="K311" s="4"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
@@ -14033,7 +14047,9 @@
         <v>852</v>
       </c>
       <c r="J312" s="3"/>
-      <c r="K312" s="3"/>
+      <c r="K312" s="4" t="s">
+        <v>1019</v>
+      </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
@@ -14064,8 +14080,8 @@
         <v>853</v>
       </c>
       <c r="J313" s="3"/>
-      <c r="K313" s="3" t="s">
-        <v>1032</v>
+      <c r="K313" s="4" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
@@ -14097,8 +14113,8 @@
         <v>854</v>
       </c>
       <c r="J314" s="3"/>
-      <c r="K314" s="3" t="s">
-        <v>1033</v>
+      <c r="K314" s="4" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
@@ -14130,8 +14146,8 @@
         <v>855</v>
       </c>
       <c r="J315" s="3"/>
-      <c r="K315" s="3" t="s">
-        <v>1034</v>
+      <c r="K315" s="4" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
@@ -14163,8 +14179,8 @@
         <v>856</v>
       </c>
       <c r="J316" s="3"/>
-      <c r="K316" s="3" t="s">
-        <v>1035</v>
+      <c r="K316" s="4" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
@@ -14196,8 +14212,8 @@
         <v>4</v>
       </c>
       <c r="J317" s="3"/>
-      <c r="K317" s="3" t="s">
-        <v>1036</v>
+      <c r="K317" s="4" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
@@ -14229,7 +14245,9 @@
         <v>4</v>
       </c>
       <c r="J318" s="3"/>
-      <c r="K318" s="3"/>
+      <c r="K318" s="4" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
@@ -14260,7 +14278,9 @@
         <v>4</v>
       </c>
       <c r="J319" s="3"/>
-      <c r="K319" s="3"/>
+      <c r="K319" s="4" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
@@ -14291,9 +14311,11 @@
         <v>4</v>
       </c>
       <c r="J320" s="3"/>
-      <c r="K320" s="3"/>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K320" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>9</v>
       </c>
@@ -14321,8 +14343,9 @@
       <c r="I321" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K321" s="4"/>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>9</v>
       </c>
@@ -14350,8 +14373,9 @@
       <c r="I322" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K322" s="4"/>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>9</v>
       </c>
@@ -14379,8 +14403,9 @@
       <c r="I323" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K323" s="4"/>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>9</v>
       </c>
@@ -14409,7 +14434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>9</v>
       </c>
@@ -14438,7 +14463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>9</v>
       </c>
@@ -14467,7 +14492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>9</v>
       </c>
@@ -14496,7 +14521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>9</v>
       </c>
@@ -14525,7 +14550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>9</v>
       </c>
@@ -14554,7 +14579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>9</v>
       </c>
@@ -14583,7 +14608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>9</v>
       </c>
@@ -14612,7 +14637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>9</v>
       </c>
@@ -14641,7 +14666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>9</v>
       </c>
@@ -14670,7 +14695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>9</v>
       </c>
@@ -14699,7 +14724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>9</v>
       </c>
@@ -14728,7 +14753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>9</v>
       </c>
@@ -14879,7 +14904,7 @@
         <v>4</v>
       </c>
       <c r="J340" s="3"/>
-      <c r="K340" s="3"/>
+      <c r="K340" s="4"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
@@ -14910,7 +14935,7 @@
         <v>4</v>
       </c>
       <c r="J341" s="3"/>
-      <c r="K341" s="3"/>
+      <c r="K341" s="4"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
@@ -14941,7 +14966,7 @@
         <v>4</v>
       </c>
       <c r="J342" s="3"/>
-      <c r="K342" s="3"/>
+      <c r="K342" s="4"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
@@ -14972,7 +14997,7 @@
         <v>4</v>
       </c>
       <c r="J343" s="3"/>
-      <c r="K343" s="3"/>
+      <c r="K343" s="4"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
@@ -15003,7 +15028,7 @@
         <v>4</v>
       </c>
       <c r="J344" s="3"/>
-      <c r="K344" s="3"/>
+      <c r="K344" s="4"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
@@ -15034,7 +15059,7 @@
         <v>4</v>
       </c>
       <c r="J345" s="3"/>
-      <c r="K345" s="3"/>
+      <c r="K345" s="4"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
@@ -15065,9 +15090,7 @@
         <v>4</v>
       </c>
       <c r="J346" s="3"/>
-      <c r="K346" s="3" t="s">
-        <v>1037</v>
-      </c>
+      <c r="K346" s="4"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
@@ -15098,9 +15121,7 @@
         <v>4</v>
       </c>
       <c r="J347" s="3"/>
-      <c r="K347" s="3" t="s">
-        <v>1038</v>
-      </c>
+      <c r="K347" s="4"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
@@ -15131,9 +15152,7 @@
         <v>4</v>
       </c>
       <c r="J348" s="3"/>
-      <c r="K348" s="3" t="s">
-        <v>507</v>
-      </c>
+      <c r="K348" s="4"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
@@ -15164,8 +15183,8 @@
         <v>4</v>
       </c>
       <c r="J349" s="3"/>
-      <c r="K349" s="3" t="s">
-        <v>1039</v>
+      <c r="K349" s="4" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
@@ -15197,8 +15216,8 @@
         <v>4</v>
       </c>
       <c r="J350" s="3"/>
-      <c r="K350" s="3" t="s">
-        <v>1040</v>
+      <c r="K350" s="4" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
@@ -15230,8 +15249,8 @@
         <v>4</v>
       </c>
       <c r="J351" s="3"/>
-      <c r="K351" s="3" t="s">
-        <v>1041</v>
+      <c r="K351" s="4" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
@@ -15263,7 +15282,9 @@
         <v>4</v>
       </c>
       <c r="J352" s="3"/>
-      <c r="K352" s="3"/>
+      <c r="K352" s="4" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
@@ -15294,8 +15315,8 @@
         <v>4</v>
       </c>
       <c r="J353" s="3"/>
-      <c r="K353" s="3" t="s">
-        <v>1042</v>
+      <c r="K353" s="4" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
@@ -15327,7 +15348,9 @@
         <v>4</v>
       </c>
       <c r="J354" s="3"/>
-      <c r="K354" s="3"/>
+      <c r="K354" s="4" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
@@ -15358,9 +15381,7 @@
         <v>4</v>
       </c>
       <c r="J355" s="3"/>
-      <c r="K355" s="3" t="s">
-        <v>1043</v>
-      </c>
+      <c r="K355" s="4"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
@@ -15391,8 +15412,8 @@
         <v>4</v>
       </c>
       <c r="J356" s="3"/>
-      <c r="K356" s="3" t="s">
-        <v>1044</v>
+      <c r="K356" s="4" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
@@ -15424,9 +15445,7 @@
         <v>4</v>
       </c>
       <c r="J357" s="3"/>
-      <c r="K357" s="3" t="s">
-        <v>862</v>
-      </c>
+      <c r="K357" s="4"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
@@ -15457,8 +15476,8 @@
         <v>4</v>
       </c>
       <c r="J358" s="3"/>
-      <c r="K358" s="3" t="s">
-        <v>1045</v>
+      <c r="K358" s="4" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
@@ -15490,8 +15509,8 @@
         <v>4</v>
       </c>
       <c r="J359" s="3"/>
-      <c r="K359" s="3" t="s">
-        <v>961</v>
+      <c r="K359" s="4" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
@@ -15523,7 +15542,9 @@
         <v>4</v>
       </c>
       <c r="J360" s="3"/>
-      <c r="K360" s="3"/>
+      <c r="K360" s="4" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
@@ -15554,8 +15575,8 @@
         <v>4</v>
       </c>
       <c r="J361" s="3"/>
-      <c r="K361" s="3" t="s">
-        <v>1046</v>
+      <c r="K361" s="4" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
@@ -15587,8 +15608,8 @@
         <v>4</v>
       </c>
       <c r="J362" s="3"/>
-      <c r="K362" s="3" t="s">
-        <v>1047</v>
+      <c r="K362" s="4" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
@@ -15620,9 +15641,7 @@
         <v>4</v>
       </c>
       <c r="J363" s="3"/>
-      <c r="K363" s="3" t="s">
-        <v>1048</v>
-      </c>
+      <c r="K363" s="4"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
@@ -15653,8 +15672,8 @@
         <v>4</v>
       </c>
       <c r="J364" s="3"/>
-      <c r="K364" s="3" t="s">
-        <v>930</v>
+      <c r="K364" s="4" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
@@ -15686,8 +15705,8 @@
         <v>4</v>
       </c>
       <c r="J365" s="3"/>
-      <c r="K365" s="3" t="s">
-        <v>1049</v>
+      <c r="K365" s="4" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
@@ -15719,8 +15738,8 @@
         <v>4</v>
       </c>
       <c r="J366" s="3"/>
-      <c r="K366" s="3" t="s">
-        <v>1050</v>
+      <c r="K366" s="4" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
@@ -15752,8 +15771,8 @@
         <v>4</v>
       </c>
       <c r="J367" s="3"/>
-      <c r="K367" s="3" t="s">
-        <v>1051</v>
+      <c r="K367" s="4" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
@@ -15785,8 +15804,8 @@
         <v>4</v>
       </c>
       <c r="J368" s="3"/>
-      <c r="K368" s="3" t="s">
-        <v>930</v>
+      <c r="K368" s="4" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
@@ -15818,8 +15837,8 @@
         <v>4</v>
       </c>
       <c r="J369" s="3"/>
-      <c r="K369" s="3" t="s">
-        <v>1052</v>
+      <c r="K369" s="4" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
@@ -15851,8 +15870,8 @@
         <v>4</v>
       </c>
       <c r="J370" s="3"/>
-      <c r="K370" s="3" t="s">
-        <v>1053</v>
+      <c r="K370" s="4" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
@@ -15884,8 +15903,8 @@
         <v>4</v>
       </c>
       <c r="J371" s="3"/>
-      <c r="K371" s="3" t="s">
-        <v>1054</v>
+      <c r="K371" s="4" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
@@ -15917,8 +15936,8 @@
         <v>4</v>
       </c>
       <c r="J372" s="3"/>
-      <c r="K372" s="3" t="s">
-        <v>1050</v>
+      <c r="K372" s="4" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
@@ -15950,8 +15969,8 @@
         <v>4</v>
       </c>
       <c r="J373" s="3"/>
-      <c r="K373" s="3" t="s">
-        <v>930</v>
+      <c r="K373" s="4" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
@@ -15983,8 +16002,8 @@
         <v>4</v>
       </c>
       <c r="J374" s="3"/>
-      <c r="K374" s="3" t="s">
-        <v>1051</v>
+      <c r="K374" s="4" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
@@ -16016,8 +16035,8 @@
         <v>4</v>
       </c>
       <c r="J375" s="3"/>
-      <c r="K375" s="3" t="s">
-        <v>934</v>
+      <c r="K375" s="4" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
@@ -16049,7 +16068,9 @@
         <v>4</v>
       </c>
       <c r="J376" s="3"/>
-      <c r="K376" s="3"/>
+      <c r="K376" s="4" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
@@ -16080,8 +16101,8 @@
         <v>4</v>
       </c>
       <c r="J377" s="3"/>
-      <c r="K377" s="3" t="s">
-        <v>971</v>
+      <c r="K377" s="4" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
@@ -16113,8 +16134,8 @@
         <v>4</v>
       </c>
       <c r="J378" s="3"/>
-      <c r="K378" s="3" t="s">
-        <v>1055</v>
+      <c r="K378" s="4" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
@@ -16146,9 +16167,7 @@
         <v>4</v>
       </c>
       <c r="J379" s="3"/>
-      <c r="K379" s="3" t="s">
-        <v>1050</v>
-      </c>
+      <c r="K379" s="4"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
@@ -16179,8 +16198,8 @@
         <v>4</v>
       </c>
       <c r="J380" s="3"/>
-      <c r="K380" s="3" t="s">
-        <v>1051</v>
+      <c r="K380" s="4" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
@@ -16212,8 +16231,8 @@
         <v>4</v>
       </c>
       <c r="J381" s="3"/>
-      <c r="K381" s="3" t="s">
-        <v>930</v>
+      <c r="K381" s="4" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
@@ -16245,7 +16264,9 @@
         <v>4</v>
       </c>
       <c r="J382" s="3"/>
-      <c r="K382" s="3"/>
+      <c r="K382" s="4" t="s">
+        <v>1038</v>
+      </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
@@ -16276,8 +16297,8 @@
         <v>4</v>
       </c>
       <c r="J383" s="3"/>
-      <c r="K383" s="3" t="s">
-        <v>1056</v>
+      <c r="K383" s="4" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
@@ -16309,8 +16330,8 @@
         <v>4</v>
       </c>
       <c r="J384" s="3"/>
-      <c r="K384" s="3" t="s">
-        <v>1057</v>
+      <c r="K384" s="4" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
@@ -16342,9 +16363,7 @@
         <v>4</v>
       </c>
       <c r="J385" s="3"/>
-      <c r="K385" s="3" t="s">
-        <v>1058</v>
-      </c>
+      <c r="K385" s="4"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
@@ -16375,8 +16394,8 @@
         <v>4</v>
       </c>
       <c r="J386" s="3"/>
-      <c r="K386" s="3" t="s">
-        <v>958</v>
+      <c r="K386" s="4" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
@@ -16408,8 +16427,8 @@
         <v>4</v>
       </c>
       <c r="J387" s="3"/>
-      <c r="K387" s="3" t="s">
-        <v>930</v>
+      <c r="K387" s="4" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
@@ -16441,7 +16460,9 @@
         <v>4</v>
       </c>
       <c r="J388" s="3"/>
-      <c r="K388" s="3"/>
+      <c r="K388" s="4" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
@@ -16472,8 +16493,8 @@
         <v>4</v>
       </c>
       <c r="J389" s="3"/>
-      <c r="K389" s="3" t="s">
-        <v>1059</v>
+      <c r="K389" s="4" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
@@ -16505,8 +16526,8 @@
         <v>4</v>
       </c>
       <c r="J390" s="3"/>
-      <c r="K390" s="3" t="s">
-        <v>958</v>
+      <c r="K390" s="4" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
@@ -16538,9 +16559,7 @@
         <v>4</v>
       </c>
       <c r="J391" s="3"/>
-      <c r="K391" s="3" t="s">
-        <v>930</v>
-      </c>
+      <c r="K391" s="4"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
@@ -16571,7 +16590,9 @@
         <v>4</v>
       </c>
       <c r="J392" s="3"/>
-      <c r="K392" s="3"/>
+      <c r="K392" s="4" t="s">
+        <v>1046</v>
+      </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
@@ -16602,8 +16623,8 @@
         <v>4</v>
       </c>
       <c r="J393" s="3"/>
-      <c r="K393" s="3" t="s">
-        <v>1060</v>
+      <c r="K393" s="4" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
@@ -16635,8 +16656,8 @@
         <v>4</v>
       </c>
       <c r="J394" s="3"/>
-      <c r="K394" s="3" t="s">
-        <v>958</v>
+      <c r="K394" s="4" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
@@ -16668,9 +16689,7 @@
         <v>4</v>
       </c>
       <c r="J395" s="3"/>
-      <c r="K395" s="3" t="s">
-        <v>930</v>
-      </c>
+      <c r="K395" s="4"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
@@ -16701,7 +16720,9 @@
         <v>4</v>
       </c>
       <c r="J396" s="3"/>
-      <c r="K396" s="3"/>
+      <c r="K396" s="4" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
@@ -16732,8 +16753,8 @@
         <v>4</v>
       </c>
       <c r="J397" s="3"/>
-      <c r="K397" s="3" t="s">
-        <v>1061</v>
+      <c r="K397" s="4" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
@@ -16765,8 +16786,8 @@
         <v>4</v>
       </c>
       <c r="J398" s="3"/>
-      <c r="K398" s="3" t="s">
-        <v>862</v>
+      <c r="K398" s="4" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
@@ -16798,9 +16819,7 @@
         <v>4</v>
       </c>
       <c r="J399" s="3"/>
-      <c r="K399" s="3" t="s">
-        <v>877</v>
-      </c>
+      <c r="K399" s="4"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
@@ -16831,8 +16850,8 @@
         <v>4</v>
       </c>
       <c r="J400" s="3"/>
-      <c r="K400" s="3" t="s">
-        <v>862</v>
+      <c r="K400" s="4" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
@@ -16864,8 +16883,8 @@
         <v>4</v>
       </c>
       <c r="J401" s="3"/>
-      <c r="K401" s="3" t="s">
-        <v>1062</v>
+      <c r="K401" s="4" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
@@ -16897,8 +16916,8 @@
         <v>4</v>
       </c>
       <c r="J402" s="3"/>
-      <c r="K402" s="3" t="s">
-        <v>1063</v>
+      <c r="K402" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
@@ -16930,8 +16949,8 @@
         <v>4</v>
       </c>
       <c r="J403" s="3"/>
-      <c r="K403" s="3" t="s">
-        <v>1064</v>
+      <c r="K403" s="4" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
@@ -16963,8 +16982,8 @@
         <v>4</v>
       </c>
       <c r="J404" s="3"/>
-      <c r="K404" s="3" t="s">
-        <v>1065</v>
+      <c r="K404" s="4" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
@@ -16996,8 +17015,8 @@
         <v>4</v>
       </c>
       <c r="J405" s="3"/>
-      <c r="K405" s="3" t="s">
-        <v>1066</v>
+      <c r="K405" s="4" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
@@ -17029,8 +17048,8 @@
         <v>4</v>
       </c>
       <c r="J406" s="3"/>
-      <c r="K406" s="3" t="s">
-        <v>1067</v>
+      <c r="K406" s="4" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
@@ -17062,8 +17081,8 @@
         <v>4</v>
       </c>
       <c r="J407" s="3"/>
-      <c r="K407" s="3" t="s">
-        <v>1068</v>
+      <c r="K407" s="4" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
@@ -17095,8 +17114,8 @@
         <v>4</v>
       </c>
       <c r="J408" s="3"/>
-      <c r="K408" s="3" t="s">
-        <v>1069</v>
+      <c r="K408" s="4" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
@@ -17128,8 +17147,8 @@
         <v>4</v>
       </c>
       <c r="J409" s="3"/>
-      <c r="K409" s="3" t="s">
-        <v>1070</v>
+      <c r="K409" s="4" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
@@ -17161,8 +17180,8 @@
         <v>4</v>
       </c>
       <c r="J410" s="3"/>
-      <c r="K410" s="3" t="s">
-        <v>1071</v>
+      <c r="K410" s="4" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
@@ -17194,8 +17213,8 @@
         <v>4</v>
       </c>
       <c r="J411" s="3"/>
-      <c r="K411" s="3" t="s">
-        <v>1072</v>
+      <c r="K411" s="4" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
@@ -17227,8 +17246,8 @@
         <v>583</v>
       </c>
       <c r="J412" s="3"/>
-      <c r="K412" s="3" t="s">
-        <v>1073</v>
+      <c r="K412" s="4" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
@@ -17260,8 +17279,8 @@
         <v>586</v>
       </c>
       <c r="J413" s="3"/>
-      <c r="K413" s="3" t="s">
-        <v>932</v>
+      <c r="K413" s="4" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
@@ -17293,8 +17312,8 @@
         <v>588</v>
       </c>
       <c r="J414" s="3"/>
-      <c r="K414" s="3" t="s">
-        <v>1074</v>
+      <c r="K414" s="4" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
@@ -17326,8 +17345,8 @@
         <v>591</v>
       </c>
       <c r="J415" s="3"/>
-      <c r="K415" s="3" t="s">
-        <v>1075</v>
+      <c r="K415" s="4" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
@@ -17359,8 +17378,8 @@
         <v>4</v>
       </c>
       <c r="J416" s="3"/>
-      <c r="K416" s="3" t="s">
-        <v>933</v>
+      <c r="K416" s="4" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
@@ -17392,8 +17411,8 @@
         <v>4</v>
       </c>
       <c r="J417" s="3"/>
-      <c r="K417" s="3" t="s">
-        <v>934</v>
+      <c r="K417" s="4" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
@@ -17425,8 +17444,8 @@
         <v>4</v>
       </c>
       <c r="J418" s="3"/>
-      <c r="K418" s="3" t="s">
-        <v>1076</v>
+      <c r="K418" s="4" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
@@ -17458,8 +17477,8 @@
         <v>4</v>
       </c>
       <c r="J419" s="3"/>
-      <c r="K419" s="3" t="s">
-        <v>930</v>
+      <c r="K419" s="4" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
@@ -17491,8 +17510,8 @@
         <v>4</v>
       </c>
       <c r="J420" s="3"/>
-      <c r="K420" s="3" t="s">
-        <v>1077</v>
+      <c r="K420" s="4" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
@@ -17524,8 +17543,8 @@
         <v>4</v>
       </c>
       <c r="J421" s="3"/>
-      <c r="K421" s="3" t="s">
-        <v>1078</v>
+      <c r="K421" s="4" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
@@ -17557,8 +17576,8 @@
         <v>4</v>
       </c>
       <c r="J422" s="3"/>
-      <c r="K422" s="3" t="s">
-        <v>1079</v>
+      <c r="K422" s="4" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
@@ -17590,8 +17609,8 @@
         <v>4</v>
       </c>
       <c r="J423" s="3"/>
-      <c r="K423" s="3" t="s">
-        <v>1080</v>
+      <c r="K423" s="4" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
@@ -17623,8 +17642,8 @@
         <v>4</v>
       </c>
       <c r="J424" s="3"/>
-      <c r="K424" s="3" t="s">
-        <v>1081</v>
+      <c r="K424" s="4" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
@@ -17656,8 +17675,8 @@
         <v>4</v>
       </c>
       <c r="J425" s="3"/>
-      <c r="K425" s="3" t="s">
-        <v>1082</v>
+      <c r="K425" s="4" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
@@ -17689,8 +17708,8 @@
         <v>4</v>
       </c>
       <c r="J426" s="3"/>
-      <c r="K426" s="3" t="s">
-        <v>1083</v>
+      <c r="K426" s="4" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
@@ -17722,8 +17741,8 @@
         <v>4</v>
       </c>
       <c r="J427" s="3"/>
-      <c r="K427" s="3" t="s">
-        <v>1084</v>
+      <c r="K427" s="4" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
@@ -17755,8 +17774,8 @@
         <v>4</v>
       </c>
       <c r="J428" s="3"/>
-      <c r="K428" s="3" t="s">
-        <v>1085</v>
+      <c r="K428" s="4" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
@@ -17788,8 +17807,8 @@
         <v>4</v>
       </c>
       <c r="J429" s="3"/>
-      <c r="K429" s="3" t="s">
-        <v>1063</v>
+      <c r="K429" s="4" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
@@ -17821,8 +17840,8 @@
         <v>4</v>
       </c>
       <c r="J430" s="3"/>
-      <c r="K430" s="3" t="s">
-        <v>1064</v>
+      <c r="K430" s="4" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
@@ -17854,8 +17873,8 @@
         <v>4</v>
       </c>
       <c r="J431" s="3"/>
-      <c r="K431" s="3" t="s">
-        <v>1065</v>
+      <c r="K431" s="4" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
@@ -17887,8 +17906,8 @@
         <v>4</v>
       </c>
       <c r="J432" s="3"/>
-      <c r="K432" s="3" t="s">
-        <v>1066</v>
+      <c r="K432" s="4" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
@@ -17920,8 +17939,8 @@
         <v>4</v>
       </c>
       <c r="J433" s="3"/>
-      <c r="K433" s="3" t="s">
-        <v>1067</v>
+      <c r="K433" s="4" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
@@ -17953,8 +17972,8 @@
         <v>4</v>
       </c>
       <c r="J434" s="3"/>
-      <c r="K434" s="3" t="s">
-        <v>1068</v>
+      <c r="K434" s="4" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
@@ -17986,8 +18005,8 @@
         <v>4</v>
       </c>
       <c r="J435" s="3"/>
-      <c r="K435" s="3" t="s">
-        <v>1086</v>
+      <c r="K435" s="4" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
@@ -18019,8 +18038,8 @@
         <v>4</v>
       </c>
       <c r="J436" s="3"/>
-      <c r="K436" s="3" t="s">
-        <v>961</v>
+      <c r="K436" s="4" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
@@ -18052,8 +18071,8 @@
         <v>4</v>
       </c>
       <c r="J437" s="3"/>
-      <c r="K437" s="3" t="s">
-        <v>1087</v>
+      <c r="K437" s="4" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
@@ -18085,8 +18104,8 @@
         <v>4</v>
       </c>
       <c r="J438" s="3"/>
-      <c r="K438" s="3" t="s">
-        <v>1088</v>
+      <c r="K438" s="4" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
@@ -18118,8 +18137,8 @@
         <v>4</v>
       </c>
       <c r="J439" s="3"/>
-      <c r="K439" s="3" t="s">
-        <v>1089</v>
+      <c r="K439" s="4" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
@@ -18151,8 +18170,8 @@
         <v>4</v>
       </c>
       <c r="J440" s="3"/>
-      <c r="K440" s="3" t="s">
-        <v>936</v>
+      <c r="K440" s="4" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
@@ -18184,8 +18203,8 @@
         <v>4</v>
       </c>
       <c r="J441" s="3"/>
-      <c r="K441" s="3" t="s">
-        <v>1090</v>
+      <c r="K441" s="4" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
@@ -18217,8 +18236,8 @@
         <v>4</v>
       </c>
       <c r="J442" s="3"/>
-      <c r="K442" s="3" t="s">
-        <v>959</v>
+      <c r="K442" s="4" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
@@ -18250,8 +18269,8 @@
         <v>4</v>
       </c>
       <c r="J443" s="3"/>
-      <c r="K443" s="3" t="s">
-        <v>958</v>
+      <c r="K443" s="4" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
@@ -18283,8 +18302,8 @@
         <v>4</v>
       </c>
       <c r="J444" s="3"/>
-      <c r="K444" s="3" t="s">
-        <v>1091</v>
+      <c r="K444" s="4" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
@@ -18316,8 +18335,8 @@
         <v>4</v>
       </c>
       <c r="J445" s="3"/>
-      <c r="K445" s="3" t="s">
-        <v>1092</v>
+      <c r="K445" s="4" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
@@ -18349,8 +18368,8 @@
         <v>4</v>
       </c>
       <c r="J446" s="3"/>
-      <c r="K446" s="3" t="s">
-        <v>1050</v>
+      <c r="K446" s="4" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
@@ -18382,8 +18401,8 @@
         <v>4</v>
       </c>
       <c r="J447" s="3"/>
-      <c r="K447" s="3" t="s">
-        <v>1093</v>
+      <c r="K447" s="4" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
@@ -18415,8 +18434,8 @@
         <v>4</v>
       </c>
       <c r="J448" s="3"/>
-      <c r="K448" s="3" t="s">
-        <v>1051</v>
+      <c r="K448" s="4" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
@@ -18448,8 +18467,8 @@
         <v>4</v>
       </c>
       <c r="J449" s="3"/>
-      <c r="K449" s="3" t="s">
-        <v>1094</v>
+      <c r="K449" s="4" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
@@ -18481,8 +18500,8 @@
         <v>4</v>
       </c>
       <c r="J450" s="3"/>
-      <c r="K450" s="3" t="s">
-        <v>1058</v>
+      <c r="K450" s="4" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
@@ -18514,8 +18533,8 @@
         <v>4</v>
       </c>
       <c r="J451" s="3"/>
-      <c r="K451" s="3" t="s">
-        <v>1095</v>
+      <c r="K451" s="4" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
@@ -18547,8 +18566,8 @@
         <v>4</v>
       </c>
       <c r="J452" s="3"/>
-      <c r="K452" s="3" t="s">
-        <v>969</v>
+      <c r="K452" s="4" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
@@ -18580,8 +18599,8 @@
         <v>4</v>
       </c>
       <c r="J453" s="3"/>
-      <c r="K453" s="3" t="s">
-        <v>991</v>
+      <c r="K453" s="4" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
@@ -18613,8 +18632,8 @@
         <v>4</v>
       </c>
       <c r="J454" s="3"/>
-      <c r="K454" s="3" t="s">
-        <v>1011</v>
+      <c r="K454" s="4" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
@@ -18646,8 +18665,8 @@
         <v>4</v>
       </c>
       <c r="J455" s="3"/>
-      <c r="K455" s="3" t="s">
-        <v>1096</v>
+      <c r="K455" s="4" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
@@ -18679,8 +18698,8 @@
         <v>4</v>
       </c>
       <c r="J456" s="3"/>
-      <c r="K456" s="3" t="s">
-        <v>1013</v>
+      <c r="K456" s="4" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
@@ -18712,8 +18731,8 @@
         <v>4</v>
       </c>
       <c r="J457" s="3"/>
-      <c r="K457" s="3" t="s">
-        <v>1097</v>
+      <c r="K457" s="4" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
@@ -18745,8 +18764,8 @@
         <v>4</v>
       </c>
       <c r="J458" s="3"/>
-      <c r="K458" s="3" t="s">
-        <v>1019</v>
+      <c r="K458" s="4" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
@@ -18778,8 +18797,8 @@
         <v>4</v>
       </c>
       <c r="J459" s="3"/>
-      <c r="K459" s="3" t="s">
-        <v>1098</v>
+      <c r="K459" s="4" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
@@ -18811,8 +18830,8 @@
         <v>4</v>
       </c>
       <c r="J460" s="3"/>
-      <c r="K460" s="3" t="s">
-        <v>1016</v>
+      <c r="K460" s="4" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
@@ -18844,8 +18863,8 @@
         <v>4</v>
       </c>
       <c r="J461" s="3"/>
-      <c r="K461" s="3" t="s">
-        <v>1020</v>
+      <c r="K461" s="4" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
@@ -18877,8 +18896,8 @@
         <v>4</v>
       </c>
       <c r="J462" s="3"/>
-      <c r="K462" s="3" t="s">
-        <v>1099</v>
+      <c r="K462" s="4" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
@@ -18910,8 +18929,8 @@
         <v>4</v>
       </c>
       <c r="J463" s="3"/>
-      <c r="K463" s="3" t="s">
-        <v>1100</v>
+      <c r="K463" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
@@ -18943,8 +18962,8 @@
         <v>4</v>
       </c>
       <c r="J464" s="3"/>
-      <c r="K464" s="3" t="s">
-        <v>1101</v>
+      <c r="K464" s="4" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
@@ -18976,8 +18995,8 @@
         <v>4</v>
       </c>
       <c r="J465" s="3"/>
-      <c r="K465" s="3" t="s">
-        <v>990</v>
+      <c r="K465" s="4" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
@@ -19009,8 +19028,8 @@
         <v>4</v>
       </c>
       <c r="J466" s="3"/>
-      <c r="K466" s="3" t="s">
-        <v>989</v>
+      <c r="K466" s="4" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
@@ -19042,8 +19061,8 @@
         <v>4</v>
       </c>
       <c r="J467" s="3"/>
-      <c r="K467" s="3" t="s">
-        <v>990</v>
+      <c r="K467" s="4" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
@@ -19075,8 +19094,8 @@
         <v>4</v>
       </c>
       <c r="J468" s="3"/>
-      <c r="K468" s="3" t="s">
-        <v>1102</v>
+      <c r="K468" s="4" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
@@ -19108,8 +19127,8 @@
         <v>4</v>
       </c>
       <c r="J469" s="3"/>
-      <c r="K469" s="3" t="s">
-        <v>1103</v>
+      <c r="K469" s="4" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
@@ -19141,8 +19160,8 @@
         <v>4</v>
       </c>
       <c r="J470" s="3"/>
-      <c r="K470" s="3" t="s">
-        <v>1104</v>
+      <c r="K470" s="4" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
@@ -19174,8 +19193,8 @@
         <v>4</v>
       </c>
       <c r="J471" s="3"/>
-      <c r="K471" s="3" t="s">
-        <v>1105</v>
+      <c r="K471" s="4" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
@@ -19207,8 +19226,8 @@
         <v>4</v>
       </c>
       <c r="J472" s="3"/>
-      <c r="K472" s="3" t="s">
-        <v>918</v>
+      <c r="K472" s="4" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
@@ -19240,8 +19259,8 @@
         <v>4</v>
       </c>
       <c r="J473" s="3"/>
-      <c r="K473" s="3" t="s">
-        <v>1106</v>
+      <c r="K473" s="4" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
@@ -19273,8 +19292,8 @@
         <v>4</v>
       </c>
       <c r="J474" s="3"/>
-      <c r="K474" s="3" t="s">
-        <v>1107</v>
+      <c r="K474" s="4" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
@@ -19306,8 +19325,8 @@
         <v>4</v>
       </c>
       <c r="J475" s="3"/>
-      <c r="K475" s="3" t="s">
-        <v>1108</v>
+      <c r="K475" s="4" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
@@ -19339,8 +19358,8 @@
         <v>4</v>
       </c>
       <c r="J476" s="3"/>
-      <c r="K476" s="3" t="s">
-        <v>926</v>
+      <c r="K476" s="4" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
@@ -19372,8 +19391,8 @@
         <v>4</v>
       </c>
       <c r="J477" s="3"/>
-      <c r="K477" s="3" t="s">
-        <v>1109</v>
+      <c r="K477" s="4" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
@@ -19405,8 +19424,8 @@
         <v>4</v>
       </c>
       <c r="J478" s="3"/>
-      <c r="K478" s="3" t="s">
-        <v>925</v>
+      <c r="K478" s="4" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
@@ -19438,8 +19457,8 @@
         <v>4</v>
       </c>
       <c r="J479" s="3"/>
-      <c r="K479" s="3" t="s">
-        <v>1110</v>
+      <c r="K479" s="4" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
@@ -19471,8 +19490,8 @@
         <v>4</v>
       </c>
       <c r="J480" s="3"/>
-      <c r="K480" s="3" t="s">
-        <v>924</v>
+      <c r="K480" s="4" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
@@ -19504,8 +19523,8 @@
         <v>4</v>
       </c>
       <c r="J481" s="3"/>
-      <c r="K481" s="3" t="s">
-        <v>1111</v>
+      <c r="K481" s="4" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
@@ -19537,8 +19556,8 @@
         <v>4</v>
       </c>
       <c r="J482" s="3"/>
-      <c r="K482" s="3" t="s">
-        <v>923</v>
+      <c r="K482" s="4" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
@@ -19570,8 +19589,8 @@
         <v>4</v>
       </c>
       <c r="J483" s="3"/>
-      <c r="K483" s="3" t="s">
-        <v>1112</v>
+      <c r="K483" s="4" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
@@ -19603,8 +19622,8 @@
         <v>4</v>
       </c>
       <c r="J484" s="3"/>
-      <c r="K484" s="3" t="s">
-        <v>1113</v>
+      <c r="K484" s="4" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
@@ -19636,8 +19655,8 @@
         <v>4</v>
       </c>
       <c r="J485" s="3"/>
-      <c r="K485" s="3" t="s">
-        <v>1114</v>
+      <c r="K485" s="4" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
@@ -19669,8 +19688,8 @@
         <v>4</v>
       </c>
       <c r="J486" s="3"/>
-      <c r="K486" s="3" t="s">
-        <v>921</v>
+      <c r="K486" s="4" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
@@ -19702,8 +19721,8 @@
         <v>4</v>
       </c>
       <c r="J487" s="3"/>
-      <c r="K487" s="3" t="s">
-        <v>1115</v>
+      <c r="K487" s="4" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
@@ -19735,8 +19754,8 @@
         <v>4</v>
       </c>
       <c r="J488" s="3"/>
-      <c r="K488" s="3" t="s">
-        <v>929</v>
+      <c r="K488" s="4" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
@@ -19768,8 +19787,8 @@
         <v>4</v>
       </c>
       <c r="J489" s="3"/>
-      <c r="K489" s="3" t="s">
-        <v>1116</v>
+      <c r="K489" s="4" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
@@ -19801,8 +19820,8 @@
         <v>4</v>
       </c>
       <c r="J490" s="3"/>
-      <c r="K490" s="3" t="s">
-        <v>966</v>
+      <c r="K490" s="4" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
@@ -19834,8 +19853,8 @@
         <v>4</v>
       </c>
       <c r="J491" s="3"/>
-      <c r="K491" s="3" t="s">
-        <v>1117</v>
+      <c r="K491" s="4" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
@@ -19867,8 +19886,8 @@
         <v>4</v>
       </c>
       <c r="J492" s="3"/>
-      <c r="K492" s="3" t="s">
-        <v>967</v>
+      <c r="K492" s="4" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
@@ -19900,8 +19919,8 @@
         <v>4</v>
       </c>
       <c r="J493" s="3"/>
-      <c r="K493" s="3" t="s">
-        <v>1118</v>
+      <c r="K493" s="4" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
@@ -19933,8 +19952,8 @@
         <v>4</v>
       </c>
       <c r="J494" s="3"/>
-      <c r="K494" s="3" t="s">
-        <v>1119</v>
+      <c r="K494" s="4" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
@@ -19966,8 +19985,8 @@
         <v>4</v>
       </c>
       <c r="J495" s="3"/>
-      <c r="K495" s="3" t="s">
-        <v>1119</v>
+      <c r="K495" s="4" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
@@ -19999,8 +20018,8 @@
         <v>4</v>
       </c>
       <c r="J496" s="3"/>
-      <c r="K496" s="3" t="s">
-        <v>970</v>
+      <c r="K496" s="4" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
@@ -20032,8 +20051,8 @@
         <v>4</v>
       </c>
       <c r="J497" s="3"/>
-      <c r="K497" s="3" t="s">
-        <v>1120</v>
+      <c r="K497" s="4" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
@@ -20065,8 +20084,8 @@
         <v>4</v>
       </c>
       <c r="J498" s="3"/>
-      <c r="K498" s="3" t="s">
-        <v>973</v>
+      <c r="K498" s="4" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
@@ -20098,8 +20117,8 @@
         <v>4</v>
       </c>
       <c r="J499" s="3"/>
-      <c r="K499" s="3" t="s">
-        <v>1121</v>
+      <c r="K499" s="4" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
@@ -20131,8 +20150,8 @@
         <v>4</v>
       </c>
       <c r="J500" s="3"/>
-      <c r="K500" s="3" t="s">
-        <v>978</v>
+      <c r="K500" s="4" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
@@ -20164,8 +20183,8 @@
         <v>4</v>
       </c>
       <c r="J501" s="3"/>
-      <c r="K501" s="3" t="s">
-        <v>1122</v>
+      <c r="K501" s="4" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
@@ -20197,8 +20216,8 @@
         <v>4</v>
       </c>
       <c r="J502" s="3"/>
-      <c r="K502" s="3" t="s">
-        <v>977</v>
+      <c r="K502" s="4" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
@@ -20230,8 +20249,8 @@
         <v>4</v>
       </c>
       <c r="J503" s="3"/>
-      <c r="K503" s="3" t="s">
-        <v>1123</v>
+      <c r="K503" s="4" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
@@ -20263,8 +20282,8 @@
         <v>4</v>
       </c>
       <c r="J504" s="3"/>
-      <c r="K504" s="3" t="s">
-        <v>1124</v>
+      <c r="K504" s="4" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
@@ -20296,8 +20315,8 @@
         <v>4</v>
       </c>
       <c r="J505" s="3"/>
-      <c r="K505" s="3" t="s">
-        <v>1125</v>
+      <c r="K505" s="4" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
@@ -20329,8 +20348,8 @@
         <v>4</v>
       </c>
       <c r="J506" s="3"/>
-      <c r="K506" s="3" t="s">
-        <v>1126</v>
+      <c r="K506" s="4" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
@@ -20362,8 +20381,8 @@
         <v>4</v>
       </c>
       <c r="J507" s="3"/>
-      <c r="K507" s="3" t="s">
-        <v>862</v>
+      <c r="K507" s="4" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
@@ -20395,8 +20414,8 @@
         <v>4</v>
       </c>
       <c r="J508" s="3"/>
-      <c r="K508" s="3" t="s">
-        <v>1127</v>
+      <c r="K508" s="4" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
@@ -20427,8 +20446,8 @@
       <c r="I509" t="s">
         <v>4</v>
       </c>
-      <c r="K509" t="s">
-        <v>1128</v>
+      <c r="K509" s="4" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
@@ -20459,8 +20478,8 @@
       <c r="I510" t="s">
         <v>4</v>
       </c>
-      <c r="K510" t="s">
-        <v>1129</v>
+      <c r="K510" s="4" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
@@ -20491,8 +20510,8 @@
       <c r="I511" t="s">
         <v>4</v>
       </c>
-      <c r="K511" t="s">
-        <v>1130</v>
+      <c r="K511" s="4" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
@@ -20524,7 +20543,7 @@
         <v>4</v>
       </c>
       <c r="K512" t="s">
-        <v>1131</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
@@ -20556,7 +20575,7 @@
         <v>4</v>
       </c>
       <c r="K513" t="s">
-        <v>1132</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
@@ -20588,7 +20607,7 @@
         <v>4</v>
       </c>
       <c r="K514" t="s">
-        <v>1133</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
@@ -20620,7 +20639,7 @@
         <v>4</v>
       </c>
       <c r="K515" t="s">
-        <v>1134</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
@@ -20652,7 +20671,7 @@
         <v>4</v>
       </c>
       <c r="K516" t="s">
-        <v>1135</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
@@ -20684,7 +20703,7 @@
         <v>4</v>
       </c>
       <c r="K517" t="s">
-        <v>1136</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
@@ -20716,7 +20735,7 @@
         <v>4</v>
       </c>
       <c r="K518" t="s">
-        <v>1137</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
@@ -20780,7 +20799,7 @@
         <v>4</v>
       </c>
       <c r="K520" t="s">
-        <v>1138</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
@@ -20812,7 +20831,7 @@
         <v>4</v>
       </c>
       <c r="K521" t="s">
-        <v>1139</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
@@ -20844,7 +20863,7 @@
         <v>4</v>
       </c>
       <c r="K522" t="s">
-        <v>1140</v>
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
